--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -1,51 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Desktop\doo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Extraclase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765862F2-B63D-46D8-A41F-E3925B9BC233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{765862F2-B63D-46D8-A41F-E3925B9BC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96584C1-0AF3-4F64-A33C-D0EC44B7DE48}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" tabRatio="646" firstSheet="13" activeTab="20" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="4" activeTab="7" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
-    <sheet name="entradas datos simulados" sheetId="8" r:id="rId1"/>
-    <sheet name="modelo de dominio" sheetId="5" r:id="rId2"/>
-    <sheet name="valores" sheetId="1" r:id="rId3"/>
+    <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
+    <sheet name="valores" sheetId="1" r:id="rId2"/>
+    <sheet name="objeto de dominio" sheetId="2" r:id="rId3"/>
     <sheet name="entradas" sheetId="7" r:id="rId4"/>
-    <sheet name="salidas datos simulados" sheetId="10" r:id="rId5"/>
+    <sheet name="entradas datos simulados" sheetId="8" r:id="rId5"/>
     <sheet name="salidas" sheetId="9" r:id="rId6"/>
-    <sheet name="producto datos simulados" sheetId="12" r:id="rId7"/>
+    <sheet name="salidas datos simulados" sheetId="10" r:id="rId7"/>
     <sheet name="producto" sheetId="11" r:id="rId8"/>
-    <sheet name="proveedor datos simulados" sheetId="14" r:id="rId9"/>
-    <sheet name="proveedor" sheetId="13" r:id="rId10"/>
-    <sheet name="pedido datos simulados" sheetId="16" r:id="rId11"/>
-    <sheet name="pedido" sheetId="15" r:id="rId12"/>
-    <sheet name="seccion datos simulados" sheetId="18" r:id="rId13"/>
-    <sheet name="seccion" sheetId="17" r:id="rId14"/>
-    <sheet name="estanteria datos simulados" sheetId="20" r:id="rId15"/>
-    <sheet name="estanteria" sheetId="19" r:id="rId16"/>
-    <sheet name="almacen datos simulados" sheetId="22" r:id="rId17"/>
-    <sheet name="almacen" sheetId="21" r:id="rId18"/>
-    <sheet name="usuario" sheetId="4" r:id="rId19"/>
-    <sheet name="usuario datos simulados" sheetId="6" r:id="rId20"/>
-    <sheet name="objeto de dominio" sheetId="2" r:id="rId21"/>
+    <sheet name="producto datos simulados" sheetId="12" r:id="rId9"/>
+    <sheet name="proveedor datos simulados" sheetId="14" r:id="rId10"/>
+    <sheet name="proveedor" sheetId="13" r:id="rId11"/>
+    <sheet name="pedido datos simulados" sheetId="16" r:id="rId12"/>
+    <sheet name="pedido" sheetId="15" r:id="rId13"/>
+    <sheet name="seccion datos simulados" sheetId="18" r:id="rId14"/>
+    <sheet name="seccion" sheetId="17" r:id="rId15"/>
+    <sheet name="estanteria datos simulados" sheetId="20" r:id="rId16"/>
+    <sheet name="estanteria" sheetId="19" r:id="rId17"/>
+    <sheet name="almacen datos simulados" sheetId="22" r:id="rId18"/>
+    <sheet name="almacen" sheetId="21" r:id="rId19"/>
+    <sheet name="usuario" sheetId="4" r:id="rId20"/>
+    <sheet name="usuario datos simulados" sheetId="6" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="102">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -272,9 +282,6 @@
     <t>letra</t>
   </si>
   <si>
-    <t>canrtidad</t>
-  </si>
-  <si>
     <t>ubicación</t>
   </si>
   <si>
@@ -327,13 +334,40 @@
   </si>
   <si>
     <t>valor salida</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>solo fecha y tiempo</t>
+  </si>
+  <si>
+    <t>dia y tiempo que se realizo la operación</t>
+  </si>
+  <si>
+    <t>permite saber la fecha y el momento en que se realizo la  operación</t>
+  </si>
+  <si>
+    <t>producto 1</t>
+  </si>
+  <si>
+    <t>cantidad de productos que entran</t>
+  </si>
+  <si>
+    <t>producto 2</t>
+  </si>
+  <si>
+    <t>lugar donde se reciben los productos</t>
+  </si>
+  <si>
+    <t>fecha y momento en que se realiza la salida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +419,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -461,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -499,12 +539,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -613,6 +694,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -626,19 +710,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,11 +1121,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED42EB-C555-428B-8FB3-97905AA08010}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE82A0-DB6A-4CD5-B840-CBF5C731FB0F}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,15 +1156,16 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1039,22 +1177,27 @@
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
         <f>usuario!A6</f>
         <v>id</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="3" t="str">
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="4" t="e">
+      <c r="C2" s="3" t="e">
         <f>usuario!#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="str">
+        <f>usuario!A8</f>
+        <v xml:space="preserve">cargo </v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1064,8 +1207,11 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1075,23 +1221,38 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{6DCB1E34-F30F-4C26-B0FA-9DF25B2A7D39}"/>
-    <hyperlink ref="A2" location="rubro!A6" display="rubro!A6" xr:uid="{E6FC2514-19BE-4C8A-AEC1-2804591A9298}"/>
-    <hyperlink ref="B2" location="rubro!A7" display="rubro!A7" xr:uid="{28961F8C-41EA-48E1-B3FC-0472402859D5}"/>
-    <hyperlink ref="C2" location="rubro!A8" display="rubro!A8" xr:uid="{A02E978D-FDEA-4D09-89D4-E3232492192E}"/>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{06A445BA-B451-4197-BF38-24940273D6CF}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{843F7BDD-8D68-463A-9E31-20814081DF19}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{7E2BFDC2-D120-48E9-95F8-AAF40FC0D68C}"/>
+    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{89C8B9AB-A379-4733-8664-CDE2DF06EA2B}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{58C5DFB8-8B06-4286-AC24-C52666EA63C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE1C971E-7644-4436-AC64-D9582EDF055C}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9004F226-EC64-4971-A203-FC8B4C3FF85A}">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -1121,72 +1282,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A6</f>
         <v>proveedor</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1407,10 +1568,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1419,8 +1580,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="17" t="s">
         <v>48</v>
       </c>
@@ -1461,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E3B0D4-F4A7-4954-BDBF-726FE6967B15}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -1478,12 +1639,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1570,7 +1731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40E1B6-4531-4994-B6AC-90578AE62464}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -1600,72 +1761,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>pedido</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1899,10 +2060,10 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1911,8 +2072,8 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="17" t="s">
         <v>48</v>
       </c>
@@ -1953,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBAB2E-38B0-4A92-9C59-FA8DBF34BEC1}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -1970,12 +2131,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2062,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368A708-2749-4703-86E8-954F21D6A2C1}">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -2092,72 +2253,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>seccion</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B8</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2378,10 +2539,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2390,8 +2551,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="17" t="s">
         <v>48</v>
       </c>
@@ -2432,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612731F-09A7-4DBE-AD4C-0BAC186A2E74}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -2449,12 +2610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2541,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E83D28-25DC-43FE-8F97-E5F95A575D12}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2571,72 +2732,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A9</f>
         <v>estanteria</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B9</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2873,10 +3034,10 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -2885,8 +3046,8 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="17" t="s">
         <v>48</v>
       </c>
@@ -2927,7 +3088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2965285-6401-4B64-BC72-4ABFD8289385}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -2988,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEBBFCD-84FA-4767-AE39-9B7EBFB1471E}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -3043,72 +3204,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A10</f>
         <v>almacen</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B10</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3372,23 +3533,23 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="49" t="str">
+      <c r="B14" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="44" t="str">
         <f>A6</f>
         <v>identificador</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="43" t="str">
@@ -3398,8 +3559,8 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="42" t="str">
         <f>A8</f>
         <v xml:space="preserve">departamento </v>
@@ -3407,10 +3568,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>86</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>87</v>
       </c>
       <c r="C17" s="42" t="str">
         <f>A9</f>
@@ -3419,7 +3580,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
-      <c r="B18" s="48"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="42" t="str">
         <f>A10</f>
         <v>direccion</v>
@@ -3462,7 +3623,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2D8E9-4CD5-4506-B21F-D4D4C753A1EE}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -3492,72 +3725,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>usuario</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3739,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3767,7 +4000,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="43" t="str">
         <f>A6</f>
@@ -3808,30 +4041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78B15AE-D8B9-4C55-AF7B-07803F46F0D7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3848,11 +4058,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -3896,11 +4106,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A53C3-127F-4FB1-B767-C55AA23A65C9}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4081,84 +4293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2D8E9-4CD5-4506-B21F-D4D4C753A1EE}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4DED06-BCF9-4CF0-8785-A4BC39484F95}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A9" sqref="A9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,7 +4311,7 @@
     <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -4183,72 +4323,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A3</f>
         <v>entradas</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4346,12 +4486,12 @@
         <v>33</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>1</v>
@@ -4388,80 +4528,104 @@
         <v>33</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="54">
         <v>1</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="54">
         <v>10</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="22" t="s">
+      <c r="K8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="M8" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
@@ -4470,29 +4634,47 @@
       <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B12" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="42" t="str">
+      <c r="B13" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="42" t="str">
         <f>A7</f>
         <v>ubicación</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4506,32 +4688,614 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D864743E-EDC1-4E17-A431-FBB09A26E835}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9 C9:D9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C366B28A-9700-4041-BE6D-65FAE84F0509}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF739F-67E3-4204-8A0A-2335A5A0DE4E}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED42EB-C555-428B-8FB3-97905AA08010}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
+        <f>usuario!A6</f>
+        <v>id</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>entradas!$A$6</f>
+        <v>nombre</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>entradas!$A$7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>entradas!$A$8</f>
+        <v>valor entrada</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>entradas!$A$9</f>
+        <v>fecha</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{6DCB1E34-F30F-4C26-B0FA-9DF25B2A7D39}"/>
+    <hyperlink ref="A2" location="rubro!A6" display="rubro!A6" xr:uid="{E6FC2514-19BE-4C8A-AEC1-2804591A9298}"/>
+    <hyperlink ref="B2" location="rubro!A7" display="rubro!A7" xr:uid="{28961F8C-41EA-48E1-B3FC-0472402859D5}"/>
+    <hyperlink ref="C2" location="rubro!A8" display="rubro!A8" xr:uid="{A02E978D-FDEA-4D09-89D4-E3232492192E}"/>
+    <hyperlink ref="D2" location="entradas!A8" display="entradas!A8" xr:uid="{6A5860B5-F74F-4295-8FAF-31EF77B54A0C}"/>
+    <hyperlink ref="E2" location="entradas!A9" display="entradas!A9" xr:uid="{B27CC59F-47A0-44DE-A072-E8DB93EF824B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35395E7B-5341-4AFE-9AA9-7F697B128173}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="46" t="str">
+        <f>'objeto de dominio'!A4</f>
+        <v>salidas</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="47">
+        <f>'objeto de dominio'!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>36</v>
+      </c>
+      <c r="D6" s="22">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="54">
+        <v>1</v>
+      </c>
+      <c r="D9" s="54">
+        <v>10</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="43" t="str">
+        <f>A7</f>
+        <v>nombre</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="42" t="str">
+        <f>A9</f>
+        <v>valor salida</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8A056860-BB44-4A49-8558-1F0847D1108A}"/>
+    <hyperlink ref="A4" location="'salidas datos simulados'!A1" display="datos simulados" xr:uid="{9A6AFD02-7ADF-4429-B7C2-3D417AF7EFE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27617C11-3FA9-4779-A408-1114C9412228}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K10:O10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B66C66D-5234-4DFC-AC62-C5AE8ABAE7AB}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9 B10:D10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF739F-67E3-4204-8A0A-2335A5A0DE4E}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -4554,13 +5318,17 @@
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="3" t="e">
-        <f>usuario!#REF!</f>
-        <v>#REF!</v>
+      <c r="C2" s="4" t="str">
+        <f>entradas!$A$7</f>
+        <v>ubicación</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
+        <f>entradas!$A$8</f>
+        <v>valor entrada</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>entradas!$A$9</f>
+        <v>fecha</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4568,13 +5336,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4582,13 +5353,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4598,9 +5372,10 @@
   <hyperlinks>
     <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{25F866B8-344C-432E-B61D-3EBE992D20F4}"/>
     <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7B02573B-7E1C-4759-8E6C-B2DECB89A039}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{D13E785B-A65E-47E6-B250-C642A4A7C96F}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{53DBEF74-BE85-4816-B32B-E6F626CB0DB7}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D12E91A-9910-48D6-9417-A38EF7D62832}"/>
+    <hyperlink ref="C2" location="salidas!A7" display="salidas!A7" xr:uid="{CF4A8A4C-B91F-4238-A184-AF70E5B3934D}"/>
+    <hyperlink ref="D2" location="salidas!A8" display="salidas!A8" xr:uid="{7BC3003A-8A2F-4E38-82BE-67A7BE6081E8}"/>
+    <hyperlink ref="E2" location="salidas!A9" display="salidas!A9" xr:uid="{4DD6FF31-4F36-4804-96C8-67EDA4F05196}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4618,532 +5393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35395E7B-5341-4AFE-9AA9-7F697B128173}">
-  <dimension ref="A1:P14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
-        <f>'objeto de dominio'!$A$1</f>
-        <v>objetos de dominio</v>
-      </c>
-      <c r="B2" s="45" t="str">
-        <f>'objeto de dominio'!A4</f>
-        <v>salidas</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
-        <f>'objeto de dominio'!B1</f>
-        <v>descripcion</v>
-      </c>
-      <c r="B3" s="46">
-        <f>'objeto de dominio'!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <v>36</v>
-      </c>
-      <c r="D6" s="22">
-        <v>36</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22">
-        <v>50</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>100</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22">
-        <v>10</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="43" t="str">
-        <f>A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="42" t="str">
-        <f>A9</f>
-        <v>valor salida</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8A056860-BB44-4A49-8558-1F0847D1108A}"/>
-    <hyperlink ref="A4" location="'salidas datos simulados'!A1" display="datos simulados" xr:uid="{9A6AFD02-7ADF-4429-B7C2-3D417AF7EFE8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
-        <v>id</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>usuario!A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="3" t="e">
-        <f>usuario!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2D05F395-A974-48DE-A483-376CC9739DB0}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{2F75A882-A16C-47F7-807F-4CD31D1D4A9B}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{7B415D16-C448-4B2C-A650-EB1039073927}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AAE5A95-83F3-43CE-AE76-EF70FE66CB43}">
-          <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5168,72 +5423,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="46" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>producto</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <f>'objeto de dominio'!B5</f>
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5378,7 +5633,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>2</v>
@@ -5494,10 +5749,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -5506,8 +5761,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -5549,7 +5804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE82A0-DB6A-4CD5-B840-CBF5C731FB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5565,12 +5820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5635,17 +5890,17 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{06A445BA-B451-4197-BF38-24940273D6CF}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{843F7BDD-8D68-463A-9E31-20814081DF19}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{7E2BFDC2-D120-48E9-95F8-AAF40FC0D68C}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{89C8B9AB-A379-4733-8664-CDE2DF06EA2B}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{58C5DFB8-8B06-4286-AC24-C52666EA63C5}"/>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2D05F395-A974-48DE-A483-376CC9739DB0}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{2F75A882-A16C-47F7-807F-4CD31D1D4A9B}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
+    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{7B415D16-C448-4B2C-A650-EB1039073927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE1C971E-7644-4436-AC64-D9582EDF055C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AAE5A95-83F3-43CE-AE76-EF70FE66CB43}">
           <x14:formula1>
             <xm:f>valores!$C$2:$C$3</xm:f>
           </x14:formula1>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Extraclase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{765862F2-B63D-46D8-A41F-E3925B9BC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96584C1-0AF3-4F64-A33C-D0EC44B7DE48}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{765862F2-B63D-46D8-A41F-E3925B9BC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0B73F3-FC63-4854-8F92-90283261E72F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="4" activeTab="7" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="104">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>fecha y momento en que se realiza la salida</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Peso</t>
   </si>
 </sst>
 </file>
@@ -697,27 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +738,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,12 +1166,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1282,72 +1288,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A6</f>
         <v>proveedor</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1568,10 +1574,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1580,8 +1586,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="17" t="s">
         <v>48</v>
       </c>
@@ -1639,12 +1645,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1761,72 +1767,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>pedido</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2060,10 +2066,10 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -2072,8 +2078,8 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="17" t="s">
         <v>48</v>
       </c>
@@ -2131,12 +2137,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2253,72 +2259,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>seccion</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B8</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2539,10 +2545,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2551,8 +2557,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="17" t="s">
         <v>48</v>
       </c>
@@ -2610,12 +2616,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2732,72 +2738,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A9</f>
         <v>estanteria</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B9</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3034,10 +3040,10 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -3046,8 +3052,8 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="17" t="s">
         <v>48</v>
       </c>
@@ -3204,72 +3210,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A10</f>
         <v>almacen</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B10</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3546,10 +3552,10 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="61" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="43" t="str">
@@ -3559,18 +3565,18 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="42" t="str">
         <f>A8</f>
         <v xml:space="preserve">departamento </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="62" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="42" t="str">
@@ -3579,8 +3585,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="42" t="str">
         <f>A10</f>
         <v>direccion</v>
@@ -3625,10 +3631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2D8E9-4CD5-4506-B21F-D4D4C753A1EE}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,7 +3642,7 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,8 +3652,11 @@
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3657,8 +3666,11 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3668,23 +3680,26 @@
       <c r="C3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3725,72 +3740,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>usuario</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4058,11 +4073,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -4323,72 +4338,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A3</f>
         <v>entradas</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4532,86 +4547,86 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="47">
         <v>1</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="47">
         <v>10</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="53" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="55" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="54" t="s">
+      <c r="K8" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="54" t="s">
+      <c r="N8" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="57" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="58" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="58" t="s">
+      <c r="L9" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="58" t="s">
+      <c r="N9" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="51" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4727,11 +4742,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -4849,72 +4864,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A4</f>
         <v>salidas</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4977,7 +4992,7 @@
       <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="22">
@@ -5019,7 +5034,7 @@
       <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="22">
@@ -5061,7 +5076,7 @@
       <c r="A8" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="22">
@@ -5100,86 +5115,86 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="47">
         <v>1</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="47">
         <v>10</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="53" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="55" t="s">
+      <c r="I9" s="46"/>
+      <c r="J9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="54" t="s">
+      <c r="K9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="54" t="s">
+      <c r="N9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62" t="s">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="62" t="s">
+      <c r="J10" s="56"/>
+      <c r="K10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="62" t="s">
+      <c r="L10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="62" t="s">
+      <c r="N10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5290,12 +5305,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5397,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,72 +5438,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="58" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>producto</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="59">
         <f>'objeto de dominio'!B5</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5749,10 +5764,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -5761,8 +5776,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -5808,7 +5823,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5816,16 +5831,16 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5848,13 +5863,17 @@
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="3" t="e">
-        <f>usuario!#REF!</f>
-        <v>#REF!</v>
+      <c r="C2" s="3" t="str">
+        <f>producto!$A$7</f>
+        <v>nombre</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
+        <f>producto!$A$8</f>
+        <v>cantidad</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>producto!$A$9</f>
+        <v xml:space="preserve">descripcion </v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5895,6 +5914,7 @@
     <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
     <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{7B415D16-C448-4B2C-A650-EB1039073927}"/>
+    <hyperlink ref="E2" location="producto!A9" display="producto!A9" xr:uid="{111E3087-E847-4019-B37F-AB5F8CC4E69E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Extraclase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{765862F2-B63D-46D8-A41F-E3925B9BC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0B73F3-FC63-4854-8F92-90283261E72F}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{765862F2-B63D-46D8-A41F-E3925B9BC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B711EB-1F77-4413-B31A-2445E80BDB05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="4" activeTab="7" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="121">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -87,9 +87,6 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>descripcio</t>
-  </si>
-  <si>
     <t xml:space="preserve">descripcion </t>
   </si>
   <si>
@@ -309,15 +306,6 @@
     <t>no es posible tener mas de un articulo en la misma ubicación</t>
   </si>
   <si>
-    <t>no es posible tener mas de un mismo identificador</t>
-  </si>
-  <si>
-    <t>combinacion 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no es posible tener mas de una ciudad con la misma mireccion </t>
-  </si>
-  <si>
     <t>colombia</t>
   </si>
   <si>
@@ -367,6 +355,69 @@
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No es posible tener mas de un almacen con el mismo pais, departamento, ciudad y direccion </t>
+  </si>
+  <si>
+    <t>Combinacion 2</t>
+  </si>
+  <si>
+    <t>No es posible tener dos identificaciones iguales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no es posible tener mas pasillo,numero y letra con el mismo nombre  </t>
+  </si>
+  <si>
+    <t>no es posible que existan mas de in id, pasillo, numero,letra al mismo tiempo</t>
+  </si>
+  <si>
+    <t>no es posible que existan mas de una seccion con el mismo nombre e identificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no es posible tener mas de una seccion con el mismo nombre  </t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>Latti</t>
+  </si>
+  <si>
+    <t>Bimbo</t>
+  </si>
+  <si>
+    <t>Empresa distribuidora de muchos productos vendidos por la cadena de tiendas D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresa distribuidora de prductos </t>
+  </si>
+  <si>
+    <t>Tipo unidad</t>
+  </si>
+  <si>
+    <t>cuidados</t>
+  </si>
+  <si>
+    <t>solo numeros</t>
+  </si>
+  <si>
+    <t>permite conocer al usuario que tipo de unidad se basa el producto</t>
+  </si>
+  <si>
+    <t>permite conocer al usuario la cantidad que el producto posee</t>
+  </si>
+  <si>
+    <t>permite conocer al usuario que unidad de medida se usa para el producto</t>
+  </si>
+  <si>
+    <t>unidad de medida</t>
+  </si>
+  <si>
+    <t>permite conocer al usuario que cuidados debe tener con el producto</t>
   </si>
 </sst>
 </file>
@@ -507,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -586,12 +637,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -739,6 +814,23 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,13 +843,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,7 +1228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1154,24 +1254,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="63" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1187,34 +1287,27 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
-        <v>id</v>
+        <f>proveedor!$A$6</f>
+        <v>identificador</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>usuario!A7</f>
+        <f>proveedor!$A$7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="3" t="e">
-        <f>usuario!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="62" t="str">
+        <f>proveedor!$A$8</f>
+        <v xml:space="preserve">descripcion </v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
+        <v>109</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1222,13 +1315,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1236,10 +1326,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{06A445BA-B451-4197-BF38-24940273D6CF}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{843F7BDD-8D68-463A-9E31-20814081DF19}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{7E2BFDC2-D120-48E9-95F8-AAF40FC0D68C}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{89C8B9AB-A379-4733-8664-CDE2DF06EA2B}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{58C5DFB8-8B06-4286-AC24-C52666EA63C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1250,7 +1336,7 @@
           <x14:formula1>
             <xm:f>valores!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
+          <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1288,133 +1374,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A6</f>
         <v>proveedor</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -1429,34 +1515,34 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -1471,34 +1557,34 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -1513,31 +1599,31 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1550,22 +1636,22 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>A7</f>
@@ -1574,22 +1660,22 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="C13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -1633,24 +1719,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" style="63" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1673,41 +1759,32 @@
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="3" t="e">
-        <f>usuario!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="62" t="str">
+        <f>proveedor!$A$8</f>
+        <v xml:space="preserve">descripcion </v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
+      <c r="C4" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1795,6 @@
     <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{10B5FC35-9514-4AE3-8478-572BC2A210C6}"/>
     <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{BBB51878-BFA8-4624-942C-3C7A30B67A31}"/>
     <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{2F00E0C3-BE65-494E-B4EB-3DFC00C781AC}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{5E8DAC24-FDB8-420A-A461-FB6DEF9A1D12}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{2C8089F9-C25C-4D23-884C-5570FC17FC18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,133 +1843,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>pedido</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -1908,34 +1984,34 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -1950,34 +2026,34 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -1992,31 +2068,31 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2057,31 +2133,31 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="40"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="C12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="11"/>
     </row>
@@ -2125,7 +2201,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,12 +2213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2158,48 +2234,38 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
-        <v>id</v>
-      </c>
-      <c r="B2" s="3" t="str">
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="3" t="e">
-        <f>usuario!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="3" t="str">
+      <c r="B2" s="3" t="str">
         <f>usuario!A8</f>
         <v xml:space="preserve">cargo </v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="62" t="str">
+        <f>seccion!$A$8</f>
+        <v xml:space="preserve">descripcion </v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2207,11 +2273,10 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{22176BED-1F3F-4BBF-B794-443FB0FD746D}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{29106ED1-1D70-42D9-8BD0-1E7C60A84F5A}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{FE0A8D83-3348-4E26-9297-68F7CA9AF28D}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{7BF888E0-60B9-4296-BA8F-1C30CA5622B0}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{E3928104-393F-4ED5-A221-08AD34A06CD3}"/>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{BC7BD236-24E3-425C-B87E-72BCF15B19E4}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{71D3A511-6016-45C7-927D-31ADFBA3349F}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{F7114C02-C628-4711-A5A5-7D6EFD712F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2221,7 +2286,7 @@
           <x14:formula1>
             <xm:f>valores!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
+          <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2234,13 +2299,13 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -2259,133 +2324,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>seccion</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B8</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -2400,34 +2465,34 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -2442,34 +2507,34 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -2484,31 +2549,31 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2521,46 +2586,46 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="18" t="str">
+      <c r="B12" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="61" t="str">
         <f>A7</f>
         <v>nombre</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -2604,24 +2669,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="63" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2644,41 +2709,32 @@
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="3" t="e">
-        <f>usuario!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="62" t="str">
+        <f>seccion!$A$8</f>
+        <v xml:space="preserve">descripcion </v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +2745,6 @@
     <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2FF3A405-E19D-4693-B1E0-060F48BAC3FB}"/>
     <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7C625551-1007-4041-A06B-86D441A7E48D}"/>
     <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{E5AB9271-0620-4A85-8DAA-993D84728506}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{08F895E6-C13A-4BAB-AFE9-14EC288B7D5A}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{C32B3212-8D84-43EF-8D91-15E8B822369B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2713,13 +2768,13 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -2738,133 +2793,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A9</f>
         <v>estanteria</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B9</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -2879,42 +2934,50 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14"/>
       <c r="K7" s="8"/>
@@ -2926,15 +2989,23 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="14"/>
       <c r="K8" s="8"/>
@@ -2946,7 +3017,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>1</v>
@@ -2961,42 +3032,50 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="14"/>
       <c r="K10" s="8"/>
@@ -3016,46 +3095,46 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="18" t="str">
+        <v>42</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="59" t="str">
         <f>A9</f>
         <v xml:space="preserve">numero </v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -3155,16 +3234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3185,13 +3264,13 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -3210,133 +3289,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A10</f>
         <v>almacen</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B10</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -3351,34 +3430,34 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -3393,34 +3472,34 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -3429,93 +3508,121 @@
         <v>1</v>
       </c>
       <c r="D8" s="8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>50</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="J9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>50</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="K10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3528,22 +3635,22 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>84</v>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="C14" s="44" t="str">
         <f>A6</f>
@@ -3552,11 +3659,11 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>44</v>
+      <c r="A15" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="43" t="str">
         <f>A7</f>
@@ -3565,42 +3672,36 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="42" t="str">
         <f>A8</f>
         <v xml:space="preserve">departamento </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>86</v>
-      </c>
+      <c r="A17" s="71"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="42" t="str">
         <f>A9</f>
         <v>ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="42" t="str">
         <f>A10</f>
         <v>direccion</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B36B8A9F-9652-4848-8F38-E87097CE1950}"/>
@@ -3633,7 +3734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2D8E9-4CD5-4506-B21F-D4D4C753A1EE}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3647,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,13 +3762,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,13 +3776,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3714,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,133 +3841,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>usuario</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -3881,34 +3982,34 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -3923,34 +4024,34 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -3965,29 +4066,29 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4000,22 +4101,22 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="43" t="str">
         <f>A6</f>
@@ -4073,11 +4174,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -4157,7 +4258,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="18"/>
@@ -4169,7 +4270,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="18"/>
@@ -4181,7 +4282,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="18"/>
@@ -4193,7 +4294,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="18"/>
@@ -4205,7 +4306,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="18"/>
@@ -4217,7 +4318,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="18"/>
@@ -4229,7 +4330,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="18"/>
@@ -4241,7 +4342,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="18"/>
@@ -4253,7 +4354,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="18"/>
@@ -4338,133 +4439,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A3</f>
         <v>entradas</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>1</v>
@@ -4479,34 +4580,34 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>1</v>
@@ -4521,34 +4622,34 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>2</v>
@@ -4563,29 +4664,29 @@
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -4605,29 +4706,29 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="50" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4668,22 +4769,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="42" t="str">
         <f>A7</f>
@@ -4742,11 +4843,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -4787,16 +4888,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4804,16 +4905,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4864,133 +4965,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A4</f>
         <v>salidas</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>1</v>
@@ -5005,34 +5106,34 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>1</v>
@@ -5047,34 +5148,34 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>1</v>
@@ -5089,34 +5190,34 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>2</v>
@@ -5131,29 +5232,29 @@
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5173,29 +5274,29 @@
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
       <c r="H10" s="55" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J10" s="56"/>
       <c r="K10" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -5218,22 +5319,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="43" t="str">
         <f>A7</f>
@@ -5243,10 +5344,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="42" t="str">
         <f>A9</f>
@@ -5305,12 +5406,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5351,16 +5452,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5368,16 +5469,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5410,16 +5511,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -5438,133 +5540,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="65" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>producto</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <f>'objeto de dominio'!B5</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -5579,34 +5681,34 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -5621,175 +5723,317 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8" s="8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="J8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
       </c>
       <c r="D9" s="8">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>26</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+      <c r="A10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="A11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>200</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B16" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="18" t="str">
+      <c r="C16" s="18" t="str">
         <f>A7</f>
         <v>nombre</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="C17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="11"/>
+      <c r="H18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
@@ -5804,13 +6048,13 @@
           <x14:formula1>
             <xm:f>valores!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B10</xm:sqref>
+          <xm:sqref>B6:B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E5DADB3-3FD8-41B2-BA96-F4BFA88D084A}">
           <x14:formula1>
             <xm:f>valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O10</xm:sqref>
+          <xm:sqref>K6:O13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5835,12 +6079,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5868,11 +6112,11 @@
         <v>nombre</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>producto!$A$8</f>
+        <f>producto!$A$9</f>
         <v>cantidad</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>producto!$A$9</f>
+        <f>producto!$A$12</f>
         <v xml:space="preserve">descripcion </v>
       </c>
     </row>
@@ -5881,13 +6125,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5895,13 +6139,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Extraclase/Modelo de dominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{765862F2-B63D-46D8-A41F-E3925B9BC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B711EB-1F77-4413-B31A-2445E80BDB05}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389C279E-BB84-4978-B116-470CF3F202B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="4" activeTab="7" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="5" activeTab="8" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="128">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -418,6 +418,27 @@
   </si>
   <si>
     <t>permite conocer al usuario que cuidados debe tener con el producto</t>
+  </si>
+  <si>
+    <t>Doritos</t>
+  </si>
+  <si>
+    <t>Superficie</t>
+  </si>
+  <si>
+    <t>Volumen</t>
+  </si>
+  <si>
+    <t>gramos</t>
+  </si>
+  <si>
+    <t>libras</t>
+  </si>
+  <si>
+    <t>kilos</t>
+  </si>
+  <si>
+    <t>cm¨2</t>
   </si>
 </sst>
 </file>
@@ -5513,9 +5534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,27 +6085,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="63" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6096,69 +6117,88 @@
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>usuario!A6</f>
         <v>id</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f>usuario!A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="3" t="str">
+      <c r="B2" s="62" t="str">
         <f>producto!$A$7</f>
         <v>nombre</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>producto!$A$8</f>
+        <v>Tipo unidad</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>producto!$A$9</f>
         <v>cantidad</v>
       </c>
       <c r="E2" s="3" t="str">
+        <f>producto!$A$10</f>
+        <v>unidad de medida</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>producto!$A$11</f>
+        <v>cuidados</v>
+      </c>
+      <c r="G2" s="3" t="str">
         <f>producto!$A$12</f>
         <v xml:space="preserve">descripcion </v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2D05F395-A974-48DE-A483-376CC9739DB0}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{2F75A882-A16C-47F7-807F-4CD31D1D4A9B}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{7B415D16-C448-4B2C-A650-EB1039073927}"/>
-    <hyperlink ref="E2" location="producto!A9" display="producto!A9" xr:uid="{111E3087-E847-4019-B37F-AB5F8CC4E69E}"/>
+    <hyperlink ref="D2" location="producto!A9" display="producto!A9" xr:uid="{111E3087-E847-4019-B37F-AB5F8CC4E69E}"/>
+    <hyperlink ref="E2:G2" location="producto!A9" display="producto!A9" xr:uid="{4189D531-F9A0-4A86-83D9-BDBF79DFDC05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6168,7 +6208,7 @@
           <x14:formula1>
             <xm:f>valores!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
+          <xm:sqref>C3:C4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -5,35 +5,42 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Extraclase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389C279E-BB84-4978-B116-470CF3F202B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{389C279E-BB84-4978-B116-470CF3F202B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF56FF15-1883-4744-9C7C-274FA1A1C1C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="5" activeTab="8" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="3" activeTab="7" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
     <sheet name="valores" sheetId="1" r:id="rId2"/>
     <sheet name="objeto de dominio" sheetId="2" r:id="rId3"/>
-    <sheet name="entradas" sheetId="7" r:id="rId4"/>
-    <sheet name="entradas datos simulados" sheetId="8" r:id="rId5"/>
-    <sheet name="salidas" sheetId="9" r:id="rId6"/>
-    <sheet name="salidas datos simulados" sheetId="10" r:id="rId7"/>
-    <sheet name="producto" sheetId="11" r:id="rId8"/>
-    <sheet name="producto datos simulados" sheetId="12" r:id="rId9"/>
-    <sheet name="proveedor datos simulados" sheetId="14" r:id="rId10"/>
-    <sheet name="proveedor" sheetId="13" r:id="rId11"/>
-    <sheet name="pedido datos simulados" sheetId="16" r:id="rId12"/>
-    <sheet name="pedido" sheetId="15" r:id="rId13"/>
-    <sheet name="seccion datos simulados" sheetId="18" r:id="rId14"/>
-    <sheet name="seccion" sheetId="17" r:id="rId15"/>
-    <sheet name="estanteria datos simulados" sheetId="20" r:id="rId16"/>
-    <sheet name="estanteria" sheetId="19" r:id="rId17"/>
-    <sheet name="almacen datos simulados" sheetId="22" r:id="rId18"/>
-    <sheet name="almacen" sheetId="21" r:id="rId19"/>
-    <sheet name="usuario" sheetId="4" r:id="rId20"/>
-    <sheet name="usuario datos simulados" sheetId="6" r:id="rId21"/>
+    <sheet name="Ciudad" sheetId="25" r:id="rId4"/>
+    <sheet name="Departamento" sheetId="26" r:id="rId5"/>
+    <sheet name="Pais" sheetId="27" r:id="rId6"/>
+    <sheet name="Cuidado" sheetId="28" r:id="rId7"/>
+    <sheet name="Unidad Medida" sheetId="29" r:id="rId8"/>
+    <sheet name="entradas" sheetId="7" r:id="rId9"/>
+    <sheet name="entradas datos simulados" sheetId="8" r:id="rId10"/>
+    <sheet name="salidas" sheetId="9" r:id="rId11"/>
+    <sheet name="salidas datos simulados" sheetId="10" r:id="rId12"/>
+    <sheet name="producto" sheetId="11" r:id="rId13"/>
+    <sheet name="producto datos simulados" sheetId="12" r:id="rId14"/>
+    <sheet name="Tipo Unidad" sheetId="23" r:id="rId15"/>
+    <sheet name="Tipo U datos simulados" sheetId="24" r:id="rId16"/>
+    <sheet name="proveedor datos simulados" sheetId="14" r:id="rId17"/>
+    <sheet name="proveedor" sheetId="13" r:id="rId18"/>
+    <sheet name="pedido datos simulados" sheetId="16" r:id="rId19"/>
+    <sheet name="pedido" sheetId="15" r:id="rId20"/>
+    <sheet name="seccion datos simulados" sheetId="18" r:id="rId21"/>
+    <sheet name="seccion" sheetId="17" r:id="rId22"/>
+    <sheet name="estanteria datos simulados" sheetId="20" r:id="rId23"/>
+    <sheet name="estanteria" sheetId="19" r:id="rId24"/>
+    <sheet name="almacen datos simulados" sheetId="22" r:id="rId25"/>
+    <sheet name="almacen" sheetId="21" r:id="rId26"/>
+    <sheet name="usuario" sheetId="4" r:id="rId27"/>
+    <sheet name="usuario datos simulados" sheetId="6" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="154">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -228,12 +235,6 @@
     <t>usuario</t>
   </si>
   <si>
-    <t>entradas</t>
-  </si>
-  <si>
-    <t>salidas</t>
-  </si>
-  <si>
     <t>producto</t>
   </si>
   <si>
@@ -439,6 +440,90 @@
   </si>
   <si>
     <t>cm¨2</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>no poner demasiado peso sobre el producto pues este puede estallar</t>
+  </si>
+  <si>
+    <t>Marca de tortilla de chip, un tradicional totopo mexica condimentado, hecho de tortilla de maiz frita con forma triangular</t>
+  </si>
+  <si>
+    <t>unidad medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permite saber la unidad de medida en la que esta ubicada el tipo de unidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no es posible que existan mas de un tipo de unidad con el mismo identificador y pertenesca a la misma unidad de medida </t>
+  </si>
+  <si>
+    <t>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>salida</t>
+  </si>
+  <si>
+    <t>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</t>
+  </si>
+  <si>
+    <t>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</t>
+  </si>
+  <si>
+    <t>Entidad que representa el producto y los diferentes aspectos y cuidados de este  y es guardado en estanterias</t>
+  </si>
+  <si>
+    <t>Entidad que representa el proveedor y corresponde a aquella empresa a la cual se les hacen pedidos de productos</t>
+  </si>
+  <si>
+    <t>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>cuidado</t>
+  </si>
+  <si>
+    <t>tipo unidad</t>
+  </si>
+  <si>
+    <t>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</t>
+  </si>
+  <si>
+    <t>Entidad que representa la estanteria y en donde se ubicarian los productos</t>
+  </si>
+  <si>
+    <t>Entida que representa el almacen que estaria ubicado en un direccion y contendria las secciones</t>
+  </si>
+  <si>
+    <t>Entidad que representa la cuidad y donde esta ubicado uno o varios almacenes</t>
+  </si>
+  <si>
+    <t>Entidad que representa departamento y donde pertence la ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entidad que representa el pais y donde pertence el departamento </t>
+  </si>
+  <si>
+    <t>Entidad que presenta el cuidado y los detalles del manejo y almancenamiento del producto</t>
+  </si>
+  <si>
+    <t>Entidad que representa al tipo unidad y que corresponde al tipo de contenido que posee el producto en el cual es se controla</t>
+  </si>
+  <si>
+    <t>Entidad que presenta la unidad de medida a la cual pertencen y son medidos en el tipo unidad</t>
+  </si>
+  <si>
+    <t>Cuidado</t>
   </si>
 </sst>
 </file>
@@ -687,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -768,17 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -879,6 +953,29 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1271,28 +1368,592 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE82A0-DB6A-4CD5-B840-CBF5C731FB0F}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED42EB-C555-428B-8FB3-97905AA08010}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="63" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
+        <f>usuario!A6</f>
+        <v>id</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>entradas!$A$6</f>
+        <v>nombre</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>entradas!$A$7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>entradas!$A$8</f>
+        <v>valor entrada</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>entradas!$A$9</f>
+        <v>fecha</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{6DCB1E34-F30F-4C26-B0FA-9DF25B2A7D39}"/>
+    <hyperlink ref="A2" location="rubro!A6" display="rubro!A6" xr:uid="{E6FC2514-19BE-4C8A-AEC1-2804591A9298}"/>
+    <hyperlink ref="B2" location="rubro!A7" display="rubro!A7" xr:uid="{28961F8C-41EA-48E1-B3FC-0472402859D5}"/>
+    <hyperlink ref="C2" location="rubro!A8" display="rubro!A8" xr:uid="{A02E978D-FDEA-4D09-89D4-E3232492192E}"/>
+    <hyperlink ref="D2" location="entradas!A8" display="entradas!A8" xr:uid="{6A5860B5-F74F-4295-8FAF-31EF77B54A0C}"/>
+    <hyperlink ref="E2" location="entradas!A9" display="entradas!A9" xr:uid="{B27CC59F-47A0-44DE-A072-E8DB93EF824B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35395E7B-5341-4AFE-9AA9-7F697B128173}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="60" t="str">
+        <f>'objeto de dominio'!A4</f>
+        <v>salida</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="61" t="str">
+        <f>'objeto de dominio'!B4</f>
+        <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>36</v>
+      </c>
+      <c r="D6" s="22">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="42">
+        <v>1</v>
+      </c>
+      <c r="D9" s="42">
+        <v>10</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="38" t="str">
+        <f>A7</f>
+        <v>nombre</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="37" t="str">
+        <f>A9</f>
+        <v>valor salida</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8A056860-BB44-4A49-8558-1F0847D1108A}"/>
+    <hyperlink ref="A4" location="'salidas datos simulados'!A1" display="datos simulados" xr:uid="{9A6AFD02-7ADF-4429-B7C2-3D417AF7EFE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27617C11-3FA9-4779-A408-1114C9412228}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K10:O10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B66C66D-5234-4DFC-AC62-C5AE8ABAE7AB}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9 B10:D10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF739F-67E3-4204-8A0A-2335A5A0DE4E}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1308,6 +1969,1358 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
+        <f>usuario!A6</f>
+        <v>id</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>usuario!A7</f>
+        <v>nombre</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>entradas!$A$7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>entradas!$A$8</f>
+        <v>valor entrada</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>entradas!$A$9</f>
+        <v>fecha</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{25F866B8-344C-432E-B61D-3EBE992D20F4}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7B02573B-7E1C-4759-8E6C-B2DECB89A039}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D12E91A-9910-48D6-9417-A38EF7D62832}"/>
+    <hyperlink ref="C2" location="salidas!A7" display="salidas!A7" xr:uid="{CF4A8A4C-B91F-4238-A184-AF70E5B3934D}"/>
+    <hyperlink ref="D2" location="salidas!A8" display="salidas!A8" xr:uid="{7BC3003A-8A2F-4E38-82BE-67A7BE6081E8}"/>
+    <hyperlink ref="E2" location="salidas!A9" display="salidas!A9" xr:uid="{4DD6FF31-4F36-4804-96C8-67EDA4F05196}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BECC26B2-7D4D-47FA-9EA8-D711A6C99780}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="60" t="str">
+        <f>'objeto de dominio'!A5</f>
+        <v>producto</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="61" t="str">
+        <f>'objeto de dominio'!B5</f>
+        <v>Entidad que representa el producto y los diferentes aspectos y cuidados de este  y es guardado en estanterias</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>200</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>A7</f>
+        <v>nombre</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
+    <hyperlink ref="A4" location="'producto datos simulados'!A1" display="datos simulados" xr:uid="{E0A483AF-DE2C-431E-9EAC-3418A3988749}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA5467DC-DD81-4CDF-9B8C-F3561C803DE6}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E5DADB3-3FD8-41B2-BA96-F4BFA88D084A}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="58" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="69.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>usuario!A6</f>
+        <v>id</v>
+      </c>
+      <c r="B2" s="57" t="str">
+        <f>producto!$A$7</f>
+        <v>nombre</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>producto!$A$8</f>
+        <v>Tipo unidad</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>producto!$A$9</f>
+        <v>cantidad</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>producto!$A$10</f>
+        <v>unidad de medida</v>
+      </c>
+      <c r="F2" s="57" t="str">
+        <f>producto!$A$11</f>
+        <v>cuidados</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f>producto!$A$12</f>
+        <v xml:space="preserve">descripcion </v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2D05F395-A974-48DE-A483-376CC9739DB0}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{7B415D16-C448-4B2C-A650-EB1039073927}"/>
+    <hyperlink ref="D2" location="producto!A9" display="producto!A9" xr:uid="{111E3087-E847-4019-B37F-AB5F8CC4E69E}"/>
+    <hyperlink ref="E2:G2" location="producto!A9" display="producto!A9" xr:uid="{4189D531-F9A0-4A86-83D9-BDBF79DFDC05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DA2EA7-E911-400F-8BA4-06A73A5DAAFE}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="16" max="16" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="60" t="str">
+        <f>'objeto de dominio'!A4</f>
+        <v>salida</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="61" t="str">
+        <f>'objeto de dominio'!B4</f>
+        <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>36</v>
+      </c>
+      <c r="D6" s="23">
+        <v>36</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>50</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="71" t="str">
+        <f>A7</f>
+        <v>nombre</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f>$A$6</f>
+        <v>identificador</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="17" t="str">
+        <f>$A$7</f>
+        <v>nombre</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{F37F4593-4498-4EC7-8E0E-5FB43A76AAF7}"/>
+    <hyperlink ref="A4" location="'salidas datos simulados'!A1" display="datos simulados" xr:uid="{0F8E4A89-C478-4972-B12E-3ADEE56A6F7D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03515D65-CA7F-45CB-9DE4-834F9D3AA258}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54972FBC-F101-43A2-9A15-A5F51F572629}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>usuario!A6</f>
+        <v>id</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>usuario!A7</f>
+        <v>nombre</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>entradas!$A$7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>entradas!$A$8</f>
+        <v>valor entrada</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>entradas!$A$9</f>
+        <v>fecha</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{E021C538-7F97-4260-84C6-B0D96C2C2CDE}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{16FC90A0-8F2D-443F-92D2-5A613C32FFC0}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{22EF27B2-3712-4727-9DB6-E375DD681F0B}"/>
+    <hyperlink ref="C2" location="salidas!A7" display="salidas!A7" xr:uid="{459D7078-FE20-4058-A5A3-44A854DA52EA}"/>
+    <hyperlink ref="D2" location="salidas!A8" display="salidas!A8" xr:uid="{ECDF1B80-DBFA-45B7-8DD8-323D56D1E15F}"/>
+    <hyperlink ref="E2" location="salidas!A9" display="salidas!A9" xr:uid="{7DF1A59D-B4A0-4859-A37C-ACE6F1FE667E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC64BBC1-85F1-47E7-8FB0-CEEFC2D63746}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE82A0-DB6A-4CD5-B840-CBF5C731FB0F}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
         <f>proveedor!$A$6</f>
         <v>identificador</v>
       </c>
@@ -1315,7 +3328,7 @@
         <f>proveedor!$A$7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="62" t="str">
+      <c r="C2" s="57" t="str">
         <f>proveedor!$A$8</f>
         <v xml:space="preserve">descripcion </v>
       </c>
@@ -1325,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1336,10 +3349,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +3378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9004F226-EC64-4971-A203-FC8B4C3FF85A}">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -1395,72 +3408,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="60" t="str">
         <f>'objeto de dominio'!A6</f>
         <v>proveedor</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61" t="str">
         <f>'objeto de dominio'!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+        <v>Entidad que representa el proveedor y corresponde a aquella empresa a la cual se les hacen pedidos de productos</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1681,10 +3694,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1693,8 +3706,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
@@ -1735,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E3B0D4-F4A7-4954-BDBF-726FE6967B15}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -1747,17 +3760,17 @@
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" style="58" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1780,7 +3793,7 @@
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="62" t="str">
+      <c r="C2" s="57" t="str">
         <f>proveedor!$A$8</f>
         <v xml:space="preserve">descripcion </v>
       </c>
@@ -1793,7 +3806,7 @@
       <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1804,7 +3817,7 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="58" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1834,7 +3847,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2D8E9-4CD5-4506-B21F-D4D4C753A1EE}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40E1B6-4531-4994-B6AC-90578AE62464}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -1864,72 +3958,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="60" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>pedido</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61" t="str">
         <f>'objeto de dominio'!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+        <v>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2117,40 +4211,40 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -2159,14 +4253,14 @@
       <c r="B11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="35"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -2175,8 +4269,8 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="17" t="s">
         <v>47</v>
       </c>
@@ -2217,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBAB2E-38B0-4A92-9C59-FA8DBF34BEC1}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -2234,12 +4328,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2262,7 +4356,7 @@
         <f>usuario!A8</f>
         <v xml:space="preserve">cargo </v>
       </c>
-      <c r="C2" s="62" t="str">
+      <c r="C2" s="57" t="str">
         <f>seccion!$A$8</f>
         <v xml:space="preserve">descripcion </v>
       </c>
@@ -2272,9 +4366,9 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2283,9 +4377,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2315,7 +4409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368A708-2749-4703-86E8-954F21D6A2C1}">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -2345,72 +4439,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="60" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>seccion</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61" t="str">
         <f>'objeto de dominio'!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+        <v>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2609,7 +4703,7 @@
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2621,21 +4715,21 @@
       <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="61" t="str">
+      <c r="B12" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="56" t="str">
         <f>A7</f>
         <v>nombre</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>105</v>
+      <c r="B13" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>46</v>
@@ -2643,8 +4737,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
@@ -2685,7 +4779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612731F-09A7-4DBE-AD4C-0BAC186A2E74}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -2697,17 +4791,17 @@
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="58" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2730,7 +4824,7 @@
         <f>usuario!A7</f>
         <v>nombre</v>
       </c>
-      <c r="C2" s="62" t="str">
+      <c r="C2" s="57" t="str">
         <f>seccion!$A$8</f>
         <v xml:space="preserve">descripcion </v>
       </c>
@@ -2741,9 +4835,9 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2752,9 +4846,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2784,7 +4878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E83D28-25DC-43FE-8F97-E5F95A575D12}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2814,72 +4908,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="60" t="str">
         <f>'objeto de dominio'!A9</f>
         <v>estanteria</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61" t="str">
         <f>'objeto de dominio'!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+        <v>Entidad que representa la estanteria y en donde se ubicarian los productos</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2940,7 +5034,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -3010,7 +5104,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -3038,7 +5132,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>1</v>
@@ -3080,7 +5174,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>1</v>
@@ -3130,21 +5224,21 @@
       <c r="A14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="59" t="str">
+      <c r="B14" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="54" t="str">
         <f>A9</f>
         <v xml:space="preserve">numero </v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="68" t="s">
-        <v>104</v>
+      <c r="B15" s="63" t="s">
+        <v>102</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>46</v>
@@ -3152,8 +5246,8 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="17" t="s">
         <v>47</v>
       </c>
@@ -3194,7 +5288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2965285-6401-4B64-BC72-4ABFD8289385}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -3255,16 +5349,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +5374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEBBFCD-84FA-4767-AE39-9B7EBFB1471E}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -3310,72 +5404,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="60" t="str">
         <f>'objeto de dominio'!A10</f>
         <v>almacen</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61" t="str">
         <f>'objeto de dominio'!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+        <v>Entida que representa el almacen que estaria ubicado en un direccion y contendria las secciones</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3478,7 +5572,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -3520,7 +5614,7 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -3564,7 +5658,7 @@
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>1</v>
@@ -3604,7 +5698,7 @@
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>1</v>
@@ -3655,63 +5749,63 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="44" t="str">
+      <c r="B14" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="39" t="str">
         <f>A6</f>
         <v>identificador</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="43" t="str">
+      <c r="A15" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="38" t="str">
         <f>A7</f>
         <v xml:space="preserve">pais </v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="42" t="str">
+      <c r="A16" s="66"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="37" t="str">
         <f>A8</f>
         <v xml:space="preserve">departamento </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="42" t="str">
+      <c r="A17" s="66"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="37" t="str">
         <f>A9</f>
         <v>ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="42" t="str">
+      <c r="A18" s="67"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="37" t="str">
         <f>A10</f>
         <v>direccion</v>
       </c>
@@ -3751,88 +5845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2D8E9-4CD5-4506-B21F-D4D4C753A1EE}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -3862,72 +5875,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="60" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>usuario</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61" t="str">
         <f>'objeto de dominio'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+        <v>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3988,7 +6001,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -4072,7 +6085,7 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -4109,7 +6122,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4121,25 +6134,25 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="43" t="str">
+      <c r="B12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="38" t="str">
         <f>A6</f>
         <v>id</v>
       </c>
@@ -4178,7 +6191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78B15AE-D8B9-4C55-AF7B-07803F46F0D7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4195,11 +6208,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -4245,17 +6258,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A53C3-127F-4FB1-B767-C55AA23A65C9}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -4277,11 +6290,13 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="73" t="s">
+        <v>132</v>
+      </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -4289,11 +6304,13 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="34"/>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>135</v>
+      </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -4301,11 +6318,13 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="35"/>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>136</v>
+      </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -4313,11 +6332,13 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="35"/>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>137</v>
+      </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -4325,11 +6346,13 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="35"/>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>138</v>
+      </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -4337,11 +6360,13 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="35"/>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>139</v>
+      </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -4349,11 +6374,13 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="35"/>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>144</v>
+      </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -4361,11 +6388,13 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="35"/>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>145</v>
+      </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -4373,11 +6402,13 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="35"/>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>146</v>
+      </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -4385,9 +6416,13 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="C11" s="30"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4395,9 +6430,13 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4405,13 +6444,43 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4431,6 +6500,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A22EFA-306E-4232-84AF-EADC888895A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AAFCC9-DBF2-42D2-97FF-2B29CF1B0627}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E590C6DD-182F-4C3E-A8D5-D74EB15AF42B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AF5F18-3E29-4853-ADCD-CF58DD7848B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0945DFBD-C0DE-4558-9E6D-C68ED7EB5CC7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4DED06-BCF9-4CF0-8785-A4BC39484F95}">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -4460,72 +6599,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="60" t="str">
         <f>'objeto de dominio'!A3</f>
-        <v>entradas</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+        <v>entrada</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61" t="str">
         <f>'objeto de dominio'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+        <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4623,12 +6762,12 @@
         <v>32</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>1</v>
@@ -4665,91 +6804,91 @@
         <v>32</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="47">
-        <v>1</v>
-      </c>
-      <c r="D8" s="47">
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
         <v>10</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="48" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="47" t="s">
+      <c r="K8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>80</v>
+      <c r="N8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="46" t="s">
         <v>90</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4789,25 +6928,25 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="42" t="str">
+      <c r="B13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="37" t="str">
         <f>A7</f>
         <v>ubicación</v>
       </c>
@@ -4844,1374 +6983,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED42EB-C555-428B-8FB3-97905AA08010}">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
-        <f>usuario!A6</f>
-        <v>id</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <f>entradas!$A$6</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>entradas!$A$7</f>
-        <v>ubicación</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>entradas!$A$8</f>
-        <v>valor entrada</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>entradas!$A$9</f>
-        <v>fecha</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{6DCB1E34-F30F-4C26-B0FA-9DF25B2A7D39}"/>
-    <hyperlink ref="A2" location="rubro!A6" display="rubro!A6" xr:uid="{E6FC2514-19BE-4C8A-AEC1-2804591A9298}"/>
-    <hyperlink ref="B2" location="rubro!A7" display="rubro!A7" xr:uid="{28961F8C-41EA-48E1-B3FC-0472402859D5}"/>
-    <hyperlink ref="C2" location="rubro!A8" display="rubro!A8" xr:uid="{A02E978D-FDEA-4D09-89D4-E3232492192E}"/>
-    <hyperlink ref="D2" location="entradas!A8" display="entradas!A8" xr:uid="{6A5860B5-F74F-4295-8FAF-31EF77B54A0C}"/>
-    <hyperlink ref="E2" location="entradas!A9" display="entradas!A9" xr:uid="{B27CC59F-47A0-44DE-A072-E8DB93EF824B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35395E7B-5341-4AFE-9AA9-7F697B128173}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
-        <f>'objeto de dominio'!$A$1</f>
-        <v>objetos de dominio</v>
-      </c>
-      <c r="B2" s="65" t="str">
-        <f>'objeto de dominio'!A4</f>
-        <v>salidas</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
-        <f>'objeto de dominio'!B1</f>
-        <v>descripcion</v>
-      </c>
-      <c r="B3" s="66">
-        <f>'objeto de dominio'!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <v>36</v>
-      </c>
-      <c r="D6" s="22">
-        <v>36</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22">
-        <v>50</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>100</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="47">
-        <v>1</v>
-      </c>
-      <c r="D9" s="47">
-        <v>10</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="43" t="str">
-        <f>A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="42" t="str">
-        <f>A9</f>
-        <v>valor salida</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8A056860-BB44-4A49-8558-1F0847D1108A}"/>
-    <hyperlink ref="A4" location="'salidas datos simulados'!A1" display="datos simulados" xr:uid="{9A6AFD02-7ADF-4429-B7C2-3D417AF7EFE8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27617C11-3FA9-4779-A408-1114C9412228}">
-          <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K10:O10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B66C66D-5234-4DFC-AC62-C5AE8ABAE7AB}">
-          <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B9 B10:D10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF739F-67E3-4204-8A0A-2335A5A0DE4E}">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
-        <v>id</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>usuario!A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>entradas!$A$7</f>
-        <v>ubicación</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>entradas!$A$8</f>
-        <v>valor entrada</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>entradas!$A$9</f>
-        <v>fecha</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{25F866B8-344C-432E-B61D-3EBE992D20F4}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7B02573B-7E1C-4759-8E6C-B2DECB89A039}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D12E91A-9910-48D6-9417-A38EF7D62832}"/>
-    <hyperlink ref="C2" location="salidas!A7" display="salidas!A7" xr:uid="{CF4A8A4C-B91F-4238-A184-AF70E5B3934D}"/>
-    <hyperlink ref="D2" location="salidas!A8" display="salidas!A8" xr:uid="{7BC3003A-8A2F-4E38-82BE-67A7BE6081E8}"/>
-    <hyperlink ref="E2" location="salidas!A9" display="salidas!A9" xr:uid="{4DD6FF31-4F36-4804-96C8-67EDA4F05196}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BECC26B2-7D4D-47FA-9EA8-D711A6C99780}">
-          <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
-        <f>'objeto de dominio'!$A$1</f>
-        <v>objetos de dominio</v>
-      </c>
-      <c r="B2" s="65" t="str">
-        <f>'objeto de dominio'!A5</f>
-        <v>producto</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
-        <f>'objeto de dominio'!B1</f>
-        <v>descripcion</v>
-      </c>
-      <c r="B3" s="66">
-        <f>'objeto de dominio'!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>50</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>200</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="18" t="str">
-        <f>A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
-    <hyperlink ref="A4" location="'producto datos simulados'!A1" display="datos simulados" xr:uid="{E0A483AF-DE2C-431E-9EAC-3418A3988749}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA5467DC-DD81-4CDF-9B8C-F3561C803DE6}">
-          <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E5DADB3-3FD8-41B2-BA96-F4BFA88D084A}">
-          <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K6:O13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
-  <dimension ref="A1:O10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="63" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
-        <v>id</v>
-      </c>
-      <c r="B2" s="62" t="str">
-        <f>producto!$A$7</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>producto!$A$8</f>
-        <v>Tipo unidad</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>producto!$A$9</f>
-        <v>cantidad</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>producto!$A$10</f>
-        <v>unidad de medida</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f>producto!$A$11</f>
-        <v>cuidados</v>
-      </c>
-      <c r="G2" s="3" t="str">
-        <f>producto!$A$12</f>
-        <v xml:space="preserve">descripcion </v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2D05F395-A974-48DE-A483-376CC9739DB0}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{7B415D16-C448-4B2C-A650-EB1039073927}"/>
-    <hyperlink ref="D2" location="producto!A9" display="producto!A9" xr:uid="{111E3087-E847-4019-B37F-AB5F8CC4E69E}"/>
-    <hyperlink ref="E2:G2" location="producto!A9" display="producto!A9" xr:uid="{4189D531-F9A0-4A86-83D9-BDBF79DFDC05}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AAE5A95-83F3-43CE-AE76-EF70FE66CB43}">
-          <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Extraclase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{389C279E-BB84-4978-B116-470CF3F202B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF56FF15-1883-4744-9C7C-274FA1A1C1C1}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{389C279E-BB84-4978-B116-470CF3F202B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD99077-DF48-4FCE-9A68-B2087EAFA0AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="3" activeTab="7" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="190">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -523,14 +523,125 @@
     <t>Entidad que presenta la unidad de medida a la cual pertencen y son medidos en el tipo unidad</t>
   </si>
   <si>
-    <t>Cuidado</t>
+    <t>Responsabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion </t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Registrar Unidad Medida</t>
+  </si>
+  <si>
+    <t>Unidad medida</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>solo letras y numero</t>
+  </si>
+  <si>
+    <t>Permite la identificacion unica de un nombre</t>
+  </si>
+  <si>
+    <t>Permite la escritura de un nombre</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite registrar el nombre de una nueva unidad de medida</t>
+  </si>
+  <si>
+    <t>Consultar Unidad Medida</t>
+  </si>
+  <si>
+    <t>Unidad Medida(codigo, nombre)</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite consultar la información de las unidades de medida existentes que cumpla con los filtros de consulta recibidos</t>
+  </si>
+  <si>
+    <t>Descripcion de la clase</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Atributos:</t>
+  </si>
+  <si>
+    <t>Comportamiento:</t>
+  </si>
+  <si>
+    <t>Unidad Medida</t>
+  </si>
+  <si>
+    <t>Tipo de Dato</t>
+  </si>
+  <si>
+    <t>Modificador de Acceso</t>
+  </si>
+  <si>
+    <t>Tipo Atributo</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t>Publico</t>
+  </si>
+  <si>
+    <t>Instancia</t>
+  </si>
+  <si>
+    <t>Escrito</t>
+  </si>
+  <si>
+    <t>Parametros</t>
+  </si>
+  <si>
+    <t>Modificador Acceso</t>
+  </si>
+  <si>
+    <t>Tipo de dato retorno</t>
+  </si>
+  <si>
+    <t>Excepciones</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>pais:Pais</t>
+  </si>
+  <si>
+    <t>List&lt;Pais&gt;</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>getCodigo</t>
+  </si>
+  <si>
+    <t>getNombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,8 +700,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,8 +788,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -767,12 +922,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -927,6 +1120,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,35 +1170,111 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{19159E5B-6B00-4ECA-90D3-2953D17E047B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1042,6 +1334,56 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>404446</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85DDC2C-65C8-38A6-3CBC-03C95B25EC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="190500"/>
+          <a:ext cx="9548446" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1346,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1385,11 +1727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -1507,72 +1849,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A4</f>
         <v>salida</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1948,12 +2290,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2082,72 +2424,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>producto</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B5</f>
         <v>Entidad que representa el producto y los diferentes aspectos y cuidados de este  y es guardado en estanterias</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2550,10 +2892,10 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="72" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -2562,8 +2904,8 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="17" t="s">
         <v>47</v>
       </c>
@@ -2623,14 +2965,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="68"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -2766,72 +3108,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A4</f>
         <v>salida</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3084,13 +3426,13 @@
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="11"/>
@@ -3108,13 +3450,13 @@
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="71" t="str">
+      <c r="C13" s="62" t="str">
         <f>A7</f>
         <v>nombre</v>
       </c>
@@ -3133,10 +3475,10 @@
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="72" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="17" t="str">
@@ -3145,8 +3487,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="17" t="str">
         <f>$A$7</f>
         <v>nombre</v>
@@ -3191,12 +3533,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,12 +3642,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -3408,72 +3750,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A6</f>
         <v>proveedor</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B6</f>
         <v>Entidad que representa el proveedor y corresponde a aquella empresa a la cual se les hacen pedidos de productos</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3694,10 +4036,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="71" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -3706,8 +4048,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
@@ -3765,12 +4107,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -3958,72 +4300,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>pedido</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B7</f>
         <v>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4257,10 +4599,10 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="71" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -4269,8 +4611,8 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="17" t="s">
         <v>47</v>
       </c>
@@ -4328,12 +4670,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -4439,72 +4781,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>seccion</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B8</f>
         <v>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4725,10 +5067,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="72" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -4737,8 +5079,8 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
@@ -4796,12 +5138,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -4908,72 +5250,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A9</f>
         <v>estanteria</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B9</f>
         <v>Entidad que representa la estanteria y en donde se ubicarian los productos</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5234,10 +5576,10 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -5246,8 +5588,8 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="17" t="s">
         <v>47</v>
       </c>
@@ -5404,72 +5746,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A10</f>
         <v>almacen</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B10</f>
         <v>Entida que representa el almacen que estaria ubicado en un direccion y contendria las secciones</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5774,10 +6116,10 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="73" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="38" t="str">
@@ -5787,24 +6129,24 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="37" t="str">
         <f>A8</f>
         <v xml:space="preserve">departamento </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="37" t="str">
         <f>A9</f>
         <v>ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="37" t="str">
         <f>A10</f>
         <v>direccion</v>
@@ -5875,72 +6217,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>usuario</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B2</f>
         <v>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6208,11 +6550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -6260,8 +6602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A53C3-127F-4FB1-B767-C55AA23A65C9}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6291,10 +6633,10 @@
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="64" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="18"/>
@@ -6305,10 +6647,10 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="65" t="s">
         <v>135</v>
       </c>
       <c r="C3" s="18"/>
@@ -6319,10 +6661,10 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="66" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="18"/>
@@ -6333,10 +6675,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="66" t="s">
         <v>137</v>
       </c>
       <c r="C5" s="18"/>
@@ -6347,10 +6689,10 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="66" t="s">
         <v>138</v>
       </c>
       <c r="C6" s="18"/>
@@ -6361,10 +6703,10 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="66" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="18"/>
@@ -6375,10 +6717,10 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="66" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="18"/>
@@ -6389,10 +6731,10 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="66" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="18"/>
@@ -6403,10 +6745,10 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="66" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="18"/>
@@ -6417,7 +6759,7 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -6431,7 +6773,7 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -6445,7 +6787,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -6459,7 +6801,7 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -6467,7 +6809,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -6475,7 +6817,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -6493,6 +6835,12 @@
     <hyperlink ref="A2" location="usuario!A1" display="usuario" xr:uid="{B9253F8A-CA1F-46A4-91E5-4DEBBB5942FC}"/>
     <hyperlink ref="A3" location="entradas!A1" display="entradas" xr:uid="{1083FAB5-BB7D-419C-AAB6-3A9CAE8E5982}"/>
     <hyperlink ref="A4" location="salidas!A1" display="salidas" xr:uid="{8ABD474A-069F-47CC-A8F8-7B0F56EFEFA9}"/>
+    <hyperlink ref="A16" location="'Unidad Medida'!A1" display="unidad medida" xr:uid="{7B8DA8E6-13FF-4364-A002-72DF47AEB7D8}"/>
+    <hyperlink ref="A15" location="'Tipo Unidad'!A1" display="tipo unidad" xr:uid="{9D446E2A-B806-4CBB-9A6C-028FC5002710}"/>
+    <hyperlink ref="A14" location="Cuidado!A1" display="cuidado" xr:uid="{E41F48A3-A48A-4D03-AB51-71B5B0F2CF37}"/>
+    <hyperlink ref="A13" location="Pais!A1" display="pais" xr:uid="{6489162C-76B4-40B6-B66E-997E3FB9E14A}"/>
+    <hyperlink ref="A12" location="Departamento!A1" display="departamento" xr:uid="{8DE69543-EF75-424B-A9DE-AD81EBBC7FC0}"/>
+    <hyperlink ref="A11" location="Ciudad!A1" display="ciudad" xr:uid="{62F1AC5D-A5B3-41AB-A54B-99A28FD9A839}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6501,71 +6849,2416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A22EFA-306E-4232-84AF-EADC888895A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="69" t="str">
+        <f>'objeto de dominio'!A3</f>
+        <v>entrada</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="70" t="str">
+        <f>'objeto de dominio'!B3</f>
+        <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>50</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>100</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="37" t="str">
+        <f>A7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{3A21766B-3118-435D-A3EE-B4D5FA916843}"/>
+    <hyperlink ref="A4" location="'entradas datos simulados'!A1" display="datos simulados" xr:uid="{5A20AB2D-6BB4-4079-AABD-39BC5AD48822}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B164E17-4814-417D-8B37-F281E34F4816}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5153C1AB-8F3C-40B1-9D6C-6B744C7E9864}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9 C9:D9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AAFCC9-DBF2-42D2-97FF-2B29CF1B0627}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="69" t="str">
+        <f>'objeto de dominio'!A3</f>
+        <v>entrada</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="70" t="str">
+        <f>'objeto de dominio'!B3</f>
+        <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>50</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>100</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="37" t="str">
+        <f>A7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{1F143CB9-E0BE-4BFB-9DC3-023F899183CF}"/>
+    <hyperlink ref="A4" location="'entradas datos simulados'!A1" display="datos simulados" xr:uid="{D26773A2-C059-4874-9832-673F4AF41C07}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6E01CBC-BD0B-45CA-B997-1A97FB1A7265}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E21ED57-DD99-4F17-BBC7-36D16C974431}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9 C9:D9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E590C6DD-182F-4C3E-A8D5-D74EB15AF42B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="69" t="str">
+        <f>'objeto de dominio'!A3</f>
+        <v>entrada</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="70" t="str">
+        <f>'objeto de dominio'!B3</f>
+        <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>50</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>100</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="37" t="str">
+        <f>A7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{BA4BB1CF-0AF2-4463-98C4-BF3882694292}"/>
+    <hyperlink ref="A4" location="'entradas datos simulados'!A1" display="datos simulados" xr:uid="{4A5E2CC7-816D-4302-BBBB-96E057AC3013}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A31C16A-26B2-463E-AD60-2C7A5C9C3EB5}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D0F3E37-097D-4417-9939-B5A4AC4578D8}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9 C9:D9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AF5F18-3E29-4853-ADCD-CF58DD7848B2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>153</v>
-      </c>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="69" t="str">
+        <f>'objeto de dominio'!A3</f>
+        <v>entrada</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="70" t="str">
+        <f>'objeto de dominio'!B3</f>
+        <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>50</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>100</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="37" t="str">
+        <f>A7</f>
+        <v>ubicación</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{AEF0000C-D46F-488F-85CB-07C4600B5795}"/>
+    <hyperlink ref="A4" location="'entradas datos simulados'!A1" display="datos simulados" xr:uid="{96924185-4590-4389-8794-F9965227D4D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C5739E4-7888-4481-8237-81F2367CB7C4}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD09A5E8-3ABF-4C1E-A7FC-D4D9C22F5761}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9 C9:D9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0945DFBD-C0DE-4558-9E6D-C68ED7EB5CC7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+    </row>
+    <row r="2" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+    </row>
+    <row r="3" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+    </row>
+    <row r="4" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>50</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>100</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="61" t="str">
+        <f>A7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="80"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="97"/>
+    </row>
+    <row r="24" spans="1:16" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="104"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="101"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="108"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="108"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="103"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="110"/>
+    </row>
+    <row r="28" spans="1:16" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="113"/>
+      <c r="E28" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="113"/>
+      <c r="G28" s="112" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="113"/>
+      <c r="I28" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="113"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{72E0B28C-398B-47E8-A8BA-9F35A70B3F93}"/>
+    <hyperlink ref="A4" location="'entradas datos simulados'!A1" display="datos simulados" xr:uid="{9B58FB8B-E347-4258-9FC8-92C8FBE0FE1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DE2A438-E299-41D1-A679-54ABC8CE3299}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C44B3085-A0BE-41EB-8EF9-69E1B211BFD9}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6573,8 +9266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4DED06-BCF9-4CF0-8785-A4BC39484F95}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:P9"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,72 +9292,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="69" t="str">
         <f>'objeto de dominio'!A3</f>
         <v>entrada</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="70" t="str">
         <f>'objeto de dominio'!B3</f>
         <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Documents\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A851EEC-CE16-45BB-A641-FE2CB5FAB748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCEAA5-677F-4AA8-9925-ACC0D16F9E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="30" activeTab="32" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -52,22 +52,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="354">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -189,9 +179,6 @@
     <t xml:space="preserve">atributo que representa el identrificador asegurando que sea unico </t>
   </si>
   <si>
-    <t>atributo que indica si el tipo de rubro esta activo o inacivo</t>
-  </si>
-  <si>
     <t xml:space="preserve">nombre combinacion </t>
   </si>
   <si>
@@ -207,12 +194,6 @@
     <t>inactivo</t>
   </si>
   <si>
-    <t>tipo de rubro que sirve para ascignar a los rubros que representan dinero que una persona va a recibir</t>
-  </si>
-  <si>
-    <t>tipo de rubro que sirve para ascignar a los rubros que representan dinero que una persona va a gastar</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -246,12 +227,6 @@
     <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">pais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">departamento </t>
-  </si>
-  <si>
     <t>ciudad</t>
   </si>
   <si>
@@ -279,15 +254,6 @@
     <t>permite saber el valor</t>
   </si>
   <si>
-    <t>colombia</t>
-  </si>
-  <si>
-    <t>antioquia</t>
-  </si>
-  <si>
-    <t>medellin</t>
-  </si>
-  <si>
     <t>ejemplo001</t>
   </si>
   <si>
@@ -333,24 +299,12 @@
     <t>No es posible tener dos identificaciones iguales</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
     <t>Latti</t>
   </si>
   <si>
     <t>Bimbo</t>
   </si>
   <si>
-    <t>Empresa distribuidora de muchos productos vendidos por la cadena de tiendas D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresa distribuidora de prductos </t>
-  </si>
-  <si>
     <t>Doritos</t>
   </si>
   <si>
@@ -1083,23 +1037,99 @@
     <t>codigo de la ciudad</t>
   </si>
   <si>
-    <t>Rionegro</t>
-  </si>
-  <si>
     <t>En el almacenmiento de bolsas no se pueden poner mas de 6 encima de la otra, no poner las bolsas cerca de objetos punzantes ni tampoco poner objetos muy pesados encima y en su manejo es idal evitar las caidas</t>
   </si>
   <si>
     <t>Con los producto de vidrio o fragiles se pueden poner muchos encima , pero se debe evitar sus caidas o moviminetos bruscos</t>
+  </si>
+  <si>
+    <t>MEDELLÍN</t>
+  </si>
+  <si>
+    <t>RIONEGRO</t>
+  </si>
+  <si>
+    <t>metro cuadrado</t>
+  </si>
+  <si>
+    <t>metro cubico</t>
+  </si>
+  <si>
+    <t>kilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libra </t>
+  </si>
+  <si>
+    <t>correo@ejemplo.com</t>
+  </si>
+  <si>
+    <t>bodega 1</t>
+  </si>
+  <si>
+    <t>bodega 2</t>
+  </si>
+  <si>
+    <t>Bodega de materiales de construccion</t>
+  </si>
+  <si>
+    <t>Bodega de productos enlatados</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>atributo que representa la ciudad</t>
+  </si>
+  <si>
+    <t>atributo que permite conocer a mas detalle el almacen</t>
+  </si>
+  <si>
+    <t>atributo que permite dar a conocer el lugar donde se ubica el almacen</t>
+  </si>
+  <si>
+    <t>atributo que representa el nombre dado al almacen</t>
+  </si>
+  <si>
+    <t>ejemplo002</t>
+  </si>
+  <si>
+    <t>almacen de materiales de contruccion</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">antonio </t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">administador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerente </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,8 +1202,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,8 +1300,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1379,13 +1421,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1642,6 +1700,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1657,25 +1742,10 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1699,34 +1769,59 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Millares 2" xfId="2" xr:uid="{19159E5B-6B00-4ECA-90D3-2953D17E047B}"/>
+    <cellStyle name="Millares 2 2" xfId="3" xr:uid="{19159E5B-6B00-4ECA-90D3-2953D17E047B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2149,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2200,76 +2295,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A13</f>
         <v>pais</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B13</f>
         <v xml:space="preserve">Entidad que representa el pais y donde pertence el departamento </v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2343,7 +2438,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -2358,7 +2453,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
@@ -2380,15 +2475,15 @@
         <v>31</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -2425,10 +2520,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2471,7 +2566,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="66" t="s">
         <v>9</v>
@@ -2496,10 +2591,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -2542,46 +2637,46 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E15" s="81" t="str">
         <f>A19</f>
         <v>PA-P-1</v>
       </c>
-      <c r="F15" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="104"/>
+      <c r="F15" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="106"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
@@ -2616,10 +2711,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -2725,11 +2820,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -2747,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2771,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2820,76 +2915,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="100" t="str">
+      <c r="B2" s="109" t="str">
         <f>'objeto de dominio'!A16</f>
         <v>unidad medida</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B16</f>
         <v>Entidad que presenta la unidad de medida a la cual pertencen y son medidos en el tipo unidad</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2975,7 +3070,7 @@
     </row>
     <row r="6" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -2990,7 +3085,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
@@ -3012,24 +3107,24 @@
         <v>32</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -3066,19 +3161,19 @@
         <v>32</v>
       </c>
       <c r="P7" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="R7" s="65" t="s">
-        <v>140</v>
-      </c>
       <c r="S7" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -3127,7 +3222,7 @@
     </row>
     <row r="10" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="66" t="s">
         <v>9</v>
@@ -3151,10 +3246,10 @@
     </row>
     <row r="11" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -3212,24 +3307,24 @@
     </row>
     <row r="14" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="111"/>
       <c r="H14" s="40"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3242,47 +3337,47 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E15" s="49" t="str">
         <f>$A$22</f>
         <v>UM-P-1</v>
       </c>
-      <c r="F15" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="106"/>
+      <c r="F15" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>281</v>
-      </c>
       <c r="D16" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="107" t="str">
+        <v>122</v>
+      </c>
+      <c r="E16" s="102" t="str">
         <f>$A$23</f>
         <v>UM-P-2</v>
       </c>
-      <c r="F16" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="104"/>
+      <c r="F16" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="106"/>
       <c r="H16" s="40"/>
       <c r="I16" s="86"/>
       <c r="J16" s="86"/>
@@ -3290,44 +3385,44 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="104"/>
+        <v>122</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="106"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" s="104"/>
+        <v>264</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="106"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
       <c r="K18" s="85"/>
@@ -3374,10 +3469,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -3390,10 +3485,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -3557,11 +3652,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -3579,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3587,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3595,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3623,7 +3718,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,76 +3743,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:17" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="100" t="str">
+      <c r="B2" s="109" t="str">
         <f>'objeto de dominio'!A15</f>
         <v>tipo unidad</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B15</f>
         <v>Entidad que representa al tipo unidad y que corresponde al tipo de contenido que posee el producto en el cual es se controla</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3791,7 +3886,7 @@
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -3806,7 +3901,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
@@ -3828,15 +3923,15 @@
         <v>32</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -3873,15 +3968,15 @@
         <v>32</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -3891,13 +3986,13 @@
         <v>Unidad medida</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="36" t="s">
@@ -3919,10 +4014,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -3963,7 +4058,7 @@
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>9</v>
@@ -3987,10 +4082,10 @@
     </row>
     <row r="12" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -4012,10 +4107,10 @@
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C13" s="69" t="str">
         <f>A7</f>
@@ -4073,47 +4168,47 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="111"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E17" s="81" t="str">
         <f>A21</f>
         <v>TU-P-1</v>
       </c>
-      <c r="F17" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="104"/>
+      <c r="F17" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="106"/>
       <c r="H17" s="40"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
@@ -4164,10 +4259,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -4357,22 +4452,23 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54972FBC-F101-43A2-9A15-A5F51F572629}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -4393,10 +4489,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4404,10 +4500,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>96</v>
+        <v>312</v>
+      </c>
+      <c r="C4" s="129" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4415,10 +4511,54 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>327</v>
+        <v>66</v>
+      </c>
+      <c r="C5" s="129" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="129" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="129" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4579,7 @@
           <x14:formula1>
             <xm:f>'Unidad M datos simulados'!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C5</xm:sqref>
+          <xm:sqref>C3:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4452,7 +4592,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,76 +4621,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A3</f>
         <v>entrada</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B3</f>
         <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -4616,7 +4756,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>2</v>
@@ -4631,7 +4771,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="32" t="s">
@@ -4653,13 +4793,13 @@
         <v>31</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4701,13 +4841,13 @@
         <v>32</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -4747,18 +4887,18 @@
         <v>32</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>2</v>
@@ -4787,13 +4927,13 @@
         <v>32</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -4813,10 +4953,10 @@
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="35" t="s">
@@ -4835,13 +4975,13 @@
         <v>32</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4882,7 +5022,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>9</v>
@@ -4898,10 +5038,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A8</f>
@@ -4935,69 +5075,69 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="111"/>
+        <v>117</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="115"/>
       <c r="E17" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" s="105"/>
+        <v>292</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="112"/>
       <c r="E18" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F18" s="43" t="str">
         <f>$A$23</f>
         <v>EN-P-1</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="105" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" s="105"/>
+        <v>293</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="112"/>
       <c r="E19" s="42" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -5035,10 +5175,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -5048,10 +5188,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -5113,11 +5253,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5158,16 +5298,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5175,16 +5315,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5239,76 +5379,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A4</f>
         <v>salida</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -5374,7 +5514,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>2</v>
@@ -5389,7 +5529,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="32" t="s">
@@ -5411,13 +5551,13 @@
         <v>31</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -5459,13 +5599,13 @@
         <v>32</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -5505,18 +5645,18 @@
         <v>32</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>2</v>
@@ -5545,13 +5685,13 @@
         <v>32</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -5571,10 +5711,10 @@
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="35" t="s">
@@ -5593,13 +5733,13 @@
         <v>32</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -5640,7 +5780,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>9</v>
@@ -5656,10 +5796,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A8</f>
@@ -5693,69 +5833,69 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="111"/>
+        <v>117</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="115"/>
       <c r="E17" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>319</v>
-      </c>
-      <c r="D18" s="105"/>
+        <v>304</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="112"/>
       <c r="E18" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F18" s="43" t="str">
         <f>$A$23</f>
         <v>EN-P-1</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="D19" s="105"/>
+        <v>303</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="112"/>
       <c r="E19" s="42" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -5793,10 +5933,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -5806,10 +5946,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -5871,12 +6011,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -5917,16 +6057,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5934,16 +6074,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5995,10 +6135,10 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6009,10 +6149,10 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,10 +6163,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,76 +6230,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>producto</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B5</f>
         <v>Entidad que representa el producto y los diferentes aspectos y cuidados de este  y es guardado en estanterias</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -6232,7 +6372,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -6272,21 +6412,21 @@
         <v>39</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -6323,19 +6463,19 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -6380,16 +6520,16 @@
         <v>38</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -6436,21 +6576,21 @@
         <v>37</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>2</v>
@@ -6465,7 +6605,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="13" t="s">
@@ -6487,33 +6627,33 @@
         <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T10" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6541,19 +6681,19 @@
         <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6584,7 +6724,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="66" t="s">
         <v>9</v>
@@ -6600,10 +6740,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C15" s="69" t="str">
         <f>A6</f>
@@ -6635,106 +6775,106 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="111"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E19" s="49" t="str">
         <f>$A$26</f>
         <v>PR-P-1</v>
       </c>
-      <c r="F19" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="106"/>
+      <c r="F19" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="107" t="str">
+        <v>122</v>
+      </c>
+      <c r="E20" s="102" t="str">
         <f>$A$27</f>
         <v>PR-P-2</v>
       </c>
-      <c r="F20" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="104"/>
+      <c r="F20" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="106"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="104"/>
+        <v>122</v>
+      </c>
+      <c r="E21" s="103"/>
+      <c r="F21" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="104"/>
+        <v>179</v>
+      </c>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="106"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
@@ -6769,10 +6909,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -6782,10 +6922,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -6804,15 +6944,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
@@ -6846,7 +6986,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,11 +6999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="14"/>
       <c r="E1" s="39"/>
       <c r="F1" s="14"/>
@@ -6907,19 +7047,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>35</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6927,7 +7067,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6962,11 +7102,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -6999,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C3" s="38">
         <v>100</v>
@@ -7054,76 +7194,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>pedido</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B7</f>
         <v>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -7200,7 +7340,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -7240,19 +7380,19 @@
         <v>39</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="45" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="45" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U6" s="45" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -7297,24 +7437,24 @@
         <v>38</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S7" s="45" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>2</v>
@@ -7334,19 +7474,19 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="45" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S8" s="45" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U8" s="45" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -7369,7 +7509,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>9</v>
@@ -7387,10 +7527,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A8</f>
@@ -7430,157 +7570,157 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="111"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="115"/>
       <c r="H15" s="40"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E16" s="43" t="str">
         <f>$A$25</f>
         <v>PE-P-1</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="105"/>
+      <c r="F16" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="112"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="112" t="str">
+        <v>122</v>
+      </c>
+      <c r="E17" s="116" t="str">
         <f>$A$26</f>
         <v>PE-P-2</v>
       </c>
-      <c r="F17" s="112" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="112"/>
+      <c r="F17" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="116"/>
       <c r="H17" s="40"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112" t="s">
-        <v>291</v>
-      </c>
-      <c r="G18" s="112"/>
+        <v>122</v>
+      </c>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="116"/>
       <c r="H18" s="40"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" s="112"/>
+        <v>277</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="116"/>
       <c r="H19" s="40"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="105" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="112"/>
+      <c r="A20" s="112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="116"/>
       <c r="H20" s="40"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="43" t="str">
         <f>A27</f>
         <v>PE-P-3</v>
       </c>
-      <c r="F21" s="112" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="112"/>
+      <c r="F21" s="116" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="116"/>
       <c r="H21" s="40"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -7627,10 +7767,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -7643,10 +7783,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -7659,10 +7799,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C27" s="88"/>
       <c r="D27" s="88"/>
@@ -7687,21 +7827,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E17:E20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
@@ -7764,76 +7904,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="100" t="str">
+      <c r="B2" s="109" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>seccion</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B8</f>
         <v>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -7919,7 +8059,7 @@
     </row>
     <row r="6" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -7934,7 +8074,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
@@ -7956,24 +8096,24 @@
         <v>32</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -8010,24 +8150,24 @@
         <v>32</v>
       </c>
       <c r="P7" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="R7" s="65" t="s">
-        <v>140</v>
-      </c>
       <c r="S7" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -8064,19 +8204,19 @@
         <v>32</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -8125,7 +8265,7 @@
     </row>
     <row r="11" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>9</v>
@@ -8149,10 +8289,10 @@
     </row>
     <row r="12" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -8196,118 +8336,118 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="111"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
       <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>SE-P-1</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="106"/>
+      <c r="F16" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="113"/>
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
       <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="107" t="str">
+        <v>122</v>
+      </c>
+      <c r="E17" s="102" t="str">
         <f>$A$24</f>
         <v>SE-P-2</v>
       </c>
-      <c r="F17" s="103" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" s="104"/>
+      <c r="F17" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="106"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="103" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" s="104"/>
+        <v>122</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="106"/>
       <c r="I18" s="87"/>
       <c r="J18" s="87"/>
       <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="103" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="104"/>
+      <c r="G19" s="106"/>
       <c r="I19" s="86"/>
       <c r="J19" s="86"/>
       <c r="K19" s="85"/>
@@ -8355,10 +8495,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -8372,10 +8512,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -8454,15 +8594,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{0F35CB6B-82A4-49BB-BB1F-BF4A1073B56F}"/>
@@ -8495,24 +8635,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -8528,38 +8668,38 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>usuario!A7</f>
-        <v>nombre</v>
+        <f>seccion!$A$6</f>
+        <v>Codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
-      </c>
-      <c r="C2" s="37" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <f>seccion!$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="C2" s="37" t="str">
+        <f>seccion!$A$8</f>
+        <v xml:space="preserve">Descripcion </v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
+      <c r="B4" s="129" t="s">
+        <v>336</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>47</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -8592,8 +8732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E83D28-25DC-43FE-8F97-E5F95A575D12}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8622,48 +8762,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="113" t="str">
+      <c r="B2" s="117" t="str">
         <f>'objeto de dominio'!A9</f>
         <v>estanteria</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
       <c r="S2" s="52"/>
@@ -8675,24 +8815,24 @@
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="114" t="str">
+      <c r="B3" s="118" t="str">
         <f>'objeto de dominio'!B9</f>
         <v>Entidad que representa la estanteria y en donde se ubicarian los productos</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
@@ -8701,7 +8841,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -8793,7 +8933,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>1</v>
@@ -8833,16 +8973,16 @@
         <v>39</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U6" s="52"/>
     </row>
@@ -8885,25 +9025,25 @@
         <v>32</v>
       </c>
       <c r="P7" s="62" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U7" s="52"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="63" t="s">
         <v>1</v>
@@ -8940,25 +9080,25 @@
         <v>32</v>
       </c>
       <c r="P8" s="62" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U8" s="52"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" s="63" t="s">
         <v>1</v>
@@ -8995,25 +9135,25 @@
         <v>32</v>
       </c>
       <c r="P9" s="62" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U9" s="52"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" s="63" t="s">
         <v>1</v>
@@ -9050,19 +9190,19 @@
         <v>32</v>
       </c>
       <c r="P10" s="62" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T10" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U10" s="52"/>
     </row>
@@ -9114,7 +9254,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>9</v>
@@ -9143,10 +9283,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A6</f>
@@ -9172,11 +9312,11 @@
       <c r="U14" s="52"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>153</v>
+      <c r="A15" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>141</v>
       </c>
       <c r="C15" s="67" t="str">
         <f>A8</f>
@@ -9202,8 +9342,8 @@
       <c r="U15" s="52"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="str">
         <f>A9</f>
         <v xml:space="preserve">numero </v>
@@ -9228,8 +9368,8 @@
       <c r="U16" s="52"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="67" t="str">
         <f>A10</f>
         <v>letra</v>
@@ -9301,24 +9441,24 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="111"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="50"/>
@@ -9336,25 +9476,25 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E21" s="49" t="str">
         <f>$A$28</f>
         <v>E-P-1</v>
       </c>
-      <c r="F21" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="106"/>
+      <c r="F21" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="113"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="50"/>
@@ -9372,25 +9512,25 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="107" t="str">
+        <v>122</v>
+      </c>
+      <c r="E22" s="102" t="str">
         <f>$A$29</f>
         <v>E-P-2</v>
       </c>
-      <c r="F22" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="104"/>
+      <c r="F22" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="106"/>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="50"/>
@@ -9408,22 +9548,22 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="104"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="50"/>
@@ -9441,22 +9581,22 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="109"/>
-      <c r="F24" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="104"/>
+        <v>139</v>
+      </c>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="106"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="50"/>
@@ -9547,10 +9687,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -9574,10 +9714,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -9691,24 +9831,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.28515625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -9724,39 +9864,58 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
+        <f>estanteria!$A$6</f>
         <v>id</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f>usuario!A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="37" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="130" t="str">
+        <f>estanteria!$A$7</f>
+        <v>descripcion</v>
+      </c>
+      <c r="C2" s="131" t="str">
+        <f>estanteria!A8</f>
+        <v>pasillo</v>
+      </c>
+      <c r="D2" s="135" t="str">
+        <f>estanteria!$A$9</f>
+        <v xml:space="preserve">numero </v>
+      </c>
+      <c r="E2" s="135" t="str">
+        <f>estanteria!$A$10</f>
+        <v>letra</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="132">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="133">
+        <v>1</v>
+      </c>
+      <c r="D3" s="132">
+        <v>30</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="134">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>47</v>
+      <c r="B4" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="140">
+        <v>2</v>
+      </c>
+      <c r="D4" s="134">
+        <v>40</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -9765,9 +9924,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2FF3A405-E19D-4693-B1E0-060F48BAC3FB}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7C625551-1007-4041-A06B-86D441A7E48D}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{E5AB9271-0620-4A85-8DAA-993D84728506}"/>
+    <hyperlink ref="B2" location="estanteria!A1" display="estanteria!A1" xr:uid="{7C625551-1007-4041-A06B-86D441A7E48D}"/>
+    <hyperlink ref="C2" location="estanteria!A1" display="estanteria!A1" xr:uid="{E5AB9271-0620-4A85-8DAA-993D84728506}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{C32B3212-8D84-43EF-8D91-15E8B822369B}"/>
+    <hyperlink ref="E2" location="estanteria!A1" display="estanteria!A1" xr:uid="{789FBD9A-9632-4B38-BD49-07B9D5891E58}"/>
+    <hyperlink ref="D2" location="estanteria!A1" display="estanteria!A1" xr:uid="{6F82CB55-5D48-4488-85CB-8824D89BC219}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9790,7 +9951,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9819,76 +9980,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A10</f>
         <v>almacen</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B10</f>
         <v>Entida que representa el almacen que estaria ubicado en un direccion y contendria las secciones</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -9961,7 +10122,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -10001,30 +10162,30 @@
         <v>39</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>50</v>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -10032,7 +10193,7 @@
       <c r="H7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="13" t="s">
         <v>28</v>
       </c>
@@ -10052,24 +10213,24 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -10087,7 +10248,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>28</v>
@@ -10108,127 +10269,127 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="137">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="137">
+        <v>200</v>
+      </c>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q9" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="141" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="137">
+        <v>1</v>
+      </c>
+      <c r="D10" s="137">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="12" t="s">
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
+      <c r="I10" s="138"/>
+      <c r="J10" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="K10" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="R9" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="S9" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="T9" s="65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>50</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="R10" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="S10" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="T10" s="65" t="s">
-        <v>138</v>
+      <c r="N10" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="137" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q10" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="141" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -10241,7 +10402,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>9</v>
@@ -10253,10 +10414,10 @@
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C14" s="70" t="str">
         <f>A6</f>
@@ -10265,144 +10426,144 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="67" t="str">
+      <c r="A15" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="67" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="67" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="122"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="67" t="str">
         <f>A7</f>
-        <v xml:space="preserve">pais </v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="67" t="str">
+        <v>ciudad</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="122"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="67" t="str">
         <f>A8</f>
-        <v xml:space="preserve">departamento </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="67" t="str">
-        <f>A9</f>
-        <v>ciudad</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="67" t="str">
-        <f>A10</f>
         <v>direccion</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="118"/>
+        <v>120</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="124"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E22" s="49" t="str">
         <f>$A$29</f>
         <v>AL-P-1</v>
       </c>
-      <c r="F22" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="106"/>
+      <c r="F22" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="107" t="str">
+        <v>122</v>
+      </c>
+      <c r="E23" s="102" t="str">
         <f>$A$28</f>
         <v>identificador</v>
       </c>
-      <c r="F23" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="104"/>
+      <c r="F23" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="106"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="108"/>
-      <c r="F24" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="104"/>
+        <v>122</v>
+      </c>
+      <c r="E24" s="103"/>
+      <c r="F24" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="106"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="109"/>
-      <c r="F25" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="104"/>
+        <v>159</v>
+      </c>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="106"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
@@ -10437,10 +10598,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -10450,10 +10611,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -10463,17 +10624,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B36B8A9F-9652-4848-8F38-E87097CE1950}"/>
@@ -10504,19 +10665,19 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2965285-6401-4B64-BC72-4ABFD8289385}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -10532,57 +10693,52 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f>almacen!A6</f>
         <v>id</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>almacen!A7</f>
-        <v xml:space="preserve">pais </v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>almacen!A8</f>
-        <v xml:space="preserve">departamento </v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>almacen!A9</f>
+      <c r="B2" s="3" t="str">
+        <f>almacen!$A$7</f>
         <v>ciudad</v>
       </c>
-      <c r="E2" s="3" t="str">
-        <f>almacen!A10</f>
+      <c r="C2" s="135" t="str">
+        <f>almacen!$A$8</f>
         <v>direccion</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="135" t="str">
+        <f>almacen!$A$9</f>
+        <v>descripcion</v>
+      </c>
+      <c r="E2" s="135" t="str">
+        <f>almacen!$A$10</f>
+        <v>nombre</v>
+      </c>
+      <c r="F2" s="135"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>345</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{2F8DF9FC-71A4-4006-9235-319F4AB60DAE}"/>
     <hyperlink ref="A2" location="almacen!A6" display="almacen!A6" xr:uid="{84A523CB-F42B-4C5A-A31B-80EB7D888AA8}"/>
-    <hyperlink ref="B2" location="almacen!A7" display="almacen!A7" xr:uid="{D38AB06A-A12B-44DA-A32B-43784A506D34}"/>
-    <hyperlink ref="C2" location="almacen!A8" display="almacen!A8" xr:uid="{5B06E25F-CC0E-45B0-AB6A-CECE4AD82E37}"/>
-    <hyperlink ref="D2" location="almacen!A9" display="almacen!A9" xr:uid="{AF988C74-A466-4F49-B490-030A9D395397}"/>
-    <hyperlink ref="E2" location="almacen!A10" display="almacen!A10" xr:uid="{E654BFF5-99CC-468A-978F-46CAFEEFF24B}"/>
+    <hyperlink ref="B2" location="almacen!A10" display="almacen!A10" xr:uid="{E654BFF5-99CC-468A-978F-46CAFEEFF24B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10592,8 +10748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A53C3-127F-4FB1-B767-C55AA23A65C9}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10624,10 +10780,10 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -10638,10 +10794,10 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -10652,10 +10808,10 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -10666,10 +10822,10 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -10680,10 +10836,10 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -10694,10 +10850,10 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -10708,10 +10864,10 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -10722,10 +10878,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -10736,10 +10892,10 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -10750,10 +10906,10 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="15"/>
@@ -10764,10 +10920,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -10778,10 +10934,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -10792,28 +10948,28 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
-        <v>112</v>
+      <c r="A15" s="126" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
-        <v>100</v>
+      <c r="A16" s="126" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -10830,10 +10986,10 @@
     <hyperlink ref="A13" location="pais!A1" display="pais" xr:uid="{1C629390-5D0D-4D96-807A-0250F61A2A05}"/>
     <hyperlink ref="A12" location="departamento!A1" display="departamento" xr:uid="{4ABB54B8-740B-41C5-99BD-8FC394E712BB}"/>
     <hyperlink ref="A11" location="ciudad!A1" display="ciudad" xr:uid="{C7E317C4-3743-40A8-BE24-EB898FDCB31E}"/>
-    <hyperlink ref="A15" location="' Tipo unidades'!A1" display="tipo unidad" xr:uid="{679DAED4-1C8C-4A46-A07E-46CCB708DEF0}"/>
+    <hyperlink ref="A15" location="' Tipo_unidades'!A1" display="tipo unidad" xr:uid="{679DAED4-1C8C-4A46-A07E-46CCB708DEF0}"/>
     <hyperlink ref="A6" location="proveedor!A1" display="proveedor" xr:uid="{64D6F78B-F3F6-4796-BBF3-56B5215F9AB2}"/>
     <hyperlink ref="A14" location="cuidado!A1" display="cuidado" xr:uid="{07E64568-C87B-4826-9B96-06DEAE06965D}"/>
-    <hyperlink ref="A16" location="'unidad medida'!A1" display="unidad medida" xr:uid="{3AC4B5BA-E1BA-4F50-8602-3B8ECD225885}"/>
+    <hyperlink ref="A16" location="unidad_medida!A1" display="unidad medida" xr:uid="{3AC4B5BA-E1BA-4F50-8602-3B8ECD225885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10874,76 +11030,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A6</f>
         <v>proveedor</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B6</f>
         <v>Entidad que representa el proveedor y corresponde a aquella empresa a la cual se les hacen pedidos de productos</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -11016,7 +11172,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -11056,16 +11212,16 @@
         <v>39</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="76" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="76" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="76" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -11110,21 +11266,21 @@
         <v>38</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -11161,19 +11317,19 @@
         <v>32</v>
       </c>
       <c r="P8" s="77" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -11194,7 +11350,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>9</v>
@@ -11210,10 +11366,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -11245,106 +11401,106 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>PR-P-1</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="106"/>
+      <c r="F16" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="107" t="str">
+        <v>122</v>
+      </c>
+      <c r="E17" s="102" t="str">
         <f>$A$24</f>
         <v>PR-P-2</v>
       </c>
-      <c r="F17" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="104"/>
+      <c r="F17" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="106"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="104"/>
+        <v>122</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="106"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="104"/>
+        <v>234</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="106"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
@@ -11379,10 +11535,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -11392,10 +11548,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -11446,7 +11602,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11458,12 +11614,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -11491,15 +11647,15 @@
         <v>contacto</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -11507,10 +11663,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -11519,6 +11675,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{58C5DFB8-8B06-4286-AC24-C52666EA63C5}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B59C54A0-3A80-4621-9096-D189BD0ABF99}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{DEF2B7F8-1A5A-408A-9CC0-DB25B571B075}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11539,6 +11697,706 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="108" t="str">
+        <f>'objeto de dominio'!A2</f>
+        <v>usuario</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcion</v>
+      </c>
+      <c r="B3" s="109" t="str">
+        <f>'objeto de dominio'!B2</f>
+        <v>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="75" t="str">
+        <f>$A$16</f>
+        <v xml:space="preserve">crear usuario </v>
+      </c>
+      <c r="R5" s="75" t="str">
+        <f>$A$17</f>
+        <v>editar usuario</v>
+      </c>
+      <c r="S5" s="75" t="str">
+        <f>$A$18</f>
+        <v>elimunar usuario</v>
+      </c>
+      <c r="T5" s="75" t="str">
+        <f>A19</f>
+        <v>buscar usuario</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="69" t="str">
+        <f>A6</f>
+        <v>id</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="111"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="49" t="str">
+        <f>$A$23</f>
+        <v>US-P-1</v>
+      </c>
+      <c r="F16" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="113"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="102" t="str">
+        <f>$A$24</f>
+        <v>US-P-2</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="106"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="106"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="106"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{D5AC8310-2B3B-4FE9-B549-F82D2DC4804B}"/>
+    <hyperlink ref="A4" location="'usuario datos simulados'!A1" display="datos simulados" xr:uid="{5EFF2FAF-5D2D-44D6-BECF-7056B7E5D6A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB451099-C814-427D-84E1-C3C737A24B72}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C86FBE2B-A36A-48FF-97AA-8660719AC703}">
+          <x14:formula1>
+            <xm:f>valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78B15AE-D8B9-4C55-AF7B-07803F46F0D7}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
+        <f>usuario!A6</f>
+        <v>id</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>usuario!$A$7</f>
+        <v>nombre</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>usuario!$A$8</f>
+        <v xml:space="preserve">cargo </v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="142">
+        <v>1</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="142">
+        <v>2</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="142">
+        <v>3</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{EFB3C6B6-950E-407B-9BD9-68D254C3A701}"/>
+    <hyperlink ref="B2" location="usuario!A7" display="usuario!A7" xr:uid="{56A4D1E2-7885-488E-A841-149056AEEF8E}"/>
+    <hyperlink ref="A2" location="usuario!A6" display="usuario!A6" xr:uid="{31EBE4CD-A04A-419E-9193-6E381EA5CFFA}"/>
+    <hyperlink ref="C2" location="usuario!A8" display="usuario!A8" xr:uid="{76196D02-A481-4D63-A8AE-286F66D31B15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417BC17-A767-4B51-A9C6-D55C94FD117C}">
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -11570,76 +12428,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
-        <f>'objeto de dominio'!A2</f>
-        <v>usuario</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="B2" s="108" t="str">
+        <f>'objeto de dominio'!A14</f>
+        <v>cuidado</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
-        <f>'objeto de dominio'!B2</f>
-        <v>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="109" t="str">
+        <f>'objeto de dominio'!B14</f>
+        <v>Entidad que presenta el cuidado y los detalles del manejo y almancenamiento del producto</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -11694,25 +12552,25 @@
         <v>10</v>
       </c>
       <c r="Q5" s="75" t="str">
+        <f>$A$15</f>
+        <v>crear cuidado</v>
+      </c>
+      <c r="R5" s="75" t="str">
         <f>$A$16</f>
-        <v xml:space="preserve">crear usuario </v>
-      </c>
-      <c r="R5" s="75" t="str">
+        <v>editar cuidado</v>
+      </c>
+      <c r="S5" s="75" t="str">
         <f>$A$17</f>
-        <v>editar usuario</v>
-      </c>
-      <c r="S5" s="75" t="str">
-        <f>$A$18</f>
-        <v>elimunar usuario</v>
+        <v>elimunar cuidado</v>
       </c>
       <c r="T5" s="75" t="str">
-        <f>A19</f>
-        <v>buscar usuario</v>
+        <f>A18</f>
+        <v>buscar cuidado</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -11752,21 +12610,21 @@
         <v>39</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="76" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S6" s="76" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="76" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -11775,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -11806,71 +12664,25 @@
         <v>38</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>50</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="R8" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>138</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
@@ -11881,22 +12693,31 @@
       <c r="T9" s="50"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>11</v>
+      <c r="B11" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="69" t="str">
+        <f>A6</f>
+        <v>id</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -11905,21 +12726,13 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="69" t="str">
-        <f>A6</f>
-        <v>id</v>
-      </c>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
@@ -11931,116 +12744,116 @@
       <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="102"/>
+      <c r="E15" s="49" t="str">
+        <f>$A$22</f>
+        <v>CU-P-1</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="49" t="str">
+        <v>122</v>
+      </c>
+      <c r="E16" s="102" t="str">
         <f>$A$23</f>
-        <v>US-P-1</v>
+        <v>CU-P-2</v>
       </c>
       <c r="F16" s="105" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="107" t="str">
-        <f>$A$24</f>
-        <v>US-P-2</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="104"/>
+        <v>122</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="106"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C18" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="104"/>
+      <c r="G18" s="106"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="104"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
@@ -12052,20 +12865,24 @@
       <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>9</v>
+      <c r="A22" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -12075,636 +12892,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{D5AC8310-2B3B-4FE9-B549-F82D2DC4804B}"/>
-    <hyperlink ref="A4" location="'usuario datos simulados'!A1" display="datos simulados" xr:uid="{5EFF2FAF-5D2D-44D6-BECF-7056B7E5D6A8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB451099-C814-427D-84E1-C3C737A24B72}">
-          <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C86FBE2B-A36A-48FF-97AA-8660719AC703}">
-          <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K6:O8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78B15AE-D8B9-4C55-AF7B-07803F46F0D7}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
-        <f>usuario!A6</f>
-        <v>id</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>usuario!A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>usuario!A8</f>
-        <v xml:space="preserve">cargo </v>
-      </c>
-      <c r="D2" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{EFB3C6B6-950E-407B-9BD9-68D254C3A701}"/>
-    <hyperlink ref="B2" location="usuario!A7" display="usuario!A7" xr:uid="{56A4D1E2-7885-488E-A841-149056AEEF8E}"/>
-    <hyperlink ref="A2" location="usuario!A6" display="usuario!A6" xr:uid="{31EBE4CD-A04A-419E-9193-6E381EA5CFFA}"/>
-    <hyperlink ref="C2" location="usuario!A8" display="usuario!A8" xr:uid="{76196D02-A481-4D63-A8AE-286F66D31B15}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417BC17-A767-4B51-A9C6-D55C94FD117C}">
-  <dimension ref="A1:T23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
-        <v>objetos de dominio</v>
-      </c>
-      <c r="B2" s="99" t="str">
-        <f>'objeto de dominio'!A14</f>
-        <v>cuidado</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
-        <v>descripcion</v>
-      </c>
-      <c r="B3" s="100" t="str">
-        <f>'objeto de dominio'!B14</f>
-        <v>Entidad que presenta el cuidado y los detalles del manejo y almancenamiento del producto</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="75" t="str">
-        <f>$A$15</f>
-        <v>crear cuidado</v>
-      </c>
-      <c r="R5" s="75" t="str">
-        <f>$A$16</f>
-        <v>editar cuidado</v>
-      </c>
-      <c r="S5" s="75" t="str">
-        <f>$A$17</f>
-        <v>elimunar cuidado</v>
-      </c>
-      <c r="T5" s="75" t="str">
-        <f>A18</f>
-        <v>buscar cuidado</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="R6" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="R7" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="S7" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="69" t="str">
-        <f>A6</f>
-        <v>id</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="102"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="49" t="str">
-        <f>$A$22</f>
-        <v>CU-P-1</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="106"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="107" t="str">
-        <f>$A$23</f>
-        <v>CU-P-2</v>
-      </c>
-      <c r="F16" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="104"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="104"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -12765,17 +12956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>cuidado!$A$6</f>
         <v>id</v>
       </c>
-      <c r="B2" s="124" t="str">
+      <c r="B2" s="101" t="str">
         <f>cuidado!$A$7</f>
         <v>descripcion</v>
       </c>
@@ -12785,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12793,7 +12984,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -12814,7 +13005,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12840,76 +13031,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A11</f>
         <v>ciudad</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B11</f>
         <v>Entidad que representa la cuidad y donde esta ubicado uno o varios almacenes</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -12983,7 +13174,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -12998,7 +13189,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
@@ -13020,10 +13211,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -13065,30 +13256,30 @@
         <v>32</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="34" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="36" t="s">
@@ -13110,10 +13301,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -13156,7 +13347,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>9</v>
@@ -13181,10 +13372,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -13227,46 +13418,46 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E16" s="81" t="str">
         <f>A20</f>
         <v>CI-P-1</v>
       </c>
-      <c r="F16" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="104"/>
+      <c r="F16" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -13301,10 +13492,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -13401,10 +13592,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EA9D4F-0AD6-4D9A-9E4C-184F28065CFA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13413,13 +13604,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>ciudad!$A$6</f>
         <v>codigo</v>
@@ -13433,15 +13624,26 @@
         <v>Departamento</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>338</v>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="127">
+        <v>5001</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127">
+        <v>5615</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -13460,7 +13662,7 @@
           <x14:formula1>
             <xm:f>'departamento datos simulados'!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C3:C4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13499,76 +13701,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="108" t="str">
         <f>'objeto de dominio'!A12</f>
         <v>departamento</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="109" t="str">
         <f>'objeto de dominio'!B12</f>
         <v>Entidad que representa departamento y donde pertence la ciudad</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -13642,7 +13844,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -13657,7 +13859,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
@@ -13679,15 +13881,15 @@
         <v>31</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -13724,32 +13926,32 @@
         <v>32</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" s="121" t="s">
+      <c r="A8" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="123" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" s="123" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="121" t="s">
-        <v>332</v>
-      </c>
-      <c r="I8" s="123"/>
+      <c r="C8" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="I8" s="100"/>
       <c r="J8" s="36" t="s">
         <v>28</v>
       </c>
@@ -13769,10 +13971,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -13815,7 +14017,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>9</v>
@@ -13840,10 +14042,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -13886,46 +14088,46 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="102"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E16" s="81" t="str">
         <f>A20</f>
         <v>DE-P-1</v>
       </c>
-      <c r="F16" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="104"/>
+      <c r="F16" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -13960,10 +14162,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -14069,11 +14271,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -14094,10 +14296,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Documents\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCEAA5-677F-4AA8-9925-ACC0D16F9E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBED346-B571-4498-B481-F641102515FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="30" activeTab="32" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="18" activeTab="20" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="353">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>gramos</t>
-  </si>
-  <si>
-    <t>no poner demasiado peso sobre el producto pues este puede estallar</t>
   </si>
   <si>
     <t>Marca de tortilla de chip, un tradicional totopo mexica condimentado, hecho de tortilla de maiz frita con forma triangular</t>
@@ -1125,9 +1122,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1441,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1712,6 +1708,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1769,54 +1801,18 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2295,72 +2291,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A13</f>
         <v>pais</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B13</f>
         <v xml:space="preserve">Entidad que representa el pais y donde pertence el departamento </v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -2438,7 +2434,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -2453,7 +2449,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
@@ -2475,15 +2471,15 @@
         <v>31</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -2520,10 +2516,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2594,7 +2590,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -2637,46 +2633,46 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="D14" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="F14" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>188</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>189</v>
       </c>
       <c r="E15" s="81" t="str">
         <f>A19</f>
         <v>PA-P-1</v>
       </c>
-      <c r="F15" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="106"/>
+      <c r="F15" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="124"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
@@ -2711,10 +2707,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -2820,11 +2816,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -2842,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2915,72 +2911,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="127" t="str">
         <f>'objeto de dominio'!A16</f>
         <v>unidad medida</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B16</f>
         <v>Entidad que presenta la unidad de medida a la cual pertencen y son medidos en el tipo unidad</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -3070,7 +3066,7 @@
     </row>
     <row r="6" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -3085,7 +3081,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
@@ -3107,24 +3103,24 @@
         <v>32</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="S6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -3161,19 +3157,19 @@
         <v>32</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -3249,7 +3245,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -3307,24 +3303,24 @@
     </row>
     <row r="14" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="D14" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="F14" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="129"/>
       <c r="H14" s="40"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3337,47 +3333,47 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="49" t="str">
         <f>$A$22</f>
         <v>UM-P-1</v>
       </c>
-      <c r="F15" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="113"/>
+      <c r="F15" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="131"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E16" s="120" t="str">
         <f>$A$23</f>
         <v>UM-P-2</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="106"/>
+      <c r="F16" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="124"/>
       <c r="H16" s="40"/>
       <c r="I16" s="86"/>
       <c r="J16" s="86"/>
@@ -3385,44 +3381,44 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E17" s="121"/>
+      <c r="F17" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="124"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="106"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="124"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
       <c r="K18" s="85"/>
@@ -3469,10 +3465,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -3485,10 +3481,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -3652,11 +3648,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -3698,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3743,72 +3739,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
     </row>
     <row r="2" spans="1:17" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="127" t="str">
         <f>'objeto de dominio'!A15</f>
         <v>tipo unidad</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B15</f>
         <v>Entidad que representa al tipo unidad y que corresponde al tipo de contenido que posee el producto en el cual es se controla</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -3886,7 +3882,7 @@
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -3901,7 +3897,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
@@ -3923,15 +3919,15 @@
         <v>32</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -3968,15 +3964,15 @@
         <v>32</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -3986,13 +3982,13 @@
         <v>Unidad medida</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="36" t="s">
@@ -4014,10 +4010,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4085,7 +4081,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -4110,7 +4106,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="69" t="str">
         <f>A7</f>
@@ -4168,47 +4164,47 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="D16" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="E16" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="F16" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="111"/>
+      <c r="G16" s="129"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="C17" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>212</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>213</v>
       </c>
       <c r="E17" s="81" t="str">
         <f>A21</f>
         <v>TU-P-1</v>
       </c>
-      <c r="F17" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="106"/>
+      <c r="F17" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="124"/>
       <c r="H17" s="40"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
@@ -4259,10 +4255,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>215</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>216</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -4465,10 +4461,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -4500,9 +4496,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="129" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4513,18 +4509,18 @@
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="129" t="s">
-        <v>315</v>
+      <c r="C5" s="106" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="129" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="129" t="s">
+      <c r="B6" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="106" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4532,10 +4528,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="129" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="129" t="s">
+      <c r="B7" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="106" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4543,10 +4539,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="129" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="129" t="s">
+      <c r="B8" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="106" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4554,10 +4550,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="129" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="129" t="s">
+      <c r="B9" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="106" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4621,72 +4617,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A3</f>
         <v>entrada</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B3</f>
         <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4796,10 +4792,10 @@
         <v>64</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4844,10 +4840,10 @@
         <v>63</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -4887,13 +4883,13 @@
         <v>32</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -4927,13 +4923,13 @@
         <v>32</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -4978,10 +4974,10 @@
         <v>69</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -5041,7 +5037,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A8</f>
@@ -5075,69 +5071,69 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="D17" s="133"/>
+      <c r="E17" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="46" t="s">
+      <c r="F17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="G17" s="46" t="s">
         <v>120</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>121</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>308</v>
-      </c>
-      <c r="D18" s="112"/>
+        <v>291</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="130"/>
       <c r="E18" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="43" t="str">
         <f>$A$23</f>
         <v>EN-P-1</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="130"/>
+      <c r="E19" s="42" t="s">
         <v>293</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="42" t="s">
-        <v>294</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -5175,10 +5171,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -5188,10 +5184,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -5253,11 +5249,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5379,72 +5375,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A4</f>
         <v>salida</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5554,10 +5550,10 @@
         <v>64</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -5602,10 +5598,10 @@
         <v>63</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -5645,13 +5641,13 @@
         <v>32</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -5685,13 +5681,13 @@
         <v>32</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -5736,10 +5732,10 @@
         <v>69</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -5799,7 +5795,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A8</f>
@@ -5833,69 +5829,69 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="D17" s="133"/>
+      <c r="E17" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="46" t="s">
+      <c r="F17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="G17" s="46" t="s">
         <v>120</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>121</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="112"/>
+        <v>303</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="130"/>
       <c r="E18" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="43" t="str">
         <f>$A$23</f>
         <v>EN-P-1</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="112"/>
+      <c r="C19" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="130"/>
       <c r="E19" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -5933,10 +5929,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -5946,10 +5942,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -6011,12 +6007,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -6230,72 +6226,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>producto</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B5</f>
         <v>Entidad que representa el producto y los diferentes aspectos y cuidados de este  y es guardado en estanterias</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6412,21 +6408,21 @@
         <v>39</v>
       </c>
       <c r="Q6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="S6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -6463,19 +6459,19 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -6520,16 +6516,16 @@
         <v>38</v>
       </c>
       <c r="Q8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="S8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -6576,16 +6572,16 @@
         <v>37</v>
       </c>
       <c r="Q9" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="65" t="s">
+      <c r="S9" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S9" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T9" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -6605,7 +6601,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="13" t="s">
@@ -6627,33 +6623,33 @@
         <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="65" t="s">
+      <c r="S10" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S10" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6681,19 +6677,19 @@
         <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R11" s="65" t="s">
+      <c r="S11" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S11" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T11" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6743,7 +6739,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="69" t="str">
         <f>A6</f>
@@ -6775,106 +6771,106 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="D18" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="E18" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="F18" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="111"/>
+      <c r="G18" s="129"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="49" t="str">
         <f>$A$26</f>
         <v>PR-P-1</v>
       </c>
-      <c r="F19" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="113"/>
+      <c r="F19" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="131"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E20" s="120" t="str">
         <f>$A$27</f>
         <v>PR-P-2</v>
       </c>
-      <c r="F20" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="106"/>
+      <c r="F20" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="124"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E21" s="121"/>
+      <c r="F21" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="124"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="106"/>
+      <c r="G22" s="124"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
@@ -6909,10 +6905,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -6922,10 +6918,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -6985,8 +6981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6994,16 +6990,16 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="38" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" style="38" customWidth="1"/>
     <col min="6" max="6" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="14"/>
       <c r="E1" s="39"/>
       <c r="F1" s="14"/>
@@ -7042,7 +7038,7 @@
         <v xml:space="preserve">descripcion </v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7055,11 +7051,11 @@
       <c r="D3">
         <v>35</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="117" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7069,6 +7065,7 @@
       <c r="C4" t="s">
         <v>85</v>
       </c>
+      <c r="E4" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7083,6 +7080,18 @@
     <hyperlink ref="E2:F2" location="producto!A9" display="producto!A9" xr:uid="{4189D531-F9A0-4A86-83D9-BDBF79DFDC05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{401DDF78-7677-428A-930E-E6D2A4B1D233}">
+          <x14:formula1>
+            <xm:f>'ciudado datos simulados'!$B$3:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7102,11 +7111,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -7194,72 +7203,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>pedido</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B7</f>
         <v>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -7380,19 +7389,19 @@
         <v>39</v>
       </c>
       <c r="Q6" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="S6" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="U6" s="45" t="s">
         <v>124</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="U6" s="45" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -7437,19 +7446,19 @@
         <v>38</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -7474,19 +7483,19 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S8" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U8" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -7530,7 +7539,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A8</f>
@@ -7570,157 +7579,157 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="F15" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="115"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="40"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="43" t="str">
         <f>$A$25</f>
         <v>PE-P-1</v>
       </c>
-      <c r="F16" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="112"/>
+      <c r="F16" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="130"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="116" t="str">
+        <v>121</v>
+      </c>
+      <c r="E17" s="134" t="str">
         <f>$A$26</f>
         <v>PE-P-2</v>
       </c>
-      <c r="F17" s="116" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="116"/>
+      <c r="F17" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="134"/>
       <c r="H17" s="40"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="116"/>
+        <v>121</v>
+      </c>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="134"/>
       <c r="H18" s="40"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116" t="s">
-        <v>279</v>
-      </c>
-      <c r="G19" s="116"/>
+        <v>276</v>
+      </c>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="134"/>
       <c r="H19" s="40"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="130" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="130" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="112" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="112" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116" t="s">
-        <v>279</v>
-      </c>
-      <c r="G20" s="116"/>
+      <c r="C20" s="130" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="134"/>
       <c r="H20" s="40"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="43" t="str">
         <f>A27</f>
         <v>PE-P-3</v>
       </c>
-      <c r="F21" s="116" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" s="116"/>
+      <c r="F21" s="134" t="s">
+        <v>277</v>
+      </c>
+      <c r="G21" s="134"/>
       <c r="H21" s="40"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -7767,10 +7776,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -7783,10 +7792,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -7799,10 +7808,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="88"/>
       <c r="D27" s="88"/>
@@ -7827,21 +7836,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E17:E20"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
@@ -7904,72 +7913,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="127" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>seccion</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B8</f>
         <v>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -8059,7 +8068,7 @@
     </row>
     <row r="6" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -8074,7 +8083,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
@@ -8096,24 +8105,24 @@
         <v>32</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="S6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -8150,24 +8159,24 @@
         <v>32</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -8204,19 +8213,19 @@
         <v>32</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="S8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -8292,7 +8301,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -8336,118 +8345,118 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="F15" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="129"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
       <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>SE-P-1</v>
       </c>
-      <c r="F16" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="113"/>
+      <c r="F16" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="131"/>
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
       <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E17" s="120" t="str">
         <f>$A$24</f>
         <v>SE-P-2</v>
       </c>
-      <c r="F17" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="106"/>
+      <c r="F17" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="124"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="G18" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E18" s="121"/>
+      <c r="F18" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="124"/>
       <c r="I18" s="87"/>
       <c r="J18" s="87"/>
       <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>226</v>
-      </c>
       <c r="D19" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="106"/>
+        <v>138</v>
+      </c>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="124"/>
       <c r="I19" s="86"/>
       <c r="J19" s="86"/>
       <c r="K19" s="85"/>
@@ -8495,10 +8504,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -8512,10 +8521,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -8647,12 +8656,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -8685,21 +8694,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="129" t="s">
-        <v>336</v>
+      <c r="B4" s="106" t="s">
+        <v>335</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8762,48 +8771,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="117" t="str">
+      <c r="B2" s="135" t="str">
         <f>'objeto de dominio'!A9</f>
         <v>estanteria</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
       <c r="S2" s="52"/>
@@ -8815,24 +8824,24 @@
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="118" t="str">
+      <c r="B3" s="136" t="str">
         <f>'objeto de dominio'!B9</f>
         <v>Entidad que representa la estanteria y en donde se ubicarian los productos</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
@@ -8973,16 +8982,16 @@
         <v>39</v>
       </c>
       <c r="Q6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="S6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="U6" s="52"/>
     </row>
@@ -9025,19 +9034,19 @@
         <v>32</v>
       </c>
       <c r="P7" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U7" s="52"/>
     </row>
@@ -9080,19 +9089,19 @@
         <v>32</v>
       </c>
       <c r="P8" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="S8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="U8" s="52"/>
     </row>
@@ -9135,19 +9144,19 @@
         <v>32</v>
       </c>
       <c r="P9" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="65" t="s">
+      <c r="S9" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S9" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T9" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="U9" s="52"/>
     </row>
@@ -9190,19 +9199,19 @@
         <v>32</v>
       </c>
       <c r="P10" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="65" t="s">
+      <c r="S10" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S10" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="U10" s="52"/>
     </row>
@@ -9286,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A6</f>
@@ -9312,11 +9321,11 @@
       <c r="U14" s="52"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="120" t="s">
-        <v>141</v>
+      <c r="B15" s="138" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="67" t="str">
         <f>A8</f>
@@ -9342,8 +9351,8 @@
       <c r="U15" s="52"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="120"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="67" t="str">
         <f>A9</f>
         <v xml:space="preserve">numero </v>
@@ -9368,8 +9377,8 @@
       <c r="U16" s="52"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="67" t="str">
         <f>A10</f>
         <v>letra</v>
@@ -9441,24 +9450,24 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="D20" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="E20" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="F20" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="111"/>
+      <c r="G20" s="129"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="50"/>
@@ -9476,25 +9485,25 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="49" t="str">
         <f>$A$28</f>
         <v>E-P-1</v>
       </c>
-      <c r="F21" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="113"/>
+      <c r="F21" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="131"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="50"/>
@@ -9512,25 +9521,25 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E22" s="120" t="str">
         <f>$A$29</f>
         <v>E-P-2</v>
       </c>
-      <c r="F22" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="106"/>
+      <c r="F22" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="124"/>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="50"/>
@@ -9548,22 +9557,22 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E23" s="121"/>
+      <c r="F23" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="124"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="50"/>
@@ -9581,22 +9590,22 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>137</v>
-      </c>
       <c r="D24" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="106"/>
+        <v>138</v>
+      </c>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="124"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="50"/>
@@ -9687,10 +9696,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -9714,10 +9723,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -9843,12 +9852,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -9867,55 +9876,55 @@
         <f>estanteria!$A$6</f>
         <v>id</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="107" t="str">
         <f>estanteria!$A$7</f>
         <v>descripcion</v>
       </c>
-      <c r="C2" s="131" t="str">
+      <c r="C2" s="108" t="str">
         <f>estanteria!A8</f>
         <v>pasillo</v>
       </c>
-      <c r="D2" s="135" t="str">
+      <c r="D2" s="112" t="str">
         <f>estanteria!$A$9</f>
         <v xml:space="preserve">numero </v>
       </c>
-      <c r="E2" s="135" t="str">
+      <c r="E2" s="112" t="str">
         <f>estanteria!$A$10</f>
         <v>letra</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="132">
+      <c r="A3" s="109">
         <v>1</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="133">
+      <c r="C3" s="110">
         <v>1</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="109">
         <v>30</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="109" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="111">
+        <v>2</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="117">
+        <v>2</v>
+      </c>
+      <c r="D4" s="111">
+        <v>40</v>
+      </c>
+      <c r="E4" s="111" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="134">
-        <v>2</v>
-      </c>
-      <c r="B4" s="134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="140">
-        <v>2</v>
-      </c>
-      <c r="D4" s="134">
-        <v>40</v>
-      </c>
-      <c r="E4" s="134" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -9980,72 +9989,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A10</f>
         <v>almacen</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B10</f>
         <v>Entida que representa el almacen que estaria ubicado en un direccion y contendria las secciones</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -10162,16 +10171,16 @@
         <v>39</v>
       </c>
       <c r="Q6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="S6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10213,19 +10222,19 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R7" s="65" t="s">
+      <c r="S7" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S7" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10269,127 +10278,127 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="114">
+        <v>1</v>
+      </c>
+      <c r="D9" s="114">
+        <v>200</v>
+      </c>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="114" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q9" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="114">
+        <v>1</v>
+      </c>
+      <c r="D10" s="114">
+        <v>50</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="115"/>
+      <c r="J10" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="114" t="s">
         <v>343</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q10" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="S10" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="118" t="s">
         <v>125</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="137">
-        <v>1</v>
-      </c>
-      <c r="D9" s="137">
-        <v>200</v>
-      </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="137" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q9" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="T9" s="141" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="137">
-        <v>1</v>
-      </c>
-      <c r="D10" s="137">
-        <v>50</v>
-      </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="137" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q10" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="R10" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="S10" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" s="141" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -10426,10 +10435,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="141" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="67" t="e">
@@ -10439,24 +10448,24 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="67" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="67" t="str">
         <f>A7</f>
         <v>ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="67" t="str">
         <f>A8</f>
         <v>direccion</v>
@@ -10464,106 +10473,106 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="D21" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="E21" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="F21" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="124"/>
+      <c r="G21" s="140"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="49" t="str">
         <f>$A$29</f>
         <v>AL-P-1</v>
       </c>
-      <c r="F22" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="113"/>
+      <c r="F22" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="131"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E23" s="120" t="str">
         <f>$A$28</f>
         <v>identificador</v>
       </c>
-      <c r="F23" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="106"/>
+      <c r="F23" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="124"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E24" s="121"/>
+      <c r="F24" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="124"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="106"/>
+      <c r="G25" s="124"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
@@ -10598,10 +10607,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -10611,10 +10620,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -10624,17 +10633,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B36B8A9F-9652-4848-8F38-E87097CE1950}"/>
@@ -10703,19 +10712,19 @@
         <f>almacen!$A$7</f>
         <v>ciudad</v>
       </c>
-      <c r="C2" s="135" t="str">
+      <c r="C2" s="112" t="str">
         <f>almacen!$A$8</f>
         <v>direccion</v>
       </c>
-      <c r="D2" s="135" t="str">
+      <c r="D2" s="112" t="str">
         <f>almacen!$A$9</f>
         <v>descripcion</v>
       </c>
-      <c r="E2" s="135" t="str">
+      <c r="E2" s="112" t="str">
         <f>almacen!$A$10</f>
         <v>nombre</v>
       </c>
-      <c r="F2" s="135"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -10724,14 +10733,14 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="111" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
         <v>345</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>346</v>
-      </c>
-      <c r="E3" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -10783,7 +10792,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -10794,10 +10803,10 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -10808,10 +10817,10 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -10825,7 +10834,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -10839,7 +10848,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -10853,7 +10862,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -10867,7 +10876,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -10881,7 +10890,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -10895,7 +10904,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -10909,7 +10918,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="15"/>
@@ -10920,10 +10929,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -10934,10 +10943,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -10948,28 +10957,28 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B15" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="72" t="s">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="72" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>109</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -11030,72 +11039,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A6</f>
         <v>proveedor</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B6</f>
         <v>Entidad que representa el proveedor y corresponde a aquella empresa a la cual se les hacen pedidos de productos</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -11212,16 +11221,16 @@
         <v>39</v>
       </c>
       <c r="Q6" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="76" t="s">
+      <c r="S6" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="76" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -11266,21 +11275,21 @@
         <v>38</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -11320,16 +11329,16 @@
         <v>61</v>
       </c>
       <c r="Q8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="S8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -11369,7 +11378,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -11401,106 +11410,106 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="F15" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>PR-P-1</v>
       </c>
-      <c r="F16" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="113"/>
+      <c r="F16" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="131"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E17" s="120" t="str">
         <f>$A$24</f>
         <v>PR-P-2</v>
       </c>
-      <c r="F17" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="106"/>
+      <c r="F17" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E18" s="121"/>
+      <c r="F18" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="106"/>
+        <v>233</v>
+      </c>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="124"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
@@ -11535,10 +11544,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -11548,10 +11557,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -11614,12 +11623,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -11654,8 +11663,8 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="131" t="s">
-        <v>334</v>
+      <c r="C3" s="108" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -11665,8 +11674,8 @@
       <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="131" t="s">
-        <v>334</v>
+      <c r="C4" s="108" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -11728,72 +11737,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>usuario</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B2</f>
         <v>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -11910,16 +11919,16 @@
         <v>39</v>
       </c>
       <c r="Q6" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="76" t="s">
+      <c r="S6" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="76" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -11964,16 +11973,16 @@
         <v>38</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12018,16 +12027,16 @@
         <v>61</v>
       </c>
       <c r="Q8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="S8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -12067,7 +12076,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -12099,106 +12108,106 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="F15" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>US-P-1</v>
       </c>
-      <c r="F16" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="113"/>
+      <c r="F16" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="131"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E17" s="120" t="str">
         <f>$A$24</f>
         <v>US-P-2</v>
       </c>
-      <c r="F17" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="106"/>
+      <c r="F17" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E18" s="121"/>
+      <c r="F18" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>169</v>
-      </c>
       <c r="D19" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="106"/>
+        <v>138</v>
+      </c>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="124"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
@@ -12233,10 +12242,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -12246,10 +12255,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -12300,7 +12309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78B15AE-D8B9-4C55-AF7B-07803F46F0D7}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12313,11 +12322,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -12348,36 +12357,36 @@
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="142">
+      <c r="A3" s="119">
         <v>1</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="119">
+        <v>2</v>
+      </c>
+      <c r="B4" s="119" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="142" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="142">
-        <v>2</v>
-      </c>
-      <c r="B4" s="142" t="s">
+      <c r="C4" s="119" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="142" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="119">
+        <v>3</v>
+      </c>
+      <c r="B5" s="119" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="142">
-        <v>3</v>
-      </c>
-      <c r="B5" s="142" t="s">
+      <c r="C5" s="119" t="s">
         <v>351</v>
-      </c>
-      <c r="C5" s="142" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -12428,72 +12437,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A14</f>
         <v>cuidado</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B14</f>
         <v>Entidad que presenta el cuidado y los detalles del manejo y almancenamiento del producto</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -12610,16 +12619,16 @@
         <v>39</v>
       </c>
       <c r="Q6" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="76" t="s">
+      <c r="S6" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="76" t="s">
         <v>125</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -12664,16 +12673,16 @@
         <v>38</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -12713,7 +12722,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -12745,106 +12754,106 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="D14" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="F14" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="49" t="str">
         <f>$A$22</f>
         <v>CU-P-1</v>
       </c>
-      <c r="F15" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="113"/>
+      <c r="F15" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="131"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="102" t="str">
+        <v>121</v>
+      </c>
+      <c r="E16" s="120" t="str">
         <f>$A$23</f>
         <v>CU-P-2</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="106"/>
+      <c r="F16" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="E17" s="121"/>
+      <c r="F17" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>253</v>
-      </c>
       <c r="D18" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="106"/>
+        <v>254</v>
+      </c>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
@@ -12879,10 +12888,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -12892,10 +12901,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -12956,10 +12965,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -12976,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12984,7 +12993,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -13031,72 +13040,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A11</f>
         <v>ciudad</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B11</f>
         <v>Entidad que representa la cuidad y donde esta ubicado uno o varios almacenes</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -13174,7 +13183,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -13189,7 +13198,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
@@ -13211,10 +13220,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -13256,30 +13265,30 @@
         <v>32</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="36" t="s">
@@ -13301,10 +13310,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -13375,7 +13384,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -13418,46 +13427,46 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="F15" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="81" t="str">
         <f>A20</f>
         <v>CI-P-1</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="106"/>
+      <c r="F16" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -13492,10 +13501,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -13604,11 +13613,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
@@ -13625,25 +13634,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127">
+      <c r="A3" s="104">
         <v>5001</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="105" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="104">
+        <v>5615</v>
+      </c>
+      <c r="B4" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="C3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127">
-        <v>5615</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>322</v>
+      <c r="C4" s="102" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -13701,72 +13710,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A12</f>
         <v>departamento</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="127" t="str">
         <f>'objeto de dominio'!B12</f>
         <v>Entidad que representa departamento y donde pertence la ciudad</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -13844,7 +13853,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -13859,7 +13868,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
@@ -13881,15 +13890,15 @@
         <v>31</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -13926,30 +13935,30 @@
         <v>32</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="98" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I8" s="100"/>
       <c r="J8" s="36" t="s">
@@ -13971,10 +13980,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -14045,7 +14054,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -14088,46 +14097,46 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="F15" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="42" t="s">
         <v>193</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>194</v>
       </c>
       <c r="E16" s="81" t="str">
         <f>A20</f>
         <v>DE-P-1</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="106"/>
+      <c r="F16" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -14162,10 +14171,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -14271,11 +14280,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -14296,10 +14305,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Documents\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBED346-B571-4498-B481-F641102515FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED37E3C0-29E0-4D68-B24E-C9DDD72EAE12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="18" activeTab="20" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="353">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -1801,16 +1801,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6982,7 +6982,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7061,9 +7061,6 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
       </c>
       <c r="E4" s="117"/>
     </row>
@@ -7836,21 +7833,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E17:E20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
@@ -10435,10 +10432,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="139" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="67" t="e">
@@ -10448,24 +10445,24 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
-      <c r="B16" s="141"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="67" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
-      <c r="B17" s="141"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="67" t="str">
         <f>A7</f>
         <v>ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
-      <c r="B18" s="141"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="67" t="str">
         <f>A8</f>
         <v>direccion</v>
@@ -10487,10 +10484,10 @@
       <c r="E21" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
@@ -10633,17 +10630,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B36B8A9F-9652-4848-8F38-E87097CE1950}"/>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Documents\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED37E3C0-29E0-4D68-B24E-C9DDD72EAE12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA43415-D0CD-44A3-A71C-9A371E5DCCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="18" activeTab="20" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="1950" yWindow="495" windowWidth="18165" windowHeight="10425" tabRatio="646" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -52,12 +52,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="357">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -68,18 +79,9 @@
     <t>entero</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>logico</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">fecha y tiempo </t>
-  </si>
-  <si>
     <t xml:space="preserve">valor inicial </t>
   </si>
   <si>
@@ -188,39 +190,12 @@
     <t>combinacion 2</t>
   </si>
   <si>
-    <t xml:space="preserve">activo </t>
-  </si>
-  <si>
-    <t>inactivo</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
     <t>datos simulados</t>
   </si>
   <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
-    <t>proveedor</t>
-  </si>
-  <si>
-    <t>pedido</t>
-  </si>
-  <si>
-    <t>seccion</t>
-  </si>
-  <si>
-    <t>estanteria</t>
-  </si>
-  <si>
-    <t>almacen</t>
-  </si>
-  <si>
     <t xml:space="preserve">cargo </t>
   </si>
   <si>
@@ -326,12 +301,6 @@
     <t>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</t>
   </si>
   <si>
-    <t>entrada</t>
-  </si>
-  <si>
-    <t>salida</t>
-  </si>
-  <si>
     <t>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</t>
   </si>
   <si>
@@ -347,18 +316,9 @@
     <t>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</t>
   </si>
   <si>
-    <t>departamento</t>
-  </si>
-  <si>
-    <t>pais</t>
-  </si>
-  <si>
     <t>cuidado</t>
   </si>
   <si>
-    <t>tipo unidad</t>
-  </si>
-  <si>
     <t>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</t>
   </si>
   <si>
@@ -1116,6 +1076,69 @@
   </si>
   <si>
     <t xml:space="preserve">gerente </t>
+  </si>
+  <si>
+    <t>contenido</t>
+  </si>
+  <si>
+    <t>Alfanumerico</t>
+  </si>
+  <si>
+    <t>Entero</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha y tiempo </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activo </t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Seccion</t>
+  </si>
+  <si>
+    <t>Estanteria</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Cuidado</t>
+  </si>
+  <si>
+    <t>Tipo unidad</t>
   </si>
 </sst>
 </file>
@@ -1801,16 +1824,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1886,56 +1909,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>404446</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85DDC2C-65C8-38A6-3CBC-03C95B25EC37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="190500"/>
-          <a:ext cx="9548446" cy="5019675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2240,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2292,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -2317,7 +2290,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A13</f>
-        <v>pais</v>
+        <v>Pais</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -2360,7 +2333,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2380,52 +2353,52 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="C5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="F5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="G5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="H5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="78" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="78" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>A15</f>
@@ -2434,7 +2407,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -2449,37 +2422,37 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -2494,32 +2467,32 @@
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2562,13 +2535,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -2587,10 +2560,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -2633,44 +2606,44 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G14" s="129"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E15" s="81" t="str">
         <f>A19</f>
         <v>PA-P-1</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G15" s="124"/>
     </row>
@@ -2694,10 +2667,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -2707,10 +2680,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -2817,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -2838,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2885,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="132" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -2937,7 +2910,7 @@
       </c>
       <c r="B2" s="127" t="str">
         <f>'objeto de dominio'!A16</f>
-        <v>unidad medida</v>
+        <v>Unidad medida</v>
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="127"/>
@@ -2980,7 +2953,7 @@
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3000,52 +2973,52 @@
     </row>
     <row r="5" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="C5" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="F5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="G5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="H5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="79" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$15</f>
@@ -3066,7 +3039,7 @@
     </row>
     <row r="6" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -3081,46 +3054,46 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -3135,41 +3108,41 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -3218,13 +3191,13 @@
     </row>
     <row r="10" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -3242,10 +3215,10 @@
     </row>
     <row r="11" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -3303,22 +3276,22 @@
     </row>
     <row r="14" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G14" s="129"/>
       <c r="H14" s="40"/>
@@ -3333,45 +3306,45 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E15" s="49" t="str">
         <f>$A$22</f>
         <v>UM-P-1</v>
       </c>
       <c r="F15" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G15" s="131"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E16" s="120" t="str">
         <f>$A$23</f>
         <v>UM-P-2</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G16" s="124"/>
       <c r="H16" s="40"/>
@@ -3381,20 +3354,20 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="123" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G17" s="124"/>
       <c r="I17" s="88"/>
@@ -3403,20 +3376,20 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E18" s="122"/>
       <c r="F18" s="123" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G18" s="124"/>
       <c r="I18" s="88"/>
@@ -3449,10 +3422,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -3465,10 +3438,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -3481,10 +3454,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -3649,7 +3622,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -3670,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3686,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,7 +3667,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3713,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="132" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -3765,7 +3738,7 @@
       </c>
       <c r="B2" s="127" t="str">
         <f>'objeto de dominio'!A15</f>
-        <v>tipo unidad</v>
+        <v>Tipo unidad</v>
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="127"/>
@@ -3808,7 +3781,7 @@
     </row>
     <row r="4" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3828,52 +3801,52 @@
     </row>
     <row r="5" spans="1:17" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="C5" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="F5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="G5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="H5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="79" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>A17</f>
@@ -3882,7 +3855,7 @@
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -3897,37 +3870,37 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -3942,37 +3915,37 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -3982,38 +3955,38 @@
         <v>Unidad medida</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4054,13 +4027,13 @@
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -4078,10 +4051,10 @@
     </row>
     <row r="12" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -4103,10 +4076,10 @@
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C13" s="69" t="str">
         <f>A7</f>
@@ -4164,45 +4137,45 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F16" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G16" s="129"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E17" s="81" t="str">
         <f>A21</f>
         <v>TU-P-1</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G17" s="124"/>
       <c r="H17" s="40"/>
@@ -4238,10 +4211,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -4255,10 +4228,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -4462,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
     </row>
@@ -4485,10 +4458,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4469,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4480,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4491,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4502,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4513,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4524,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +4591,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -4643,7 +4616,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A3</f>
-        <v>entrada</v>
+        <v>Entrada</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -4686,59 +4659,59 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$18</f>
@@ -4752,7 +4725,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>2</v>
@@ -4767,40 +4740,40 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="30" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>1</v>
@@ -4815,40 +4788,40 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>1</v>
@@ -4865,36 +4838,36 @@
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
       <c r="J8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>2</v>
@@ -4908,76 +4881,76 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
       <c r="K9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="34" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -5018,13 +4991,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -5034,10 +5007,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A8</f>
@@ -5071,69 +5044,69 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C17" s="133" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D18" s="130"/>
       <c r="E18" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F18" s="43" t="str">
         <f>$A$23</f>
         <v>EN-P-1</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D19" s="130"/>
       <c r="E19" s="42" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -5158,10 +5131,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -5171,10 +5144,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -5184,10 +5157,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -5250,7 +5223,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -5294,16 +5267,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5311,16 +5284,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5349,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -5401,7 +5374,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A4</f>
-        <v>salida</v>
+        <v>Salida</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -5444,59 +5417,59 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$18</f>
@@ -5510,7 +5483,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>2</v>
@@ -5525,40 +5498,40 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="30" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>1</v>
@@ -5573,40 +5546,40 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>1</v>
@@ -5623,36 +5596,36 @@
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
       <c r="J8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>2</v>
@@ -5666,76 +5639,76 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
       <c r="K9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="34" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -5776,13 +5749,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -5792,10 +5765,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A8</f>
@@ -5829,69 +5802,69 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C17" s="133" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D18" s="130"/>
       <c r="E18" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F18" s="43" t="str">
         <f>$A$23</f>
         <v>EN-P-1</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D19" s="130"/>
       <c r="E19" s="42" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -5916,10 +5889,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -5929,10 +5902,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -5942,10 +5915,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -6008,7 +5981,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -6053,16 +6026,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -6070,16 +6043,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6115,7 +6088,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6128,61 +6101,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6193,11 +6166,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6227,7 +6200,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -6252,7 +6225,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A5</f>
-        <v>producto</v>
+        <v>Producto</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -6295,80 +6268,80 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
-        <f>$A$19</f>
+        <f>$A$20</f>
         <v xml:space="preserve">crear estanteria </v>
       </c>
       <c r="R5" s="75" t="str">
-        <f>$A$20</f>
+        <f>$A$21</f>
         <v>editar estanteria</v>
       </c>
       <c r="S5" s="75" t="str">
-        <f>$A$21</f>
+        <f>$A$22</f>
         <v>elimunar estanteria</v>
       </c>
       <c r="T5" s="75" t="str">
-        <f>A22</f>
+        <f>A23</f>
         <v>buscar estanteria</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -6383,46 +6356,46 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -6437,46 +6410,46 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -6491,46 +6464,46 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>1</v>
@@ -6545,205 +6518,242 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N9" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="114">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="114">
         <v>10</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13" t="s">
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="I10" s="115"/>
+      <c r="J10" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q10" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="S10" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="T10" s="65" t="s">
-        <v>125</v>
+      <c r="N10" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q10" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="T10" s="118" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>98</v>
+      <c r="D11" s="7">
+        <v>10</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="12" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N11" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
+      <c r="A12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q12" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="T12" s="65" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
       <c r="H14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="69" t="str">
-        <f>A6</f>
-        <v>id</v>
+      <c r="A15" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -6752,13 +6762,21 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="69" t="str">
+        <f>A6</f>
+        <v>id</v>
+      </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -6770,116 +6788,116 @@
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="129"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="49" t="str">
-        <f>$A$26</f>
-        <v>PR-P-1</v>
-      </c>
-      <c r="F19" s="130" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="131"/>
+      <c r="A19" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="129"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="120" t="str">
+        <v>104</v>
+      </c>
+      <c r="E20" s="49" t="str">
         <f>$A$27</f>
-        <v>PR-P-2</v>
-      </c>
-      <c r="F20" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="124"/>
+        <v>PR-P-1</v>
+      </c>
+      <c r="F20" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="131"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="121"/>
+        <v>104</v>
+      </c>
+      <c r="E21" s="120" t="str">
+        <f>$A$28</f>
+        <v>PR-P-2</v>
+      </c>
       <c r="F21" s="123" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G21" s="124"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="122"/>
+        <v>104</v>
+      </c>
+      <c r="E22" s="121"/>
       <c r="F22" s="123" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G22" s="124"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="A23" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="124"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
@@ -6891,24 +6909,20 @@
       <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>147</v>
+      <c r="A26" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -6918,10 +6932,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -6930,25 +6944,38 @@
       <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E21:E23"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
@@ -6963,13 +6990,13 @@
           <x14:formula1>
             <xm:f>valores!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B12</xm:sqref>
+          <xm:sqref>B6:B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E5DADB3-3FD8-41B2-BA96-F4BFA88D084A}">
           <x14:formula1>
             <xm:f>valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O12</xm:sqref>
+          <xm:sqref>K6:O13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6981,7 +7008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6996,7 +7023,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -7026,11 +7053,11 @@
         <v>tipo</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>producto!$A$10</f>
-        <v>cantidad</v>
+        <f>producto!$A$11</f>
+        <v>contenido</v>
       </c>
       <c r="E2" s="37" t="str">
-        <f>producto!$A$11</f>
+        <f>producto!$A$12</f>
         <v>cuidado</v>
       </c>
       <c r="F2" s="3" t="str">
@@ -7043,19 +7070,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>35</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7109,7 +7136,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -7145,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C3" s="38">
         <v>100</v>
@@ -7201,7 +7228,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -7226,7 +7253,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A7</f>
-        <v>pedido</v>
+        <v>Pedido</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -7269,59 +7296,59 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="44" t="str">
         <f>A16</f>
@@ -7346,7 +7373,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -7361,49 +7388,49 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="45" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="45" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U6" s="45" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -7418,49 +7445,49 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="45" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>2</v>
@@ -7480,19 +7507,19 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="45" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S8" s="45" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U8" s="45" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -7515,13 +7542,13 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -7533,10 +7560,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A8</f>
@@ -7576,22 +7603,22 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G15" s="133"/>
       <c r="H15" s="40"/>
@@ -7600,23 +7627,23 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E16" s="43" t="str">
         <f>$A$25</f>
         <v>PE-P-1</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G16" s="130"/>
       <c r="H16" s="40"/>
@@ -7625,23 +7652,23 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E17" s="134" t="str">
         <f>$A$26</f>
         <v>PE-P-2</v>
       </c>
       <c r="F17" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G17" s="134"/>
       <c r="H17" s="40"/>
@@ -7650,20 +7677,20 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E18" s="134"/>
       <c r="F18" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G18" s="134"/>
       <c r="H18" s="40"/>
@@ -7672,20 +7699,20 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E19" s="134"/>
       <c r="F19" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G19" s="134"/>
       <c r="H19" s="40"/>
@@ -7694,20 +7721,20 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="130" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B20" s="130" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C20" s="130" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D20" s="130" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E20" s="134"/>
       <c r="F20" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G20" s="134"/>
       <c r="H20" s="40"/>
@@ -7724,7 +7751,7 @@
         <v>PE-P-3</v>
       </c>
       <c r="F21" s="134" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="G21" s="134"/>
       <c r="H21" s="40"/>
@@ -7757,10 +7784,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -7773,10 +7800,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -7789,10 +7816,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -7805,10 +7832,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C27" s="88"/>
       <c r="D27" s="88"/>
@@ -7833,21 +7860,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E17:E20"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
@@ -7911,7 +7938,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="132" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -7936,7 +7963,7 @@
       </c>
       <c r="B2" s="127" t="str">
         <f>'objeto de dominio'!A8</f>
-        <v>seccion</v>
+        <v>Seccion</v>
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="127"/>
@@ -7979,7 +8006,7 @@
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -7999,52 +8026,52 @@
     </row>
     <row r="5" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="C5" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="F5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="G5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="H5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="79" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$16</f>
@@ -8065,7 +8092,7 @@
     </row>
     <row r="6" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -8080,46 +8107,46 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -8134,46 +8161,46 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -8188,41 +8215,41 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -8271,13 +8298,13 @@
     </row>
     <row r="11" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -8295,10 +8322,10 @@
     </row>
     <row r="12" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -8342,22 +8369,22 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G15" s="129"/>
       <c r="I15" s="88"/>
@@ -8366,23 +8393,23 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>SE-P-1</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G16" s="131"/>
       <c r="I16" s="88"/>
@@ -8391,23 +8418,23 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E17" s="120" t="str">
         <f>$A$24</f>
         <v>SE-P-2</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G17" s="124"/>
       <c r="I17" s="85"/>
@@ -8416,20 +8443,20 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E18" s="121"/>
       <c r="F18" s="123" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G18" s="124"/>
       <c r="I18" s="87"/>
@@ -8438,20 +8465,20 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E19" s="122"/>
       <c r="F19" s="123" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G19" s="124"/>
       <c r="I19" s="86"/>
@@ -8484,10 +8511,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -8501,10 +8528,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -8518,10 +8545,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -8654,7 +8681,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -8691,10 +8718,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -8702,10 +8729,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8796,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -8794,7 +8821,7 @@
       </c>
       <c r="B2" s="135" t="str">
         <f>'objeto de dominio'!A9</f>
-        <v>estanteria</v>
+        <v>Estanteria</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135"/>
@@ -8847,7 +8874,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -8872,52 +8899,52 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="C5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="F5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="G5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="H5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="60" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="59" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$21</f>
@@ -8939,7 +8966,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>1</v>
@@ -8954,47 +8981,47 @@
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="62" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U6" s="52"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>1</v>
@@ -9009,47 +9036,47 @@
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
       <c r="H7" s="63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="62" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U7" s="52"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B8" s="63" t="s">
         <v>1</v>
@@ -9064,47 +9091,47 @@
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
       <c r="H8" s="63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="62" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="62" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U8" s="52"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" s="63" t="s">
         <v>1</v>
@@ -9119,47 +9146,47 @@
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>31</v>
-      </c>
       <c r="N9" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O9" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" s="62" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T9" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U9" s="52"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B10" s="63" t="s">
         <v>1</v>
@@ -9174,41 +9201,41 @@
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="62" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O10" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" s="62" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T10" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U10" s="52"/>
     </row>
@@ -9260,13 +9287,13 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -9289,10 +9316,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A6</f>
@@ -9319,10 +9346,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="137" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C15" s="67" t="str">
         <f>A8</f>
@@ -9447,22 +9474,22 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F20" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G20" s="129"/>
       <c r="H20" s="52"/>
@@ -9482,23 +9509,23 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E21" s="49" t="str">
         <f>$A$28</f>
         <v>E-P-1</v>
       </c>
       <c r="F21" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G21" s="131"/>
       <c r="H21" s="52"/>
@@ -9518,23 +9545,23 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E22" s="120" t="str">
         <f>$A$29</f>
         <v>E-P-2</v>
       </c>
       <c r="F22" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G22" s="124"/>
       <c r="H22" s="52"/>
@@ -9554,20 +9581,20 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E23" s="121"/>
       <c r="F23" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G23" s="124"/>
       <c r="H23" s="52"/>
@@ -9587,20 +9614,20 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E24" s="122"/>
       <c r="F24" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G24" s="124"/>
       <c r="H24" s="52"/>
@@ -9666,10 +9693,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -9693,10 +9720,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -9720,10 +9747,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -9850,7 +9877,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -9895,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="110">
         <v>1</v>
@@ -9904,7 +9931,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -9912,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="117">
         <v>2</v>
@@ -9921,7 +9948,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -9987,7 +10014,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -10012,7 +10039,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A10</f>
-        <v>almacen</v>
+        <v>Almacen</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -10055,59 +10082,59 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="61" t="str">
         <f>$A$22</f>
@@ -10128,7 +10155,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -10143,100 +10170,100 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -10251,48 +10278,48 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="115" t="s">
         <v>1</v>
@@ -10307,46 +10334,46 @@
       <c r="F9" s="114"/>
       <c r="G9" s="114"/>
       <c r="H9" s="115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I9" s="115"/>
       <c r="J9" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="114" t="s">
-        <v>31</v>
-      </c>
       <c r="N9" s="114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O9" s="114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" s="114" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="118" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R9" s="118" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S9" s="118" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T9" s="118" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="115" t="s">
         <v>1</v>
@@ -10361,41 +10388,41 @@
       <c r="F10" s="114"/>
       <c r="G10" s="114"/>
       <c r="H10" s="115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="114" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O10" s="114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" s="114" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="118" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R10" s="118" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S10" s="118" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T10" s="118" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -10408,22 +10435,22 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C14" s="70" t="str">
         <f>A6</f>
@@ -10432,11 +10459,11 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="139" t="s">
-        <v>77</v>
+      <c r="A15" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="141" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="67" t="e">
         <f>#REF!</f>
@@ -10445,24 +10472,24 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="139"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="67" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="139"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="67" t="str">
         <f>A7</f>
         <v>ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="139"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="67" t="str">
         <f>A8</f>
         <v>direccion</v>
@@ -10470,104 +10497,104 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="142"/>
+        <v>102</v>
+      </c>
+      <c r="F21" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="140"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E22" s="49" t="str">
         <f>$A$29</f>
         <v>AL-P-1</v>
       </c>
       <c r="F22" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G22" s="131"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E23" s="120" t="str">
         <f>$A$28</f>
         <v>identificador</v>
       </c>
       <c r="F23" s="123" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G23" s="124"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E24" s="121"/>
       <c r="F24" s="123" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G24" s="124"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E25" s="122"/>
       <c r="F25" s="123" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G25" s="124"/>
     </row>
@@ -10591,10 +10618,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -10604,10 +10631,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -10617,10 +10644,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -10630,17 +10657,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B36B8A9F-9652-4848-8F38-E87097CE1950}"/>
@@ -10685,7 +10712,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10728,16 +10755,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -10754,8 +10781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A53C3-127F-4FB1-B767-C55AA23A65C9}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10772,10 +10799,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -10786,10 +10813,10 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -10800,10 +10827,10 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -10814,10 +10841,10 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -10828,10 +10855,10 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -10842,10 +10869,10 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -10856,10 +10883,10 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -10870,10 +10897,10 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -10884,10 +10911,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -10898,10 +10925,10 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -10912,10 +10939,10 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="15"/>
@@ -10926,10 +10953,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -10940,10 +10967,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -10954,28 +10981,28 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="103" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="103" t="s">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -11037,7 +11064,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -11062,7 +11089,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A6</f>
-        <v>proveedor</v>
+        <v>Proveedor</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -11105,59 +11132,59 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$16</f>
@@ -11178,7 +11205,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -11193,46 +11220,46 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="76" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="76" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="76" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -11247,46 +11274,46 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -11301,41 +11328,41 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="77" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -11356,13 +11383,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -11372,10 +11399,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -11407,104 +11434,104 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>PR-P-1</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G16" s="131"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E17" s="120" t="str">
         <f>$A$24</f>
         <v>PR-P-2</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E18" s="121"/>
       <c r="F18" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E19" s="122"/>
       <c r="F19" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G19" s="124"/>
     </row>
@@ -11528,10 +11555,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -11541,10 +11568,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -11554,10 +11581,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -11621,7 +11648,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -11658,10 +11685,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -11669,10 +11696,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -11735,7 +11762,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -11760,7 +11787,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A2</f>
-        <v>usuario</v>
+        <v>Usuario</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -11803,59 +11830,59 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$16</f>
@@ -11876,7 +11903,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -11891,46 +11918,46 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="76" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="76" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="76" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -11945,46 +11972,46 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -11999,41 +12026,41 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="77" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -12054,13 +12081,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -12070,10 +12097,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -12105,104 +12132,104 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E16" s="49" t="str">
         <f>$A$23</f>
         <v>US-P-1</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G16" s="131"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E17" s="120" t="str">
         <f>$A$24</f>
         <v>US-P-2</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E18" s="121"/>
       <c r="F18" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E19" s="122"/>
       <c r="F19" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G19" s="124"/>
     </row>
@@ -12226,10 +12253,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -12239,10 +12266,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -12252,10 +12279,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -12320,7 +12347,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -12358,10 +12385,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -12369,10 +12396,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -12380,10 +12407,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -12435,7 +12462,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -12460,7 +12487,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A14</f>
-        <v>cuidado</v>
+        <v>Cuidado</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -12503,59 +12530,59 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>$A$15</f>
@@ -12576,7 +12603,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -12591,46 +12618,46 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R6" s="76" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S6" s="76" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T6" s="76" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -12645,41 +12672,41 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -12700,13 +12727,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -12716,10 +12743,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C11" s="69" t="str">
         <f>A6</f>
@@ -12751,104 +12778,104 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G14" s="129"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E15" s="49" t="str">
         <f>$A$22</f>
         <v>CU-P-1</v>
       </c>
       <c r="F15" s="130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G15" s="131"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E16" s="120" t="str">
         <f>$A$23</f>
         <v>CU-P-2</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E18" s="122"/>
       <c r="F18" s="123" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G18" s="124"/>
     </row>
@@ -12872,10 +12899,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -12885,10 +12912,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -12898,10 +12925,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -12963,7 +12990,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
     </row>
@@ -12982,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12990,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -13038,7 +13065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -13063,7 +13090,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A11</f>
-        <v>ciudad</v>
+        <v>Ciudad</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -13106,7 +13133,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -13126,52 +13153,52 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="C5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="F5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="G5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="H5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="78" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="78" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>A16</f>
@@ -13180,7 +13207,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -13195,37 +13222,37 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -13240,77 +13267,77 @@
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="34" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -13353,13 +13380,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -13378,10 +13405,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -13424,44 +13451,44 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E16" s="81" t="str">
         <f>A20</f>
         <v>CI-P-1</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G16" s="124"/>
     </row>
@@ -13485,10 +13512,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -13498,10 +13525,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -13611,7 +13638,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -13635,10 +13662,10 @@
         <v>5001</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13646,10 +13673,10 @@
         <v>5615</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -13708,7 +13735,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -13733,7 +13760,7 @@
       </c>
       <c r="B2" s="126" t="str">
         <f>'objeto de dominio'!A12</f>
-        <v>departamento</v>
+        <v>Departamento</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -13776,7 +13803,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -13796,52 +13823,52 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="C5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="F5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="G5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="H5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="78" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="78" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
         <f>A16</f>
@@ -13850,7 +13877,7 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>1</v>
@@ -13865,37 +13892,37 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="80" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>1</v>
@@ -13910,77 +13937,77 @@
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B8" s="98" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="98" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="I8" s="100"/>
       <c r="J8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="65" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -14023,13 +14050,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -14048,10 +14075,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -14094,44 +14121,44 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E16" s="81" t="str">
         <f>A20</f>
         <v>DE-P-1</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G16" s="124"/>
     </row>
@@ -14155,10 +14182,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -14168,10 +14195,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -14278,7 +14305,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -14302,10 +14329,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -8,44 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA43415-D0CD-44A3-A71C-9A371E5DCCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D7A85-848A-4610-BC0B-9729ACE30BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="495" windowWidth="18165" windowHeight="10425" tabRatio="646" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="1950" yWindow="495" windowWidth="18165" windowHeight="10425" tabRatio="646" firstSheet="29" activeTab="32" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
-    <sheet name="modelo de dominio" sheetId="5" r:id="rId1"/>
-    <sheet name="valores" sheetId="1" r:id="rId2"/>
-    <sheet name="objeto de dominio" sheetId="2" r:id="rId3"/>
-    <sheet name="cuidado" sheetId="35" r:id="rId4"/>
-    <sheet name="ciudado datos simulados" sheetId="43" r:id="rId5"/>
-    <sheet name="ciudad" sheetId="32" r:id="rId6"/>
-    <sheet name="ciudad datos simulados" sheetId="42" r:id="rId7"/>
-    <sheet name="departamento" sheetId="31" r:id="rId8"/>
-    <sheet name="departamento datos simulados" sheetId="41" r:id="rId9"/>
-    <sheet name="pais" sheetId="30" r:id="rId10"/>
-    <sheet name="pais datos simulados" sheetId="40" r:id="rId11"/>
-    <sheet name="unidad_medida" sheetId="36" r:id="rId12"/>
-    <sheet name="Unidad M datos simulados" sheetId="39" r:id="rId13"/>
-    <sheet name=" Tipo_unidades" sheetId="29" r:id="rId14"/>
-    <sheet name="Tipo U datos simulados" sheetId="24" r:id="rId15"/>
-    <sheet name="entradas" sheetId="7" r:id="rId16"/>
-    <sheet name="entradas datos simulados" sheetId="8" r:id="rId17"/>
-    <sheet name="salidas" sheetId="37" r:id="rId18"/>
-    <sheet name="salidas datos simulados" sheetId="10" r:id="rId19"/>
-    <sheet name="producto" sheetId="11" r:id="rId20"/>
-    <sheet name="producto datos simulados" sheetId="12" r:id="rId21"/>
-    <sheet name="pedido datos simulados" sheetId="16" r:id="rId22"/>
-    <sheet name="pedido" sheetId="15" r:id="rId23"/>
-    <sheet name="seccion" sheetId="33" r:id="rId24"/>
-    <sheet name="seccion datos simulados" sheetId="18" r:id="rId25"/>
-    <sheet name="estanteria" sheetId="19" r:id="rId26"/>
-    <sheet name="estanteria datos simulados" sheetId="20" r:id="rId27"/>
-    <sheet name="almacen" sheetId="21" r:id="rId28"/>
-    <sheet name="almacen datos simulados" sheetId="22" r:id="rId29"/>
-    <sheet name="proveedor" sheetId="34" r:id="rId30"/>
-    <sheet name="proveedor datos simulados" sheetId="14" r:id="rId31"/>
-    <sheet name="usuario" sheetId="4" r:id="rId32"/>
-    <sheet name="usuario datos simulados" sheetId="6" r:id="rId33"/>
+    <sheet name="Modelo de dominio" sheetId="5" r:id="rId1"/>
+    <sheet name="Valores" sheetId="1" r:id="rId2"/>
+    <sheet name="Objeto de dominio" sheetId="2" r:id="rId3"/>
+    <sheet name="Cuidado" sheetId="35" r:id="rId4"/>
+    <sheet name="Ciudado-Datos simulados" sheetId="43" r:id="rId5"/>
+    <sheet name="Ciudad" sheetId="32" r:id="rId6"/>
+    <sheet name="Ciudad-Datos simulados" sheetId="42" r:id="rId7"/>
+    <sheet name="Departamento" sheetId="31" r:id="rId8"/>
+    <sheet name="Departamento-Datos simulados" sheetId="41" r:id="rId9"/>
+    <sheet name="Pais" sheetId="30" r:id="rId10"/>
+    <sheet name="Pais-Datos simulados" sheetId="40" r:id="rId11"/>
+    <sheet name="Unidad medida" sheetId="36" r:id="rId12"/>
+    <sheet name="Unidad M-Datos simulados" sheetId="39" r:id="rId13"/>
+    <sheet name=" Tipo_unidad" sheetId="29" r:id="rId14"/>
+    <sheet name="Tipo U-Datos simulados" sheetId="24" r:id="rId15"/>
+    <sheet name="Entrada" sheetId="7" r:id="rId16"/>
+    <sheet name="Entrada-Datos simulados" sheetId="8" r:id="rId17"/>
+    <sheet name="Salida" sheetId="37" r:id="rId18"/>
+    <sheet name="Salida-Datos simulados" sheetId="10" r:id="rId19"/>
+    <sheet name="Producto" sheetId="11" r:id="rId20"/>
+    <sheet name="Producto-Datos simulados" sheetId="12" r:id="rId21"/>
+    <sheet name="Pedido" sheetId="15" r:id="rId22"/>
+    <sheet name="Pedido-Datos simulados" sheetId="16" r:id="rId23"/>
+    <sheet name="Seccion" sheetId="33" r:id="rId24"/>
+    <sheet name="Seccion-Datos simulados" sheetId="18" r:id="rId25"/>
+    <sheet name="Estanteria" sheetId="19" r:id="rId26"/>
+    <sheet name="Estanteria-Datos simulados" sheetId="20" r:id="rId27"/>
+    <sheet name="Almacen" sheetId="21" r:id="rId28"/>
+    <sheet name="Almacen-Datos simulados" sheetId="22" r:id="rId29"/>
+    <sheet name="Proveedor" sheetId="34" r:id="rId30"/>
+    <sheet name="Proveedor-Datos simulados" sheetId="14" r:id="rId31"/>
+    <sheet name="Usuario" sheetId="4" r:id="rId32"/>
+    <sheet name="Usuario-Datos simulados" sheetId="6" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="374">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -952,9 +952,6 @@
     <t>permite ver mas los cuidados para el manejo del producto</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
     <t>Unidad medida</t>
   </si>
   <si>
@@ -1006,18 +1003,6 @@
     <t>RIONEGRO</t>
   </si>
   <si>
-    <t>metro cuadrado</t>
-  </si>
-  <si>
-    <t>metro cubico</t>
-  </si>
-  <si>
-    <t>kilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libra </t>
-  </si>
-  <si>
     <t>correo@ejemplo.com</t>
   </si>
   <si>
@@ -1060,18 +1045,9 @@
     <t>AC1</t>
   </si>
   <si>
-    <t xml:space="preserve">juan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">antonio </t>
-  </si>
-  <si>
     <t>empleado</t>
   </si>
   <si>
-    <t xml:space="preserve">natalia </t>
-  </si>
-  <si>
     <t xml:space="preserve">administador </t>
   </si>
   <si>
@@ -1139,6 +1115,81 @@
   </si>
   <si>
     <t>Tipo unidad</t>
+  </si>
+  <si>
+    <t>Gramos</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Metro cuadrado</t>
+  </si>
+  <si>
+    <t>Metro cubico</t>
+  </si>
+  <si>
+    <t>Kilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libra </t>
+  </si>
+  <si>
+    <t>Millilitros</t>
+  </si>
+  <si>
+    <t>No es posible repetir id</t>
+  </si>
+  <si>
+    <t>No es posible tener un mismo nombre de producto con el mismo proveedor</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>proveedores ya conocidos  o para agregar</t>
+  </si>
+  <si>
+    <t>cuidadoy manejos ya conocidos o para agragar</t>
+  </si>
+  <si>
+    <t>nombre, proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear producto </t>
+  </si>
+  <si>
+    <t>comportamiento que permite registrar la informacion de un producto</t>
+  </si>
+  <si>
+    <t>editar producto</t>
+  </si>
+  <si>
+    <t>comportamiento que permite modificar la informacion de una producto</t>
+  </si>
+  <si>
+    <t>elimunar producto</t>
+  </si>
+  <si>
+    <t>comportamiento que permite elimiar la informacion de una producto</t>
+  </si>
+  <si>
+    <t>buscar producto</t>
+  </si>
+  <si>
+    <t>comportamiento que permite consultar la informacion de una producto. Que cumpla con las condiciones recibidas</t>
+  </si>
+  <si>
+    <t>se debe asegurar la existencia de la producto con el identificador enviado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia </t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1513,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1767,6 +1818,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1824,17 +1878,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1909,6 +1969,56 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13382F16-0680-AE8F-9F15-2E847F733E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="190500"/>
+          <a:ext cx="8572500" cy="4506614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2213,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,72 +2374,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A13</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A13</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B13</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B13</f>
         <v xml:space="preserve">Entidad que representa el pais y donde pertence el departamento </v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -2620,10 +2730,10 @@
       <c r="E14" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="128" t="s">
+      <c r="F14" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="129"/>
+      <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
@@ -2642,10 +2752,10 @@
         <f>A19</f>
         <v>PA-P-1</v>
       </c>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="124"/>
+      <c r="G15" s="125"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
@@ -2762,13 +2872,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A82575B-605C-420D-B538-86CFD004D0DF}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3FA134E3-54AD-4438-BF16-C2380D633B28}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B7</xm:sqref>
         </x14:dataValidation>
@@ -2789,19 +2899,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>pais!$A$6</f>
+        <f>Pais!$A$6</f>
         <v>codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>pais!$A$7</f>
+        <f>Pais!$A$7</f>
         <v>Nombre</v>
       </c>
       <c r="C2" s="4"/>
@@ -2811,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2819,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2884,72 +2994,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="127" t="str">
-        <f>'objeto de dominio'!A16</f>
+      <c r="B2" s="128" t="str">
+        <f>'Objeto de dominio'!A16</f>
         <v>Unidad medida</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B16</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B16</f>
         <v>Entidad que presenta la unidad de medida a la cual pertencen y son medidos en el tipo unidad</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -3290,10 +3400,10 @@
       <c r="E14" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="128" t="s">
+      <c r="F14" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="129"/>
+      <c r="G14" s="130"/>
       <c r="H14" s="40"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3321,10 +3431,10 @@
         <f>$A$22</f>
         <v>UM-P-1</v>
       </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -3339,14 +3449,14 @@
       <c r="D16" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="120" t="str">
+      <c r="E16" s="121" t="str">
         <f>$A$23</f>
         <v>UM-P-2</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="124"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="40"/>
       <c r="I16" s="86"/>
       <c r="J16" s="86"/>
@@ -3365,11 +3475,11 @@
       <c r="D17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="123" t="s">
+      <c r="E17" s="122"/>
+      <c r="F17" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="125"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
       <c r="K17" s="85"/>
@@ -3387,11 +3497,11 @@
       <c r="D18" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="124"/>
+      <c r="G18" s="125"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
       <c r="K18" s="85"/>
@@ -3594,13 +3704,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4CAE86A8-1D45-48EA-B5C9-495C4D9D13C5}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D4F9954-6D7E-451B-B069-F4E5182334B4}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B7</xm:sqref>
         </x14:dataValidation>
@@ -3621,19 +3731,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>unidad_medida!$A$6</f>
+        <f>'Unidad medida'!$A$6</f>
         <v>Codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>unidad_medida!$A$7</f>
+        <f>'Unidad medida'!$A$7</f>
         <v xml:space="preserve">detalles </v>
       </c>
       <c r="C2" s="4"/>
@@ -3667,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3712,72 +3822,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
     </row>
     <row r="2" spans="1:17" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="127" t="str">
-        <f>'objeto de dominio'!A15</f>
+      <c r="B2" s="128" t="str">
+        <f>'Objeto de dominio'!A15</f>
         <v>Tipo unidad</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B15</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B15</f>
         <v>Entidad que representa al tipo unidad y que corresponde al tipo de contenido que posee el producto en el cual es se controla</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -3945,7 +4055,7 @@
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -3955,7 +4065,7 @@
         <v>Unidad medida</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -3983,7 +4093,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>108</v>
@@ -4151,10 +4261,10 @@
       <c r="E16" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="128" t="s">
+      <c r="F16" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="129"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4174,10 +4284,10 @@
         <f>A21</f>
         <v>TU-P-1</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="40"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
@@ -4403,13 +4513,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DE2A438-E299-41D1-A679-54ABC8CE3299}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C44B3085-A0BE-41EB-8EF9-69E1B211BFD9}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O8</xm:sqref>
         </x14:dataValidation>
@@ -4424,7 +4534,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,22 +4544,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>' Tipo_unidades'!$A$6</f>
+        <f>' Tipo_unidad'!$A$6</f>
         <v>Codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>' Tipo_unidades'!$A$7</f>
+        <f>' Tipo_unidad'!$A$7</f>
         <v>Nombre</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>' Tipo_unidades'!$A$8</f>
+        <f>' Tipo_unidad'!$A$8</f>
         <v>Unidad medida</v>
       </c>
     </row>
@@ -4458,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -4469,7 +4579,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="C4" s="106" t="s">
         <v>72</v>
@@ -4480,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4491,7 +4601,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>71</v>
@@ -4502,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C7" s="106" t="s">
         <v>72</v>
@@ -4513,7 +4623,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="C8" s="106" t="s">
         <v>64</v>
@@ -4524,7 +4634,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="C9" s="106" t="s">
         <v>64</v>
@@ -4546,7 +4656,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A32EAE6F-3618-421D-8316-DF2953FA2CBA}">
           <x14:formula1>
-            <xm:f>'Unidad M datos simulados'!$B$3:$B$6</xm:f>
+            <xm:f>'Unidad M-Datos simulados'!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C9</xm:sqref>
         </x14:dataValidation>
@@ -4590,72 +4700,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A3</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A3</f>
         <v>Entrada</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B3</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B3</f>
         <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5049,10 +5159,10 @@
       <c r="B17" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="46" t="s">
         <v>101</v>
       </c>
@@ -5071,10 +5181,10 @@
       <c r="B18" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="D18" s="130"/>
+      <c r="D18" s="131"/>
       <c r="E18" s="42" t="s">
         <v>104</v>
       </c>
@@ -5094,10 +5204,10 @@
       <c r="B19" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="131"/>
       <c r="E19" s="42" t="s">
         <v>276</v>
       </c>
@@ -5188,13 +5298,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D864743E-EDC1-4E17-A431-FBB09A26E835}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>C10:D10 B6:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C366B28A-9700-4041-BE6D-65FAE84F0509}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O10</xm:sqref>
         </x14:dataValidation>
@@ -5222,11 +5332,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5242,23 +5352,23 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f>usuario!A6</f>
+        <f>Usuario!A6</f>
         <v>id</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>entradas!$A$7</f>
+        <f>Entrada!$A$7</f>
         <v>nombre</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>entradas!$A$8</f>
+        <f>Entrada!$A$8</f>
         <v>descripcion</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>entradas!$A$9</f>
+        <f>Entrada!$A$9</f>
         <v>cantidad</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>entradas!$A$10</f>
+        <f>Entrada!$A$10</f>
         <v>fecha</v>
       </c>
     </row>
@@ -5348,72 +5458,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A4</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A4</f>
         <v>Salida</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B4</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B4</f>
         <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5807,10 +5917,10 @@
       <c r="B17" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="46" t="s">
         <v>101</v>
       </c>
@@ -5829,10 +5939,10 @@
       <c r="B18" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="D18" s="130"/>
+      <c r="D18" s="131"/>
       <c r="E18" s="42" t="s">
         <v>104</v>
       </c>
@@ -5852,10 +5962,10 @@
       <c r="B19" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="131"/>
       <c r="E19" s="42" t="s">
         <v>287</v>
       </c>
@@ -5946,13 +6056,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7A0C159-D616-43D2-9A97-2BE8FEC4691F}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>C10:D10 B6:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15BD4609-92B6-460A-8C38-1CDE317AFD4E}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O10</xm:sqref>
         </x14:dataValidation>
@@ -5980,12 +6090,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -6001,23 +6111,23 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
+        <f>Usuario!A6</f>
         <v>id</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>usuario!A7</f>
+        <f>Usuario!A7</f>
         <v>nombre</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>salidas!$A$8</f>
+        <f>Salida!$A$8</f>
         <v>descripcion</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>salidas!$A$9</f>
+        <f>Salida!$A$9</f>
         <v>cantidad</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>entradas!$A$10</f>
+        <f>Entrada!$A$10</f>
         <v>fecha</v>
       </c>
     </row>
@@ -6073,7 +6183,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BECC26B2-7D4D-47FA-9EA8-D711A6C99780}">
           <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
+            <xm:f>Valores!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
@@ -6112,13 +6222,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" t="s">
         <v>337</v>
-      </c>
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" t="s">
-        <v>345</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -6126,13 +6236,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
         <v>338</v>
-      </c>
-      <c r="B3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" t="s">
-        <v>346</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
@@ -6140,22 +6250,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6166,11 +6276,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6199,72 +6309,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A5</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A5</f>
         <v>Producto</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B5</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B5</f>
         <v>Entidad que representa el producto y los diferentes aspectos y cuidados de este  y es guardado en estanterias</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6323,28 +6433,28 @@
         <v>7</v>
       </c>
       <c r="Q5" s="75" t="str">
-        <f>$A$20</f>
-        <v xml:space="preserve">crear estanteria </v>
+        <f>$A$21</f>
+        <v xml:space="preserve">crear producto </v>
       </c>
       <c r="R5" s="75" t="str">
-        <f>$A$21</f>
-        <v>editar estanteria</v>
+        <f>$A$22</f>
+        <v>editar producto</v>
       </c>
       <c r="S5" s="75" t="str">
-        <f>$A$22</f>
-        <v>elimunar estanteria</v>
+        <f>$A$23</f>
+        <v>elimunar producto</v>
       </c>
       <c r="T5" s="75" t="str">
-        <f>A23</f>
-        <v>buscar estanteria</v>
+        <f>A24</f>
+        <v>buscar producto</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
+      <c r="B6" s="115" t="s">
+        <v>329</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -6397,8 +6507,8 @@
       <c r="A7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
+      <c r="B7" s="115" t="s">
+        <v>329</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -6451,8 +6561,8 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
+      <c r="B8" s="115" t="s">
+        <v>329</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6506,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -6562,7 +6672,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="115" t="s">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -6613,10 +6723,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>2</v>
+        <v>329</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -6665,112 +6775,149 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:20" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q12" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="T12" s="118" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B13" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="N13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="Q12" s="65" t="s">
+      <c r="Q13" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="R12" s="65" t="s">
+      <c r="R13" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="S12" s="65" t="s">
+      <c r="S13" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="T12" s="65" t="s">
+      <c r="T13" s="65" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-    </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="H15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C16" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="69" t="str">
-        <f>A6</f>
-        <v>id</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -6778,73 +6925,72 @@
       <c r="G16" s="52"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="69" t="str">
+        <f>A6</f>
+        <v>id</v>
+      </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="145"/>
+      <c r="B18" s="120" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>361</v>
+      </c>
       <c r="D18" s="52"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B20" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C20" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D20" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E20" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="128" t="s">
+      <c r="F20" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="129"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="49" t="str">
-        <f>$A$27</f>
-        <v>PR-P-1</v>
-      </c>
-      <c r="F20" s="130" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="131"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="130"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>116</v>
+        <v>363</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>163</v>
@@ -6852,63 +6998,76 @@
       <c r="D21" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="120" t="str">
+      <c r="E21" s="49" t="str">
         <f>$A$28</f>
-        <v>PR-P-2</v>
-      </c>
-      <c r="F21" s="123" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="124"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PR-P-1</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="132"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="123" t="s">
+      <c r="E22" s="121" t="str">
+        <f>$A$29</f>
+        <v>PR-P-2</v>
+      </c>
+      <c r="F22" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="124"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="125"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="122"/>
+      <c r="F23" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="125"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D24" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123" t="s">
+      <c r="E24" s="123"/>
+      <c r="F24" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="124"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="125"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -6917,25 +7076,21 @@
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>130</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>6</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -6943,12 +7098,12 @@
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -6956,27 +7111,42 @@
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:G21"/>
+  <mergeCells count="10">
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
     <hyperlink ref="A4" location="'producto datos simulados'!A1" display="datos simulados" xr:uid="{E0A483AF-DE2C-431E-9EAC-3418A3988749}"/>
@@ -6988,15 +7158,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA5467DC-DD81-4CDF-9B8C-F3561C803DE6}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B13</xm:sqref>
+          <xm:sqref>B6:B14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E5DADB3-3FD8-41B2-BA96-F4BFA88D084A}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O13</xm:sqref>
+          <xm:sqref>K6:O14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7022,11 +7192,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="14"/>
       <c r="E1" s="39"/>
       <c r="F1" s="14"/>
@@ -7041,27 +7211,27 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>usuario!A6</f>
+        <f>Usuario!A6</f>
         <v>id</v>
       </c>
       <c r="B2" s="37" t="str">
-        <f>producto!$A$8</f>
+        <f>Producto!$A$8</f>
         <v>nombre</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>producto!$A$7</f>
+        <f>Producto!$A$7</f>
         <v>tipo</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>producto!$A$11</f>
+        <f>Producto!$A$11</f>
         <v>contenido</v>
       </c>
       <c r="E2" s="37" t="str">
-        <f>producto!$A$12</f>
+        <f>Producto!$A$13</f>
         <v>cuidado</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>producto!$A$9</f>
+        <f>Producto!$A$9</f>
         <v xml:space="preserve">descripcion </v>
       </c>
     </row>
@@ -7079,7 +7249,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>74</v>
@@ -7109,7 +7279,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{401DDF78-7677-428A-930E-E6D2A4B1D233}">
           <x14:formula1>
-            <xm:f>'ciudado datos simulados'!$B$3:$B$15</xm:f>
+            <xm:f>'Ciudado-Datos simulados'!$B$3:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E5</xm:sqref>
         </x14:dataValidation>
@@ -7120,79 +7290,6 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E3B0D4-F4A7-4954-BDBF-726FE6967B15}">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>pedido!$A$6</f>
-        <v>id</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>pedido!$A$7</f>
-        <v>nombre</v>
-      </c>
-      <c r="C2" s="37" t="str">
-        <f>pedido!$A$8</f>
-        <v>cantidad</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="38">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{10B5FC35-9514-4AE3-8478-572BC2A210C6}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{BBB51878-BFA8-4624-942C-3C7A30B67A31}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{2F00E0C3-BE65-494E-B4EB-3DFC00C781AC}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{2C8089F9-C25C-4D23-884C-5570FC17FC18}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40E1B6-4531-4994-B6AC-90578AE62464}">
   <dimension ref="A1:U28"/>
   <sheetViews>
@@ -7227,72 +7324,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A7</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A7</f>
         <v>Pedido</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B7</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B7</f>
         <v>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -7617,10 +7714,10 @@
       <c r="E15" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="133" t="s">
+      <c r="F15" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="133"/>
+      <c r="G15" s="134"/>
       <c r="H15" s="40"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -7642,10 +7739,10 @@
         <f>$A$25</f>
         <v>PE-P-1</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
@@ -7663,14 +7760,14 @@
       <c r="D17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="134" t="str">
+      <c r="E17" s="135" t="str">
         <f>$A$26</f>
         <v>PE-P-2</v>
       </c>
-      <c r="F17" s="134" t="s">
+      <c r="F17" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="G17" s="134"/>
+      <c r="G17" s="135"/>
       <c r="H17" s="40"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
@@ -7688,11 +7785,11 @@
       <c r="D18" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134" t="s">
+      <c r="E18" s="135"/>
+      <c r="F18" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="G18" s="134"/>
+      <c r="G18" s="135"/>
       <c r="H18" s="40"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
@@ -7710,50 +7807,50 @@
       <c r="D19" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134" t="s">
+      <c r="E19" s="135"/>
+      <c r="F19" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="G19" s="134"/>
+      <c r="G19" s="135"/>
       <c r="H19" s="40"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="131" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134" t="s">
+      <c r="E20" s="135"/>
+      <c r="F20" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="134"/>
+      <c r="G20" s="135"/>
       <c r="H20" s="40"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
       <c r="E21" s="43" t="str">
         <f>A27</f>
         <v>PE-P-3</v>
       </c>
-      <c r="F21" s="134" t="s">
+      <c r="F21" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="134"/>
+      <c r="G21" s="135"/>
       <c r="H21" s="40"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -7860,21 +7957,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E17:E20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
@@ -7887,13 +7984,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7D2225E-0A3E-4480-B487-E9ADE3C55330}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O8 L10:P10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2E8545A-824D-42C5-90CA-756B91DC36F4}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B8 C10</xm:sqref>
         </x14:dataValidation>
@@ -7903,11 +8000,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E3B0D4-F4A7-4954-BDBF-726FE6967B15}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>Pedido!$A$6</f>
+        <v>id</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>Pedido!$A$7</f>
+        <v>nombre</v>
+      </c>
+      <c r="C2" s="37" t="str">
+        <f>Pedido!$A$8</f>
+        <v>cantidad</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="38">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{10B5FC35-9514-4AE3-8478-572BC2A210C6}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{BBB51878-BFA8-4624-942C-3C7A30B67A31}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{2F00E0C3-BE65-494E-B4EB-3DFC00C781AC}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{2C8089F9-C25C-4D23-884C-5570FC17FC18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF909EAC-1967-4E3B-9CF0-06C2AF0DACAB}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -7937,72 +8108,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="127" t="str">
-        <f>'objeto de dominio'!A8</f>
+      <c r="B2" s="128" t="str">
+        <f>'Objeto de dominio'!A8</f>
         <v>Seccion</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B8</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B8</f>
         <v>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -8383,10 +8554,10 @@
       <c r="E15" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="130"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
       <c r="K15" s="85"/>
@@ -8408,10 +8579,10 @@
         <f>$A$23</f>
         <v>SE-P-1</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="131"/>
+      <c r="G16" s="132"/>
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
       <c r="K16" s="85"/>
@@ -8429,14 +8600,14 @@
       <c r="D17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="120" t="str">
+      <c r="E17" s="121" t="str">
         <f>$A$24</f>
         <v>SE-P-2</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="125"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="85"/>
@@ -8454,11 +8625,11 @@
       <c r="D18" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="123" t="s">
+      <c r="E18" s="122"/>
+      <c r="F18" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="124"/>
+      <c r="G18" s="125"/>
       <c r="I18" s="87"/>
       <c r="J18" s="87"/>
       <c r="K18" s="85"/>
@@ -8476,11 +8647,11 @@
       <c r="D19" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123" t="s">
+      <c r="E19" s="123"/>
+      <c r="F19" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="G19" s="124"/>
+      <c r="G19" s="125"/>
       <c r="I19" s="86"/>
       <c r="J19" s="86"/>
       <c r="K19" s="85"/>
@@ -8647,13 +8818,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9D95F1A-1200-4AEF-B9BE-586102C1DCB3}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1512436-41B9-44F0-9589-D0C97E815CA8}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B8</xm:sqref>
         </x14:dataValidation>
@@ -8680,12 +8851,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -8701,15 +8872,15 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>seccion!$A$6</f>
+        <f>Seccion!$A$6</f>
         <v>Codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>seccion!$A$7</f>
+        <f>Seccion!$A$7</f>
         <v>Nombre</v>
       </c>
       <c r="C2" s="37" t="str">
-        <f>seccion!$A$8</f>
+        <f>Seccion!$A$8</f>
         <v xml:space="preserve">Descripcion </v>
       </c>
     </row>
@@ -8718,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -8729,10 +8900,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8751,7 +8922,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D54D3209-0429-4F92-9383-CE00CC5C9158}">
           <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
+            <xm:f>Valores!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
@@ -8795,48 +8966,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="135" t="str">
-        <f>'objeto de dominio'!A9</f>
+      <c r="B2" s="136" t="str">
+        <f>'Objeto de dominio'!A9</f>
         <v>Estanteria</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
       <c r="S2" s="52"/>
@@ -8845,27 +9016,27 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="136" t="str">
-        <f>'objeto de dominio'!B9</f>
+      <c r="B3" s="137" t="str">
+        <f>'Objeto de dominio'!B9</f>
         <v>Entidad que representa la estanteria y en donde se ubicarian los productos</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
@@ -9345,10 +9516,10 @@
       <c r="U14" s="52"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="139" t="s">
         <v>123</v>
       </c>
       <c r="C15" s="67" t="str">
@@ -9375,8 +9546,8 @@
       <c r="U15" s="52"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="138"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="67" t="str">
         <f>A9</f>
         <v xml:space="preserve">numero </v>
@@ -9401,8 +9572,8 @@
       <c r="U16" s="52"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="67" t="str">
         <f>A10</f>
         <v>letra</v>
@@ -9488,10 +9659,10 @@
       <c r="E20" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="129"/>
+      <c r="G20" s="130"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="50"/>
@@ -9524,10 +9695,10 @@
         <f>$A$28</f>
         <v>E-P-1</v>
       </c>
-      <c r="F21" s="130" t="s">
+      <c r="F21" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="131"/>
+      <c r="G21" s="132"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="50"/>
@@ -9556,14 +9727,14 @@
       <c r="D22" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="120" t="str">
+      <c r="E22" s="121" t="str">
         <f>$A$29</f>
         <v>E-P-2</v>
       </c>
-      <c r="F22" s="123" t="s">
+      <c r="F22" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="124"/>
+      <c r="G22" s="125"/>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="50"/>
@@ -9592,11 +9763,11 @@
       <c r="D23" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="121"/>
-      <c r="F23" s="123" t="s">
+      <c r="E23" s="122"/>
+      <c r="F23" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="124"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="50"/>
@@ -9625,11 +9796,11 @@
       <c r="D24" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123" t="s">
+      <c r="E24" s="123"/>
+      <c r="F24" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="124"/>
+      <c r="G24" s="125"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="50"/>
@@ -9843,13 +10014,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE67B21B-7F9B-4D41-9483-A42D075EC841}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D6FE5EE-BC69-4542-8A22-24483501554B}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B10</xm:sqref>
         </x14:dataValidation>
@@ -9876,12 +10047,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -9897,23 +10068,23 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>estanteria!$A$6</f>
+        <f>Estanteria!$A$6</f>
         <v>id</v>
       </c>
       <c r="B2" s="107" t="str">
-        <f>estanteria!$A$7</f>
+        <f>Estanteria!$A$7</f>
         <v>descripcion</v>
       </c>
       <c r="C2" s="108" t="str">
-        <f>estanteria!A8</f>
+        <f>Estanteria!A8</f>
         <v>pasillo</v>
       </c>
       <c r="D2" s="112" t="str">
-        <f>estanteria!$A$9</f>
+        <f>Estanteria!$A$9</f>
         <v xml:space="preserve">numero </v>
       </c>
       <c r="E2" s="112" t="str">
-        <f>estanteria!$A$10</f>
+        <f>Estanteria!$A$10</f>
         <v>letra</v>
       </c>
     </row>
@@ -9931,7 +10102,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -9948,7 +10119,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -9969,7 +10140,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AA7988F-5C95-43CE-A0A4-648AF90E4EE4}">
           <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
+            <xm:f>Valores!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
@@ -10013,72 +10184,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A10</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A10</f>
         <v>Almacen</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B10</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B10</f>
         <v>Entida que representa el almacen que estaria ubicado en un direccion y contendria las secciones</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -10246,7 +10417,7 @@
         <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="65" t="s">
         <v>106</v>
@@ -10302,7 +10473,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>106</v>
@@ -10356,7 +10527,7 @@
         <v>29</v>
       </c>
       <c r="P9" s="114" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q9" s="118" t="s">
         <v>106</v>
@@ -10410,7 +10581,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="114" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="118" t="s">
         <v>106</v>
@@ -10459,10 +10630,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="140" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="67" t="e">
@@ -10472,24 +10643,24 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
-      <c r="B16" s="141"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="67" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
-      <c r="B17" s="141"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="67" t="str">
         <f>A7</f>
         <v>ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
-      <c r="B18" s="141"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="67" t="str">
         <f>A8</f>
         <v>direccion</v>
@@ -10511,10 +10682,10 @@
       <c r="E21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="143"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
@@ -10533,10 +10704,10 @@
         <f>$A$29</f>
         <v>AL-P-1</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F22" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="131"/>
+      <c r="G22" s="132"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
@@ -10551,14 +10722,14 @@
       <c r="D23" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="120" t="str">
+      <c r="E23" s="121" t="str">
         <f>$A$28</f>
         <v>identificador</v>
       </c>
-      <c r="F23" s="123" t="s">
+      <c r="F23" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="124"/>
+      <c r="G23" s="125"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
@@ -10573,11 +10744,11 @@
       <c r="D24" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="123" t="s">
+      <c r="E24" s="122"/>
+      <c r="F24" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="124"/>
+      <c r="G24" s="125"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
@@ -10592,11 +10763,11 @@
       <c r="D25" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123" t="s">
+      <c r="E25" s="123"/>
+      <c r="F25" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="124"/>
+      <c r="G25" s="125"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
@@ -10657,17 +10828,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B36B8A9F-9652-4848-8F38-E87097CE1950}"/>
@@ -10680,13 +10851,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88A73338-4324-41E1-89FB-591A0EFB9C18}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{194924F6-28E7-4089-AADF-8FFE99DE92F1}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B10</xm:sqref>
         </x14:dataValidation>
@@ -10729,23 +10900,23 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f>almacen!A6</f>
+        <f>Almacen!A6</f>
         <v>id</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>almacen!$A$7</f>
+        <f>Almacen!$A$7</f>
         <v>ciudad</v>
       </c>
       <c r="C2" s="112" t="str">
-        <f>almacen!$A$8</f>
+        <f>Almacen!$A$8</f>
         <v>direccion</v>
       </c>
       <c r="D2" s="112" t="str">
-        <f>almacen!$A$9</f>
+        <f>Almacen!$A$9</f>
         <v>descripcion</v>
       </c>
       <c r="E2" s="112" t="str">
-        <f>almacen!$A$10</f>
+        <f>Almacen!$A$10</f>
         <v>nombre</v>
       </c>
       <c r="F2" s="112"/>
@@ -10758,13 +10929,13 @@
         <v>53</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -10813,7 +10984,7 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B2" s="91" t="s">
         <v>76</v>
@@ -10855,7 +11026,7 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B5" s="72" t="s">
         <v>79</v>
@@ -10869,7 +11040,7 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B6" s="72" t="s">
         <v>80</v>
@@ -10883,7 +11054,7 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B7" s="72" t="s">
         <v>81</v>
@@ -10897,7 +11068,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B8" s="72" t="s">
         <v>83</v>
@@ -10911,7 +11082,7 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B9" s="72" t="s">
         <v>84</v>
@@ -10925,7 +11096,7 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B10" s="72" t="s">
         <v>85</v>
@@ -10939,7 +11110,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B11" s="72" t="s">
         <v>86</v>
@@ -10953,7 +11124,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" s="72" t="s">
         <v>87</v>
@@ -10967,7 +11138,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>88</v>
@@ -10981,7 +11152,7 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B14" s="72" t="s">
         <v>89</v>
@@ -10990,7 +11161,7 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="103" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B15" s="72" t="s">
         <v>90</v>
@@ -10999,7 +11170,7 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="72" t="s">
         <v>91</v>
@@ -11063,72 +11234,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A6</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A6</f>
         <v>Proveedor</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B6</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B6</f>
         <v>Entidad que representa el proveedor y corresponde a aquella empresa a la cual se les hacen pedidos de productos</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -11448,10 +11619,10 @@
       <c r="E15" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -11470,10 +11641,10 @@
         <f>$A$23</f>
         <v>PR-P-1</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="131"/>
+      <c r="G16" s="132"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -11488,14 +11659,14 @@
       <c r="D17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="120" t="str">
+      <c r="E17" s="121" t="str">
         <f>$A$24</f>
         <v>PR-P-2</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -11510,11 +11681,11 @@
       <c r="D18" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="123" t="s">
+      <c r="E18" s="122"/>
+      <c r="F18" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="124"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
@@ -11529,11 +11700,11 @@
       <c r="D19" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123" t="s">
+      <c r="E19" s="123"/>
+      <c r="F19" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="124"/>
+      <c r="G19" s="125"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
@@ -11614,13 +11785,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B51BB59A-F79A-4B5A-93C3-6D7310E17DC5}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9A13F97-CFC7-439D-84F9-A1CA2BDF5199}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B8</xm:sqref>
         </x14:dataValidation>
@@ -11647,12 +11818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -11668,15 +11839,15 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>proveedor!$A$6</f>
+        <f>Proveedor!$A$6</f>
         <v>id</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>proveedor!$A$7</f>
+        <f>Proveedor!$A$7</f>
         <v>nombre</v>
       </c>
       <c r="C2" s="37" t="str">
-        <f>proveedor!$A$8</f>
+        <f>Proveedor!$A$8</f>
         <v>contacto</v>
       </c>
     </row>
@@ -11688,7 +11859,7 @@
         <v>68</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -11699,7 +11870,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -11717,7 +11888,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE1C971E-7644-4436-AC64-D9582EDF055C}">
           <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
+            <xm:f>Valores!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
@@ -11761,72 +11932,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A2</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A2</f>
         <v>Usuario</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B2</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B2</f>
         <v>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -12146,10 +12317,10 @@
       <c r="E15" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -12168,10 +12339,10 @@
         <f>$A$23</f>
         <v>US-P-1</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="131"/>
+      <c r="G16" s="132"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -12186,14 +12357,14 @@
       <c r="D17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="120" t="str">
+      <c r="E17" s="121" t="str">
         <f>$A$24</f>
         <v>US-P-2</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -12208,11 +12379,11 @@
       <c r="D18" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="123" t="s">
+      <c r="E18" s="122"/>
+      <c r="F18" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="124"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
@@ -12227,11 +12398,11 @@
       <c r="D19" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123" t="s">
+      <c r="E19" s="123"/>
+      <c r="F19" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="124"/>
+      <c r="G19" s="125"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
@@ -12313,13 +12484,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB451099-C814-427D-84E1-C3C737A24B72}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C86FBE2B-A36A-48FF-97AA-8660719AC703}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O8</xm:sqref>
         </x14:dataValidation>
@@ -12333,8 +12504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78B15AE-D8B9-4C55-AF7B-07803F46F0D7}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12346,11 +12517,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -12367,15 +12538,15 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f>usuario!A6</f>
+        <f>Usuario!A6</f>
         <v>id</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>usuario!$A$7</f>
+        <f>Usuario!$A$7</f>
         <v>nombre</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>usuario!$A$8</f>
+        <f>Usuario!$A$8</f>
         <v xml:space="preserve">cargo </v>
       </c>
       <c r="D2" s="15"/>
@@ -12385,10 +12556,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -12396,10 +12567,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -12407,10 +12578,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -12461,72 +12632,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A14</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A14</f>
         <v>Cuidado</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B14</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B14</f>
         <v>Entidad que presenta el cuidado y los detalles del manejo y almancenamiento del producto</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -12792,10 +12963,10 @@
       <c r="E14" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="128" t="s">
+      <c r="F14" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="129"/>
+      <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
@@ -12814,10 +12985,10 @@
         <f>$A$22</f>
         <v>CU-P-1</v>
       </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="131"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -12832,14 +13003,14 @@
       <c r="D16" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="120" t="str">
+      <c r="E16" s="121" t="str">
         <f>$A$23</f>
         <v>CU-P-2</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="124"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -12854,11 +13025,11 @@
       <c r="D17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="123" t="s">
+      <c r="E17" s="122"/>
+      <c r="F17" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -12873,11 +13044,11 @@
       <c r="D18" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="124"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
@@ -12959,13 +13130,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06ECE295-DD62-467F-A544-E784F4CC7CFB}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CF71579-77D0-4711-9741-438BEB87D873}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B7</xm:sqref>
         </x14:dataValidation>
@@ -12989,18 +13160,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>cuidado!$A$6</f>
+        <f>Cuidado!$A$6</f>
         <v>id</v>
       </c>
       <c r="B2" s="101" t="str">
-        <f>cuidado!$A$7</f>
+        <f>Cuidado!$A$7</f>
         <v>descripcion</v>
       </c>
     </row>
@@ -13009,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13017,7 +13188,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -13064,72 +13235,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A11</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A11</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B11</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B11</f>
         <v>Entidad que representa la cuidad y donde esta ubicado uno o varios almacenes</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -13244,7 +13415,7 @@
         <v>28</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="76" t="s">
         <v>108</v>
@@ -13289,7 +13460,7 @@
         <v>29</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="65" t="s">
         <v>108</v>
@@ -13297,22 +13468,22 @@
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="36" t="s">
@@ -13465,10 +13636,10 @@
       <c r="E15" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -13487,10 +13658,10 @@
         <f>A20</f>
         <v>CI-P-1</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="124"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -13607,13 +13778,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B628FD6B-6762-43C3-B0BE-D2993FC9DEE2}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{202FCA0E-42F4-4B18-80B7-E8F853BA50DD}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O8</xm:sqref>
         </x14:dataValidation>
@@ -13637,23 +13808,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
-        <f>ciudad!$A$6</f>
+        <f>Ciudad!$A$6</f>
         <v>codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>ciudad!$A$7</f>
+        <f>Ciudad!$A$7</f>
         <v>descripcion</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>ciudad!$A$8</f>
+        <f>Ciudad!$A$8</f>
         <v>Departamento</v>
       </c>
     </row>
@@ -13662,10 +13833,10 @@
         <v>5001</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13673,10 +13844,10 @@
         <v>5615</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -13693,7 +13864,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAC5AD7E-7DD6-4932-AA95-84A8F871CD55}">
           <x14:formula1>
-            <xm:f>'departamento datos simulados'!$B$3:$B$10</xm:f>
+            <xm:f>'Departamento-Datos simulados'!$B$3:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C4</xm:sqref>
         </x14:dataValidation>
@@ -13734,72 +13905,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>'objeto de dominio'!$A$1</f>
+        <f>'Objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="126" t="str">
-        <f>'objeto de dominio'!A12</f>
+      <c r="B2" s="127" t="str">
+        <f>'Objeto de dominio'!A12</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f>'objeto de dominio'!B1</f>
+        <f>'Objeto de dominio'!B1</f>
         <v>descripcion</v>
       </c>
-      <c r="B3" s="127" t="str">
-        <f>'objeto de dominio'!B12</f>
+      <c r="B3" s="128" t="str">
+        <f>'Objeto de dominio'!B12</f>
         <v>Entidad que representa departamento y donde pertence la ciudad</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -13967,22 +14138,22 @@
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="98" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I8" s="100"/>
       <c r="J8" s="36" t="s">
@@ -14004,7 +14175,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>108</v>
@@ -14135,10 +14306,10 @@
       <c r="E15" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -14157,10 +14328,10 @@
         <f>A20</f>
         <v>DE-P-1</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="124"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -14277,13 +14448,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32E9C731-66AF-4758-844E-BA3D6E11072D}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$7</xm:f>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A0D5B50-6B49-4C10-A4E7-D477493554CB}">
           <x14:formula1>
-            <xm:f>valores!$B$2:$B$3</xm:f>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O8</xm:sqref>
         </x14:dataValidation>
@@ -14304,23 +14475,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>departamento!$A$6</f>
+        <f>Departamento!$A$6</f>
         <v>codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>departamento!$A$7</f>
+        <f>Departamento!$A$7</f>
         <v>Nombre</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>departamento!$A$8</f>
+        <f>Departamento!$A$8</f>
         <v>Pais</v>
       </c>
     </row>
@@ -14329,10 +14500,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -14349,7 +14520,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AC47403-1122-4281-BAFC-2B82E26EE52A}">
           <x14:formula1>
-            <xm:f>'pais datos simulados'!$B$3:$B$11</xm:f>
+            <xm:f>'Pais-Datos simulados'!$B$3:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>

--- a/Extraclase/Modelo de dominio/inventario.xlsx
+++ b/Extraclase/Modelo de dominio/inventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Extraclase\Modelo de dominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD70A64C-1D26-4491-A838-B61BD044910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2570E986-340B-4BE4-AEE4-7AE5740476A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="16" activeTab="20" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="20" activeTab="21" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio" sheetId="5" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="444">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -658,12 +658,6 @@
     <t>medida{codigo,detalles}</t>
   </si>
   <si>
-    <t>pedido{id}</t>
-  </si>
-  <si>
-    <t>pedido{id,nombre,cantidad,descripcion,estado}</t>
-  </si>
-  <si>
     <t>PE-P-3</t>
   </si>
   <si>
@@ -673,39 +667,6 @@
     <t>PE-P-1</t>
   </si>
   <si>
-    <t>estado[]</t>
-  </si>
-  <si>
-    <t>no existe esa estado</t>
-  </si>
-  <si>
-    <t>buscar pedido</t>
-  </si>
-  <si>
-    <t>elimunar pedido</t>
-  </si>
-  <si>
-    <t>editar pedido</t>
-  </si>
-  <si>
-    <t>crear pedido</t>
-  </si>
-  <si>
-    <t>comportamiento que permite consultar la informacion de un pedido. Que cumpla con las condiciones recibidas</t>
-  </si>
-  <si>
-    <t>comportamiento que permite elimiar la informacion de un pedido</t>
-  </si>
-  <si>
-    <t>comportamiento que permite modificar la informacion de un pedido</t>
-  </si>
-  <si>
-    <t>comportamiento que permite registrar la informacion de un pedido</t>
-  </si>
-  <si>
-    <t>no requerido/no modificable</t>
-  </si>
-  <si>
     <t xml:space="preserve">crear entrada </t>
   </si>
   <si>
@@ -1385,6 +1346,60 @@
   </si>
   <si>
     <t>Con los productos de papel no mojar ni poner en ambientes humedos, idaelmente un lugar fresco y lejos del sol</t>
+  </si>
+  <si>
+    <t>No es posible repetir nombre de la seccion en el mismo almacen</t>
+  </si>
+  <si>
+    <t>Crear pedido</t>
+  </si>
+  <si>
+    <t>Editar pedido</t>
+  </si>
+  <si>
+    <t>Eliminar pedido</t>
+  </si>
+  <si>
+    <t>Buscar pedido</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite registrar la informacion de un pedido</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite modificar la informacion de un pedido</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite elimiar la informacion de un pedido</t>
+  </si>
+  <si>
+    <t>Permite al usuario identificar al proveedor del producto</t>
+  </si>
+  <si>
+    <t>Permite al usuario identificar el producto a pedir</t>
+  </si>
+  <si>
+    <t>Da a conocer la cantidad pedida de un producto a su proveedor</t>
+  </si>
+  <si>
+    <t>Id, Producto, Proveedor</t>
+  </si>
+  <si>
+    <t>No es posible repetir el Id de un pedido</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite consultar la informacion de un pedido. Que cumpla con las condiciones recibidas</t>
+  </si>
+  <si>
+    <t>Pedido{Id, Producto, Proveedor, Cantidad}</t>
+  </si>
+  <si>
+    <t>Pedido{Id}</t>
+  </si>
+  <si>
+    <t>Estado[]</t>
+  </si>
+  <si>
+    <t>No existe ese pedido</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1774,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2076,6 +2091,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2127,6 +2158,18 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2139,17 +2182,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2163,34 +2212,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2669,72 +2693,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A13</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B13</f>
         <v xml:space="preserve">Entidad que representa el pais y donde pertence el departamento </v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -3025,10 +3049,10 @@
       <c r="E14" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="133"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
@@ -3047,10 +3071,10 @@
         <f>A19</f>
         <v>PA-P-1</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="128"/>
+      <c r="G15" s="134"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
@@ -3194,11 +3218,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -3216,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3289,72 +3313,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="137" t="str">
         <f>'Objeto de dominio'!A16</f>
         <v>Unidad medida</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B16</f>
         <v>Entidad que presenta la unidad de medida a la cual pertencen y son medidos en el tipo unidad</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -3695,10 +3719,10 @@
       <c r="E14" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="133"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="40"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3726,10 +3750,10 @@
         <f>$A$22</f>
         <v>UM-P-1</v>
       </c>
-      <c r="F15" s="134" t="s">
+      <c r="F15" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="135"/>
+      <c r="G15" s="141"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -3744,14 +3768,14 @@
       <c r="D16" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="124" t="str">
+      <c r="E16" s="130" t="str">
         <f>$A$23</f>
         <v>UM-P-2</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="40"/>
       <c r="I16" s="86"/>
       <c r="J16" s="86"/>
@@ -3770,11 +3794,11 @@
       <c r="D17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="127" t="s">
+      <c r="E17" s="131"/>
+      <c r="F17" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="128"/>
+      <c r="G17" s="134"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
       <c r="K17" s="85"/>
@@ -3792,11 +3816,11 @@
       <c r="D18" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127" t="s">
+      <c r="E18" s="132"/>
+      <c r="F18" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="128"/>
+      <c r="G18" s="134"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
       <c r="K18" s="85"/>
@@ -4026,11 +4050,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -4072,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4117,72 +4141,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
     </row>
     <row r="2" spans="1:17" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="137" t="str">
         <f>'Objeto de dominio'!A15</f>
         <v>Tipo unidad</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
     </row>
     <row r="3" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B15</f>
         <v>Entidad que representa al tipo unidad y que corresponde al tipo de contenido que posee el producto en el cual es se controla</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -4350,7 +4374,7 @@
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
@@ -4360,7 +4384,7 @@
         <v>Unidad medida</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -4388,7 +4412,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>97</v>
@@ -4556,10 +4580,10 @@
       <c r="E16" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="133"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4579,10 +4603,10 @@
         <f>A21</f>
         <v>TU-P-1</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="128"/>
+      <c r="G17" s="134"/>
       <c r="H17" s="40"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
@@ -4839,10 +4863,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="135"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -4863,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -4874,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C4" s="106" t="s">
         <v>62</v>
@@ -4885,10 +4909,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4896,7 +4920,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>61</v>
@@ -4907,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C7" s="106" t="s">
         <v>62</v>
@@ -4918,7 +4942,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C8" s="106" t="s">
         <v>54</v>
@@ -4929,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C9" s="106" t="s">
         <v>54</v>
@@ -4940,10 +4964,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4951,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,72 +5043,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A3</f>
         <v>Entrada</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B3</f>
         <v>Entidad que representa la entrada de los productos pedidos a el proveedor y lo ejectua un usuario</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5285,7 +5309,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>95</v>
@@ -5325,7 +5349,7 @@
         <v>27</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="65" t="s">
         <v>95</v>
@@ -5478,10 +5502,10 @@
       <c r="B17" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="137"/>
+      <c r="D17" s="143"/>
       <c r="E17" s="46" t="s">
         <v>90</v>
       </c>
@@ -5495,15 +5519,15 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="134" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="134"/>
+        <v>201</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="140"/>
       <c r="E18" s="42" t="s">
         <v>93</v>
       </c>
@@ -5518,24 +5542,24 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="134"/>
+        <v>202</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="140"/>
       <c r="E19" s="42" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -5573,7 +5597,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>114</v>
@@ -5586,7 +5610,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>117</v>
@@ -5651,11 +5675,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5777,72 +5801,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A4</f>
         <v>Salida</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B4</f>
         <v>Entidad que representa la salida de los productos que salen y lo ejecuta el usuario</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6043,7 +6067,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>95</v>
@@ -6083,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="65" t="s">
         <v>95</v>
@@ -6236,10 +6260,10 @@
       <c r="B17" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="137"/>
+      <c r="D17" s="143"/>
       <c r="E17" s="46" t="s">
         <v>90</v>
       </c>
@@ -6253,15 +6277,15 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="134" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="134"/>
+        <v>213</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="140"/>
       <c r="E18" s="42" t="s">
         <v>93</v>
       </c>
@@ -6276,24 +6300,24 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="134"/>
+        <v>212</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="140"/>
       <c r="E19" s="42" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F19" s="81" t="str">
         <f>A24</f>
         <v>EN-P-2</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H19" s="51"/>
     </row>
@@ -6331,7 +6355,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>114</v>
@@ -6344,7 +6368,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>117</v>
@@ -6409,12 +6433,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -6541,13 +6565,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -6555,13 +6579,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -6569,22 +6593,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +6623,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6628,72 +6652,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A5</f>
         <v>Producto</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B5</f>
         <v>Entidad que representa el producto y los diferentes aspectos y cuidados de este  y es guardado en estanterias</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6770,10 +6794,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B6" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -6824,10 +6848,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -6881,7 +6905,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6935,7 +6959,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -6988,10 +7012,10 @@
     </row>
     <row r="10" spans="1:20" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="114" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B10" s="115" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -7003,7 +7027,7 @@
       <c r="F10" s="114"/>
       <c r="G10" s="114"/>
       <c r="H10" s="115" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="116" t="s">
@@ -7025,7 +7049,7 @@
         <v>27</v>
       </c>
       <c r="P10" s="114" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="118" t="s">
         <v>95</v>
@@ -7042,10 +7066,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -7057,7 +7081,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="12" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13" t="s">
@@ -7079,7 +7103,7 @@
         <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="65" t="s">
         <v>95</v>
@@ -7096,22 +7120,22 @@
     </row>
     <row r="12" spans="1:20" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="114" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B12" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="114"/>
       <c r="G12" s="114"/>
       <c r="H12" s="115" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="I12" s="115"/>
       <c r="J12" s="116" t="s">
@@ -7133,7 +7157,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="114" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="118" t="s">
         <v>95</v>
@@ -7150,10 +7174,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>71</v>
@@ -7165,7 +7189,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="12" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="13" t="s">
@@ -7187,7 +7211,7 @@
         <v>27</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="65" t="s">
         <v>95</v>
@@ -7245,11 +7269,11 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="144" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C17" s="69" t="str">
         <f>A6</f>
@@ -7262,12 +7286,12 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
+      <c r="A18" s="145"/>
       <c r="B18" s="120" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="52"/>
@@ -7299,17 +7323,17 @@
       <c r="E20" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="132" t="s">
+      <c r="F20" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="133"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>129</v>
@@ -7321,17 +7345,17 @@
         <f>$A$28</f>
         <v>PR-P-1</v>
       </c>
-      <c r="F21" s="134" t="s">
+      <c r="F21" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="135"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>129</v>
@@ -7339,21 +7363,21 @@
       <c r="D22" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="124" t="str">
+      <c r="E22" s="130" t="str">
         <f>$A$29</f>
         <v>PR-P-2</v>
       </c>
-      <c r="F22" s="127" t="s">
+      <c r="F22" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="128"/>
+      <c r="G22" s="134"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>126</v>
@@ -7361,18 +7385,18 @@
       <c r="D23" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="125"/>
-      <c r="F23" s="127" t="s">
+      <c r="E23" s="131"/>
+      <c r="F23" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="128"/>
+      <c r="G23" s="134"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>129</v>
@@ -7380,11 +7404,11 @@
       <c r="D24" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127" t="s">
+      <c r="E24" s="132"/>
+      <c r="F24" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="128"/>
+      <c r="G24" s="134"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
@@ -7435,7 +7459,7 @@
         <v>125</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -7497,8 +7521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7510,15 +7534,15 @@
     <col min="5" max="5" width="56.42578125" style="38" customWidth="1"/>
     <col min="6" max="6" width="69.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="14"/>
       <c r="E1" s="39"/>
       <c r="F1" s="14"/>
@@ -7573,13 +7597,13 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D3">
         <v>35</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>63</v>
@@ -7588,7 +7612,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7596,22 +7620,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D4">
         <v>120</v>
       </c>
       <c r="E4" s="117" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G4">
         <v>200</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7619,22 +7643,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D5">
         <v>250</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G5">
         <v>300</v>
       </c>
       <c r="H5" s="119" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7642,22 +7666,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G6">
         <v>255</v>
       </c>
       <c r="H6" s="119" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -7665,19 +7689,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="H7" s="119" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -7685,19 +7709,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" s="117" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="H8" s="119" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7745,10 +7769,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40E1B6-4531-4994-B6AC-90578AE62464}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,86 +7797,85 @@
     <col min="18" max="18" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="5"/>
+    <col min="21" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A7</f>
         <v>Pedido</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B7</f>
         <v>Entidad que representa el pedido y corresponde a la cantidad pedido al proveedor</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -7902,32 +7925,28 @@
         <v>6</v>
       </c>
       <c r="Q5" s="44" t="str">
-        <f>A17</f>
-        <v>crear pedido</v>
+        <f>A18</f>
+        <v>Crear pedido</v>
       </c>
       <c r="R5" s="44" t="str">
-        <f>A18</f>
-        <v>editar pedido</v>
+        <f>A19</f>
+        <v>Editar pedido</v>
       </c>
       <c r="S5" s="44" t="str">
-        <f>A19</f>
-        <v>elimunar pedido</v>
+        <f>A20</f>
+        <v>Eliminar pedido</v>
       </c>
       <c r="T5" s="44" t="str">
-        <f>A20</f>
-        <v>buscar pedido</v>
-      </c>
-      <c r="U5" s="44" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <f>A21</f>
+        <v>Buscar pedido</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -7939,166 +7958,157 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q6" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>95</v>
-      </c>
       <c r="R6" s="45" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="S6" s="45" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="114" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="13" t="s">
-        <v>23</v>
+      <c r="J7" s="116" t="s">
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>27</v>
+        <v>252</v>
+      </c>
+      <c r="L7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>435</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="S7" s="45" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="114" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E8" s="114"/>
       <c r="F8" s="114"/>
       <c r="G8" s="114"/>
       <c r="H8" s="115" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I8" s="114"/>
       <c r="J8" s="116" t="s">
-        <v>23</v>
+        <v>316</v>
       </c>
       <c r="K8" s="114" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="L8" s="114" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="M8" s="114" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="N8" s="114" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="O8" s="114" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="P8" s="114" t="s">
-        <v>33</v>
+        <v>434</v>
       </c>
       <c r="Q8" s="45" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="S8" s="45" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B9" s="115" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -8106,33 +8116,44 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="12" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="J9" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="Q9" s="45" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="S9" s="45" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" s="45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
       <c r="D11" s="26"/>
@@ -8150,7 +8171,7 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>35</v>
       </c>
@@ -8168,16 +8189,15 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="69" t="str">
-        <f>A9</f>
-        <v>Cantidad</v>
+        <v>272</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>293</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -8187,10 +8207,16 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
+    <row r="14" spans="1:20" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>437</v>
+      </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
@@ -8199,7 +8225,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -8207,139 +8233,139 @@
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="137" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="137"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="40"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="43" t="str">
-        <f>$A$24</f>
-        <v>PE-P-1</v>
-      </c>
-      <c r="F17" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="134"/>
+      <c r="A17" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="143"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>209</v>
+        <v>431</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="140" t="str">
+        <v>309</v>
+      </c>
+      <c r="E18" s="43" t="str">
         <f>$A$25</f>
-        <v>PE-P-2</v>
+        <v>PE-P-1</v>
       </c>
       <c r="F18" s="140" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="G18" s="140"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>204</v>
+        <v>428</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="140"/>
+        <v>432</v>
+      </c>
+      <c r="C19" s="124" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="146" t="str">
+        <f>$A$26</f>
+        <v>PE-P-2</v>
+      </c>
+      <c r="F19" s="146" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="146"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="140"/>
+        <v>433</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="146"/>
       <c r="H20" s="40"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="A21" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>440</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="146"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
@@ -8350,31 +8376,27 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="94" t="s">
-        <v>114</v>
+      <c r="A24" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -8387,10 +8409,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -8398,49 +8420,66 @@
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="95" t="s">
+      <c r="A26" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E18:E20"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
     <hyperlink ref="A4" location="'pedido datos simulados'!A1" display="datos simulados" xr:uid="{3544F9ED-80DF-45D5-A032-80ECB60EBB03}"/>
@@ -8486,11 +8525,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -8533,7 +8572,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -8541,13 +8580,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C4" s="38">
         <v>100</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -8587,8 +8626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF909EAC-1967-4E3B-9CF0-06C2AF0DACAB}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8617,72 +8656,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="137" t="str">
         <f>'Objeto de dominio'!A8</f>
         <v>Seccion</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B8</f>
         <v>Entidad que representa la seccion el lugar en el cual las estanterias estan ubicadas</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -8772,10 +8811,10 @@
     </row>
     <row r="6" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="34">
         <v>1</v>
@@ -8787,41 +8826,41 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="80" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="36" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P6" s="80" t="s">
         <v>86</v>
       </c>
       <c r="Q6" s="65" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8829,7 +8868,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="34">
         <v>1</v>
@@ -8841,41 +8880,41 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="36" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P7" s="80" t="s">
         <v>87</v>
       </c>
       <c r="Q7" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R7" s="118" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T7" s="118" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8883,7 +8922,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C8" s="34">
         <v>1</v>
@@ -8895,95 +8934,95 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="36" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P8" s="80" t="s">
         <v>157</v>
       </c>
       <c r="Q8" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R8" s="118" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="S8" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T8" s="118" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="36" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P9" s="80" t="s">
         <v>157</v>
       </c>
       <c r="Q9" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R9" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S9" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T9" s="118" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -9034,7 +9073,7 @@
     </row>
     <row r="12" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B12" s="68" t="s">
         <v>110</v>
@@ -9058,11 +9097,11 @@
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="160" t="s">
-        <v>110</v>
+      <c r="B13" s="147" t="s">
+        <v>426</v>
       </c>
       <c r="C13" s="69" t="str">
         <f>A7</f>
@@ -9083,8 +9122,8 @@
       <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="161"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="69" t="str">
         <f>A9</f>
         <v>Almacen</v>
@@ -9141,104 +9180,104 @@
       <c r="E17" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="132" t="s">
+      <c r="F17" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="133"/>
+      <c r="G17" s="139"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="E18" s="155" t="str">
+        <v>309</v>
+      </c>
+      <c r="E18" s="149" t="str">
         <f>$A$25</f>
         <v>SE-P-1</v>
       </c>
-      <c r="F18" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="G18" s="135"/>
+      <c r="F18" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="141"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
       <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="127" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="128"/>
+        <v>309</v>
+      </c>
+      <c r="E19" s="150"/>
+      <c r="F19" s="133" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="134"/>
       <c r="I19" s="85"/>
       <c r="J19" s="85"/>
       <c r="K19" s="85"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E20" s="153" t="str">
+        <v>309</v>
+      </c>
+      <c r="E20" s="127" t="str">
         <f>$A$26</f>
         <v>SE-P-2</v>
       </c>
-      <c r="F20" s="127" t="s">
+      <c r="F20" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="128"/>
+      <c r="G20" s="134"/>
       <c r="I20" s="87"/>
       <c r="J20" s="87"/>
       <c r="K20" s="85"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C21" s="121" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="127" t="s">
+        <v>408</v>
+      </c>
+      <c r="E21" s="128"/>
+      <c r="F21" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="128"/>
+      <c r="G21" s="134"/>
       <c r="I21" s="86"/>
       <c r="J21" s="86"/>
       <c r="K21" s="85"/>
@@ -9289,7 +9328,7 @@
         <v>166</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -9306,7 +9345,7 @@
         <v>167</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -9441,11 +9480,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -9482,13 +9521,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9496,10 +9535,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -9507,13 +9546,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -9521,13 +9560,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -9592,48 +9631,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="141" t="str">
+      <c r="B2" s="151" t="str">
         <f>'Objeto de dominio'!A9</f>
         <v>Estanteria</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
       <c r="S2" s="52"/>
@@ -9645,24 +9684,24 @@
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="142" t="str">
+      <c r="B3" s="152" t="str">
         <f>'Objeto de dominio'!B9</f>
         <v>Entidad que representa la estanteria y en donde se ubicarian los productos</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
@@ -9763,10 +9802,10 @@
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="62">
         <v>36</v>
@@ -9778,41 +9817,41 @@
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="64" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O6" s="62" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q6" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="R6" s="118" t="s">
+        <v>328</v>
+      </c>
+      <c r="S6" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="T6" s="118" t="s">
         <v>331</v>
-      </c>
-      <c r="Q6" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="R6" s="118" t="s">
-        <v>341</v>
-      </c>
-      <c r="S6" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="T6" s="118" t="s">
-        <v>344</v>
       </c>
       <c r="U6" s="52"/>
     </row>
@@ -9821,7 +9860,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="62">
         <v>1</v>
@@ -9833,50 +9872,50 @@
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
       <c r="H7" s="63" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q7" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="R7" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="P7" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q7" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="R7" s="118" t="s">
-        <v>342</v>
-      </c>
       <c r="S7" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T7" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="U7" s="52"/>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C8" s="62">
         <v>1</v>
@@ -9888,50 +9927,50 @@
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
       <c r="H8" s="63" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="64" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O8" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P8" s="62" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R8" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S8" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T8" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="U8" s="52"/>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C9" s="62">
         <v>1</v>
@@ -9943,50 +9982,50 @@
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="63" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="64" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O9" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P9" s="62" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="Q9" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R9" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S9" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T9" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="U9" s="52"/>
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C10" s="62">
         <v>1</v>
@@ -9998,96 +10037,96 @@
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="64" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N10" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O10" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P10" s="62" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R10" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S10" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T10" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="U10" s="52"/>
     </row>
     <row r="11" spans="1:21" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
       <c r="H11" s="63" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="64" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O11" s="62" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P11" s="62" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R11" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S11" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T11" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="U11" s="52"/>
     </row>
@@ -10168,7 +10207,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B15" s="68" t="s">
         <v>110</v>
@@ -10197,10 +10236,10 @@
       <c r="U15" s="52"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="154" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="67" t="str">
@@ -10227,8 +10266,8 @@
       <c r="U16" s="52"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="67" t="str">
         <f>A9</f>
         <v xml:space="preserve">Numero </v>
@@ -10253,8 +10292,8 @@
       <c r="U17" s="52"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="143"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="67" t="str">
         <f>A10</f>
         <v>Letra</v>
@@ -10340,10 +10379,10 @@
       <c r="E21" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="132" t="s">
+      <c r="F21" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="133"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="50"/>
@@ -10376,10 +10415,10 @@
         <f>$A$29</f>
         <v>E-P-1</v>
       </c>
-      <c r="F22" s="134" t="s">
+      <c r="F22" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="135"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="50"/>
@@ -10408,14 +10447,14 @@
       <c r="D23" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="124" t="str">
+      <c r="E23" s="130" t="str">
         <f>$A$30</f>
         <v>E-P-2</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="128"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="50"/>
@@ -10444,11 +10483,11 @@
       <c r="D24" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="127" t="s">
+      <c r="E24" s="131"/>
+      <c r="F24" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="128"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="50"/>
@@ -10477,11 +10516,11 @@
       <c r="D25" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127" t="s">
+      <c r="E25" s="132"/>
+      <c r="F25" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="128"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="50"/>
@@ -10729,12 +10768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -10784,7 +10823,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -10801,7 +10840,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -10866,72 +10905,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A10</f>
         <v>Almacen</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B10</f>
         <v>Entida que representa el almacen que estaria ubicado en un direccion y contendria las secciones</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -11008,10 +11047,10 @@
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -11023,103 +11062,103 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="116" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R6" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S6" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="T6" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="116" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L7" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M7" s="114" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N7" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O7" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R7" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S7" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T7" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -11131,41 +11170,41 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="115" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="116" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K8" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L8" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M8" s="114" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N8" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O8" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="Q8" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R8" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S8" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T8" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11173,7 +11212,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -11185,43 +11224,43 @@
       <c r="F9" s="114"/>
       <c r="G9" s="114"/>
       <c r="H9" s="115" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I9" s="115" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="J9" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" s="114" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q9" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="R9" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="K9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="L9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="M9" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="N9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="O9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="P9" s="114" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q9" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="R9" s="118" t="s">
-        <v>342</v>
-      </c>
       <c r="S9" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T9" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11229,7 +11268,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -11241,41 +11280,41 @@
       <c r="F10" s="114"/>
       <c r="G10" s="114"/>
       <c r="H10" s="115" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="116" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K10" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L10" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M10" s="114" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N10" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O10" s="114" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P10" s="114" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R10" s="118" t="s">
         <v>96</v>
       </c>
       <c r="S10" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T10" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -11300,7 +11339,7 @@
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B14" s="67" t="s">
         <v>57</v>
@@ -11312,10 +11351,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="155" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="67" t="str">
@@ -11325,24 +11364,24 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="148"/>
-      <c r="B16" s="147"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="67" t="str">
         <f>$A$10</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="148"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="67" t="str">
         <f>A7</f>
         <v>Ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="148"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="67" t="str">
         <f>A8</f>
         <v>Direccion</v>
@@ -11364,92 +11403,92 @@
       <c r="E21" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="145" t="s">
+      <c r="F21" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="146"/>
+      <c r="G21" s="158"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="E22" s="157" t="str">
+        <v>309</v>
+      </c>
+      <c r="E22" s="159" t="str">
         <f>$A$29</f>
         <v>AL-P-1</v>
       </c>
-      <c r="F22" s="134" t="s">
-        <v>381</v>
-      </c>
-      <c r="G22" s="135"/>
+      <c r="F22" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C23" s="121" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="159"/>
-      <c r="F23" s="127" t="s">
-        <v>380</v>
-      </c>
-      <c r="G23" s="128"/>
+        <v>309</v>
+      </c>
+      <c r="E23" s="160"/>
+      <c r="F23" s="133" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23" s="134"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C24" s="121" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E24" s="157" t="str">
+        <v>309</v>
+      </c>
+      <c r="E24" s="159" t="str">
         <f>$A$30</f>
         <v>AL-P-2</v>
       </c>
-      <c r="F24" s="127" t="s">
-        <v>382</v>
-      </c>
-      <c r="G24" s="128"/>
+      <c r="F24" s="133" t="s">
+        <v>369</v>
+      </c>
+      <c r="G24" s="134"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C25" s="121" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="127" t="s">
-        <v>382</v>
-      </c>
-      <c r="G25" s="128"/>
+        <v>366</v>
+      </c>
+      <c r="E25" s="160"/>
+      <c r="F25" s="133" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="134"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
@@ -11487,7 +11526,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -11500,7 +11539,7 @@
         <v>122</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -11510,18 +11549,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B36B8A9F-9652-4848-8F38-E87097CE1950}"/>
@@ -11609,16 +11648,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -11626,16 +11665,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E4" s="119" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -11643,16 +11682,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E5" s="119" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -11700,7 +11739,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>88</v>
@@ -11714,7 +11753,7 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B2" s="91" t="s">
         <v>65</v>
@@ -11756,7 +11795,7 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B5" s="72" t="s">
         <v>68</v>
@@ -11770,7 +11809,7 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="103" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B6" s="72" t="s">
         <v>69</v>
@@ -11784,7 +11823,7 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B7" s="72" t="s">
         <v>70</v>
@@ -11798,7 +11837,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B8" s="72" t="s">
         <v>72</v>
@@ -11812,7 +11851,7 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B9" s="72" t="s">
         <v>73</v>
@@ -11826,7 +11865,7 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B10" s="72" t="s">
         <v>74</v>
@@ -11840,7 +11879,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B11" s="72" t="s">
         <v>75</v>
@@ -11854,7 +11893,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B12" s="72" t="s">
         <v>76</v>
@@ -11868,7 +11907,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>77</v>
@@ -11882,7 +11921,7 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B14" s="72" t="s">
         <v>78</v>
@@ -11891,7 +11930,7 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="103" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B15" s="72" t="s">
         <v>79</v>
@@ -11900,7 +11939,7 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="103" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B16" s="72" t="s">
         <v>80</v>
@@ -11964,72 +12003,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A6</f>
         <v>Proveedor</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B6</f>
         <v>Entidad que representa el proveedor y corresponde a aquella empresa a la cual se les hacen pedidos de productos</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -12106,10 +12145,10 @@
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -12121,41 +12160,41 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="115" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="116" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R6" s="118" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="S6" s="118" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="T6" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -12163,7 +12202,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -12175,49 +12214,49 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="O7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q7" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="R7" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="L7" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="M7" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="N7" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="O7" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="P7" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q7" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="R7" s="118" t="s">
-        <v>342</v>
-      </c>
       <c r="S7" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T7" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -12229,41 +12268,41 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="115" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M8" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="O8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q8" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="R8" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="K8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="L8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="M8" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="N8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="O8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="R8" s="118" t="s">
-        <v>342</v>
-      </c>
       <c r="S8" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T8" s="118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -12300,10 +12339,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C12" s="69" t="str">
         <f>A6</f>
@@ -12320,7 +12359,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C13" s="69" t="str">
         <f>A7</f>
@@ -12333,10 +12372,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="122" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C14" s="69" t="str">
         <f>A8</f>
@@ -12368,91 +12407,91 @@
       <c r="E16" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="133"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="155" t="s">
-        <v>365</v>
-      </c>
-      <c r="F17" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="G17" s="135"/>
+        <v>309</v>
+      </c>
+      <c r="E17" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="141"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C18" s="121" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D18" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="127" t="s">
-        <v>360</v>
-      </c>
-      <c r="G18" s="128"/>
+        <v>309</v>
+      </c>
+      <c r="E18" s="150"/>
+      <c r="F18" s="133" t="s">
+        <v>347</v>
+      </c>
+      <c r="G18" s="134"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E19" s="155" t="str">
+        <v>309</v>
+      </c>
+      <c r="E19" s="149" t="str">
         <f>$A$25</f>
         <v>PR-P-2</v>
       </c>
-      <c r="F19" s="127" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" s="128"/>
+      <c r="F19" s="133" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" s="134"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="127" t="s">
-        <v>361</v>
-      </c>
-      <c r="G20" s="128"/>
+        <v>346</v>
+      </c>
+      <c r="E20" s="150"/>
+      <c r="F20" s="133" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="134"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -12490,7 +12529,7 @@
         <v>124</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -12503,7 +12542,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -12513,10 +12552,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -12576,12 +12615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -12617,7 +12656,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -12628,7 +12667,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -12636,21 +12675,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="162" t="s">
-        <v>429</v>
+      <c r="B6" s="129" t="s">
+        <v>416</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -12658,10 +12697,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -12669,10 +12708,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -12739,72 +12778,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A2</f>
         <v>Usuario</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B2</f>
         <v>Entidad que representa al usuario,  el cual corresponde a aquel encargado de realizar las salida y entrada de productos</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -12881,10 +12920,10 @@
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -12896,41 +12935,41 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="12" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="116" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="R6" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="T6" s="76" t="s">
         <v>331</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="R6" s="76" t="s">
-        <v>341</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -12938,7 +12977,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -12950,49 +12989,49 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="R7" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="L7" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="M7" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="N7" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P7" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q7" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="R7" s="65" t="s">
-        <v>342</v>
-      </c>
       <c r="S7" s="65" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T7" s="76" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="114" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C8" s="114">
         <v>1</v>
@@ -13004,49 +13043,49 @@
       <c r="F8" s="114"/>
       <c r="G8" s="114"/>
       <c r="H8" s="115" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I8" s="114"/>
       <c r="J8" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M8" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="O8" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q8" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="R8" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="K8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="L8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="M8" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="N8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="O8" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="R8" s="118" t="s">
-        <v>342</v>
-      </c>
       <c r="S8" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T8" s="76" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B9" s="115" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -13058,41 +13097,41 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="115" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q9" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="R9" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="K9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="L9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="M9" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="N9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="O9" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="P9" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q9" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="R9" s="118" t="s">
-        <v>342</v>
-      </c>
       <c r="S9" s="118" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T9" s="76" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -13129,7 +13168,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B13" s="68" t="s">
         <v>110</v>
@@ -13149,10 +13188,10 @@
         <v>56</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
@@ -13184,92 +13223,92 @@
       <c r="E16" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="133"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="157" t="str">
+      <c r="E17" s="159" t="str">
         <f>$A$24</f>
         <v>US-P-1</v>
       </c>
-      <c r="F17" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="G17" s="135"/>
+      <c r="F17" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="141"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C18" s="121" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D18" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E18" s="159"/>
-      <c r="F18" s="149" t="s">
-        <v>324</v>
-      </c>
-      <c r="G18" s="150"/>
+        <v>309</v>
+      </c>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="162"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="E19" s="157" t="str">
-        <f t="shared" ref="E19:E20" si="0">$A$25</f>
+        <v>309</v>
+      </c>
+      <c r="E19" s="159" t="str">
+        <f t="shared" ref="E19" si="0">$A$25</f>
         <v>US-P-2</v>
       </c>
-      <c r="F19" s="151" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="152"/>
+      <c r="F19" s="163" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="164"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="127" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="128"/>
+        <v>306</v>
+      </c>
+      <c r="E20" s="165"/>
+      <c r="F20" s="133" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="134"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -13307,7 +13346,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -13320,7 +13359,7 @@
         <v>120</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -13387,12 +13426,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -13431,13 +13470,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -13445,13 +13484,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -13459,13 +13498,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -13516,72 +13555,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A14</f>
         <v>Cuidado</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B14</f>
         <v>Entidad que presenta el cuidado y los detalles del manejo y almancenamiento del producto</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -13847,10 +13886,10 @@
       <c r="E14" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="133"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
@@ -13869,10 +13908,10 @@
         <f>$A$22</f>
         <v>CU-P-1</v>
       </c>
-      <c r="F15" s="134" t="s">
+      <c r="F15" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="135"/>
+      <c r="G15" s="141"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -13887,14 +13926,14 @@
       <c r="D16" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="124" t="str">
+      <c r="E16" s="130" t="str">
         <f>$A$23</f>
         <v>CU-P-2</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="134"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -13909,11 +13948,11 @@
       <c r="D17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="127" t="s">
+      <c r="E17" s="131"/>
+      <c r="F17" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="128"/>
+      <c r="G17" s="134"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -13928,11 +13967,11 @@
       <c r="D18" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127" t="s">
+      <c r="E18" s="132"/>
+      <c r="F18" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="128"/>
+      <c r="G18" s="134"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
@@ -14044,10 +14083,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="135"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -14064,7 +14103,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14072,7 +14111,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14080,7 +14119,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -14127,72 +14166,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A11</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B11</f>
         <v>Entidad que representa la cuidad y donde esta ubicado uno o varios almacenes</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -14307,7 +14346,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="76" t="s">
         <v>97</v>
@@ -14352,7 +14391,7 @@
         <v>27</v>
       </c>
       <c r="P7" s="83" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="65" t="s">
         <v>97</v>
@@ -14360,22 +14399,22 @@
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="34" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="36" t="s">
@@ -14528,10 +14567,10 @@
       <c r="E15" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="132" t="s">
+      <c r="F15" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="133"/>
+      <c r="G15" s="139"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -14550,10 +14589,10 @@
         <f>A20</f>
         <v>CI-P-1</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="134"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -14700,11 +14739,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
@@ -14725,10 +14764,10 @@
         <v>5001</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14736,10 +14775,10 @@
         <v>5615</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -14797,72 +14836,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Objeto de dominio'!$A$1</f>
         <v>Objetos de dominio</v>
       </c>
-      <c r="B2" s="130" t="str">
+      <c r="B2" s="136" t="str">
         <f>'Objeto de dominio'!A12</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>'Objeto de dominio'!B1</f>
         <v>Descripcion</v>
       </c>
-      <c r="B3" s="131" t="str">
+      <c r="B3" s="137" t="str">
         <f>'Objeto de dominio'!B12</f>
         <v>Entidad que representa departamento y donde pertence la ciudad</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -15030,22 +15069,22 @@
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B8" s="98" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="98" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I8" s="100"/>
       <c r="J8" s="36" t="s">
@@ -15067,7 +15106,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>97</v>
@@ -15198,10 +15237,10 @@
       <c r="E15" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="132" t="s">
+      <c r="F15" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="133"/>
+      <c r="G15" s="139"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -15220,10 +15259,10 @@
         <f>A20</f>
         <v>DE-P-1</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="134"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -15367,11 +15406,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
@@ -15392,10 +15431,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
